--- a/Seed Generator/SPSA Depth = 1/SPSA Code/static seeds 5.xlsx
+++ b/Seed Generator/SPSA Depth = 1/SPSA Code/static seeds 5.xlsx
@@ -1899,7 +1899,7 @@
         <v>-6</v>
       </c>
       <c r="J2">
-        <v>19.41418385505676</v>
+        <v>27.33145904541016</v>
       </c>
       <c r="K2">
         <v>-12</v>
@@ -1940,7 +1940,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J3">
-        <v>18.8970799446106</v>
+        <v>70.97489786148071</v>
       </c>
       <c r="K3">
         <v>-12</v>
@@ -1981,7 +1981,7 @@
         <v>-2.999999881571349</v>
       </c>
       <c r="J4">
-        <v>19.69186091423035</v>
+        <v>62.2962589263916</v>
       </c>
       <c r="K4">
         <v>-8.999999881571348</v>
@@ -2022,7 +2022,7 @@
         <v>-6</v>
       </c>
       <c r="J5">
-        <v>18.11681079864502</v>
+        <v>82.23378896713257</v>
       </c>
       <c r="K5">
         <v>-12</v>
@@ -2063,7 +2063,7 @@
         <v>-6</v>
       </c>
       <c r="J6">
-        <v>22.83122992515564</v>
+        <v>77.58691501617432</v>
       </c>
       <c r="K6">
         <v>-12</v>
@@ -2104,7 +2104,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J7">
-        <v>21.47102093696594</v>
+        <v>73.51846122741699</v>
       </c>
       <c r="K7">
         <v>-12</v>
@@ -2145,7 +2145,7 @@
         <v>-6</v>
       </c>
       <c r="J8">
-        <v>23.92893624305725</v>
+        <v>85.36359906196594</v>
       </c>
       <c r="K8">
         <v>-12</v>
@@ -2186,7 +2186,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J9">
-        <v>20.03988313674927</v>
+        <v>78.08444023132324</v>
       </c>
       <c r="K9">
         <v>-11.99999999999999</v>
@@ -2227,7 +2227,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J10">
-        <v>19.76414179801941</v>
+        <v>82.78107190132141</v>
       </c>
       <c r="K10">
         <v>-12</v>
@@ -2268,7 +2268,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J11">
-        <v>20.18035888671875</v>
+        <v>56.40488696098328</v>
       </c>
       <c r="K11">
         <v>-12</v>
@@ -2309,7 +2309,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J12">
-        <v>19.74461674690247</v>
+        <v>65.57699465751648</v>
       </c>
       <c r="K12">
         <v>-12</v>
@@ -2350,7 +2350,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J13">
-        <v>20.07693791389465</v>
+        <v>58.70841598510742</v>
       </c>
       <c r="K13">
         <v>-12</v>
@@ -2391,7 +2391,7 @@
         <v>-1.999998700437081</v>
       </c>
       <c r="J14">
-        <v>20.39491105079651</v>
+        <v>51.2143669128418</v>
       </c>
       <c r="K14">
         <v>-7.999998700437081</v>
@@ -2432,7 +2432,7 @@
         <v>-5.999999971894615</v>
       </c>
       <c r="J15">
-        <v>19.60955691337585</v>
+        <v>69.81744885444641</v>
       </c>
       <c r="K15">
         <v>-11.99999997189462</v>
@@ -2473,7 +2473,7 @@
         <v>-6</v>
       </c>
       <c r="J16">
-        <v>18.67423796653748</v>
+        <v>72.28373789787292</v>
       </c>
       <c r="K16">
         <v>-12</v>
@@ -2514,7 +2514,7 @@
         <v>-6</v>
       </c>
       <c r="J17">
-        <v>18.46227502822876</v>
+        <v>74.18957805633545</v>
       </c>
       <c r="K17">
         <v>-12</v>
@@ -2555,7 +2555,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J18">
-        <v>18.69305825233459</v>
+        <v>75.93029713630676</v>
       </c>
       <c r="K18">
         <v>-12</v>
@@ -2596,7 +2596,7 @@
         <v>-6</v>
       </c>
       <c r="J19">
-        <v>18.18593692779541</v>
+        <v>57.71572518348694</v>
       </c>
       <c r="K19">
         <v>-12</v>
@@ -2637,7 +2637,7 @@
         <v>-2.99999993015371</v>
       </c>
       <c r="J20">
-        <v>18.54940605163574</v>
+        <v>64.96683096885681</v>
       </c>
       <c r="K20">
         <v>-8.999999930153709</v>
@@ -2678,7 +2678,7 @@
         <v>-6</v>
       </c>
       <c r="J21">
-        <v>18.50557804107666</v>
+        <v>60.03828620910645</v>
       </c>
       <c r="K21">
         <v>-12</v>
@@ -2719,7 +2719,7 @@
         <v>-6</v>
       </c>
       <c r="J22">
-        <v>19.9769299030304</v>
+        <v>39.03733396530151</v>
       </c>
       <c r="K22">
         <v>-12</v>
@@ -2760,7 +2760,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J23">
-        <v>18.61308073997498</v>
+        <v>54.08485078811646</v>
       </c>
       <c r="K23">
         <v>-11.99999999999999</v>
@@ -2801,7 +2801,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J24">
-        <v>18.70420479774475</v>
+        <v>67.22420811653137</v>
       </c>
       <c r="K24">
         <v>-12</v>
@@ -2842,7 +2842,7 @@
         <v>-6</v>
       </c>
       <c r="J25">
-        <v>18.71116375923157</v>
+        <v>75.99068808555603</v>
       </c>
       <c r="K25">
         <v>-12</v>
@@ -2883,7 +2883,7 @@
         <v>-2.999999146977728</v>
       </c>
       <c r="J26">
-        <v>18.55670690536499</v>
+        <v>75.51981091499329</v>
       </c>
       <c r="K26">
         <v>-8.999999146977729</v>
@@ -2924,7 +2924,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J27">
-        <v>18.96946620941162</v>
+        <v>60.01095199584961</v>
       </c>
       <c r="K27">
         <v>-12</v>
@@ -2965,7 +2965,7 @@
         <v>-6</v>
       </c>
       <c r="J28">
-        <v>18.46486282348633</v>
+        <v>46.70882892608643</v>
       </c>
       <c r="K28">
         <v>-12</v>
@@ -3006,7 +3006,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J29">
-        <v>18.76050281524658</v>
+        <v>50.89087009429932</v>
       </c>
       <c r="K29">
         <v>-12</v>
@@ -3047,7 +3047,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J30">
-        <v>18.80671906471252</v>
+        <v>59.53234481811523</v>
       </c>
       <c r="K30">
         <v>-12</v>
@@ -3088,7 +3088,7 @@
         <v>-6</v>
       </c>
       <c r="J31">
-        <v>18.63385319709778</v>
+        <v>39.5628969669342</v>
       </c>
       <c r="K31">
         <v>-12</v>
@@ -3129,7 +3129,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J32">
-        <v>18.91664099693298</v>
+        <v>73.45841598510742</v>
       </c>
       <c r="K32">
         <v>-12</v>
@@ -3170,7 +3170,7 @@
         <v>-2.999999964850715</v>
       </c>
       <c r="J33">
-        <v>18.78819489479065</v>
+        <v>86.01761293411255</v>
       </c>
       <c r="K33">
         <v>-8.999999964850716</v>
@@ -3211,7 +3211,7 @@
         <v>-2.999992544326743</v>
       </c>
       <c r="J34">
-        <v>18.63388586044312</v>
+        <v>86.44816398620605</v>
       </c>
       <c r="K34">
         <v>-8.999992544326744</v>
@@ -3252,7 +3252,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J35">
-        <v>18.88009595870972</v>
+        <v>70.344566822052</v>
       </c>
       <c r="K35">
         <v>-11.99999999999999</v>
@@ -3293,7 +3293,7 @@
         <v>-6</v>
       </c>
       <c r="J36">
-        <v>18.58029103279114</v>
+        <v>57.35555505752563</v>
       </c>
       <c r="K36">
         <v>-12</v>
@@ -3334,7 +3334,7 @@
         <v>-6</v>
       </c>
       <c r="J37">
-        <v>18.74761915206909</v>
+        <v>49.30144619941711</v>
       </c>
       <c r="K37">
         <v>-12</v>
@@ -3375,7 +3375,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J38">
-        <v>18.76605701446533</v>
+        <v>53.92920088768005</v>
       </c>
       <c r="K38">
         <v>-12</v>
@@ -3416,7 +3416,7 @@
         <v>-6</v>
       </c>
       <c r="J39">
-        <v>18.90480303764343</v>
+        <v>72.91850805282593</v>
       </c>
       <c r="K39">
         <v>-12</v>
@@ -3457,7 +3457,7 @@
         <v>-6</v>
       </c>
       <c r="J40">
-        <v>19.14036917686462</v>
+        <v>45.16274476051331</v>
       </c>
       <c r="K40">
         <v>-12</v>
@@ -3498,7 +3498,7 @@
         <v>-2.999999087450835</v>
       </c>
       <c r="J41">
-        <v>18.74084711074829</v>
+        <v>57.28666710853577</v>
       </c>
       <c r="K41">
         <v>-8.999999087450835</v>
@@ -3539,7 +3539,7 @@
         <v>-6</v>
       </c>
       <c r="J42">
-        <v>18.6347930431366</v>
+        <v>61.99100303649902</v>
       </c>
       <c r="K42">
         <v>-12</v>
@@ -3580,7 +3580,7 @@
         <v>-2.999999825790957</v>
       </c>
       <c r="J43">
-        <v>18.80696296691895</v>
+        <v>72.09715294837952</v>
       </c>
       <c r="K43">
         <v>-8.999999825790958</v>
@@ -3621,7 +3621,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J44">
-        <v>18.62183570861816</v>
+        <v>54.92117500305176</v>
       </c>
       <c r="K44">
         <v>-12.00000000000001</v>
@@ -3662,7 +3662,7 @@
         <v>-2.999999827718033</v>
       </c>
       <c r="J45">
-        <v>18.82787823677063</v>
+        <v>38.99490666389465</v>
       </c>
       <c r="K45">
         <v>-8.999999827718034</v>
@@ -3703,7 +3703,7 @@
         <v>-6</v>
       </c>
       <c r="J46">
-        <v>18.84507417678833</v>
+        <v>62.7005021572113</v>
       </c>
       <c r="K46">
         <v>-12</v>
@@ -3744,7 +3744,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J47">
-        <v>18.68923187255859</v>
+        <v>57.29396724700928</v>
       </c>
       <c r="K47">
         <v>-12</v>
@@ -3785,7 +3785,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J48">
-        <v>18.23624277114868</v>
+        <v>56.24900507926941</v>
       </c>
       <c r="K48">
         <v>-12</v>
@@ -3826,7 +3826,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J49">
-        <v>18.62529897689819</v>
+        <v>62.77924203872681</v>
       </c>
       <c r="K49">
         <v>-12</v>
@@ -3867,7 +3867,7 @@
         <v>-6</v>
       </c>
       <c r="J50">
-        <v>18.95986223220825</v>
+        <v>63.45706486701965</v>
       </c>
       <c r="K50">
         <v>-12</v>
@@ -3908,7 +3908,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J51">
-        <v>18.83398413658142</v>
+        <v>44.41057395935059</v>
       </c>
       <c r="K51">
         <v>-11.99999999999999</v>
@@ -3949,7 +3949,7 @@
         <v>-5.999989624454624</v>
       </c>
       <c r="J52">
-        <v>18.82861614227295</v>
+        <v>45.21862816810608</v>
       </c>
       <c r="K52">
         <v>-11.99998962445462</v>
@@ -3990,7 +3990,7 @@
         <v>-6</v>
       </c>
       <c r="J53">
-        <v>19.01601719856262</v>
+        <v>47.4732301235199</v>
       </c>
       <c r="K53">
         <v>-12</v>
@@ -4031,7 +4031,7 @@
         <v>-5.999720459456018</v>
       </c>
       <c r="J54">
-        <v>20.15640902519226</v>
+        <v>65.29337525367737</v>
       </c>
       <c r="K54">
         <v>-11.99972045945602</v>
@@ -4072,7 +4072,7 @@
         <v>-6</v>
       </c>
       <c r="J55">
-        <v>19.27602887153625</v>
+        <v>59.49646019935608</v>
       </c>
       <c r="K55">
         <v>-12</v>
@@ -4113,7 +4113,7 @@
         <v>-2.999998859376515</v>
       </c>
       <c r="J56">
-        <v>18.99934697151184</v>
+        <v>43.97911429405212</v>
       </c>
       <c r="K56">
         <v>-8.999998859376515</v>
@@ -4154,7 +4154,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J57">
-        <v>19.24681687355042</v>
+        <v>54.68268799781799</v>
       </c>
       <c r="K57">
         <v>-12</v>
@@ -4195,7 +4195,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J58">
-        <v>19.27465200424194</v>
+        <v>43.53720903396606</v>
       </c>
       <c r="K58">
         <v>-12</v>
@@ -4236,7 +4236,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J59">
-        <v>19.29197788238525</v>
+        <v>58.15539288520813</v>
       </c>
       <c r="K59">
         <v>-12</v>
@@ -4277,7 +4277,7 @@
         <v>-2.999999897412929</v>
       </c>
       <c r="J60">
-        <v>19.46898293495178</v>
+        <v>45.63694477081299</v>
       </c>
       <c r="K60">
         <v>-8.999999897412929</v>
@@ -4318,7 +4318,7 @@
         <v>-6</v>
       </c>
       <c r="J61">
-        <v>19.45672869682312</v>
+        <v>41.93184018135071</v>
       </c>
       <c r="K61">
         <v>-12</v>
@@ -4359,7 +4359,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J62">
-        <v>19.92296886444092</v>
+        <v>47.96402812004089</v>
       </c>
       <c r="K62">
         <v>-12</v>
@@ -4400,7 +4400,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J63">
-        <v>18.67135810852051</v>
+        <v>50.21019887924194</v>
       </c>
       <c r="K63">
         <v>-12</v>
@@ -4441,7 +4441,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J64">
-        <v>18.62339806556702</v>
+        <v>61.50487279891968</v>
       </c>
       <c r="K64">
         <v>-12</v>
@@ -4482,7 +4482,7 @@
         <v>-2.999999961435151</v>
       </c>
       <c r="J65">
-        <v>19.1883020401001</v>
+        <v>45.78312206268311</v>
       </c>
       <c r="K65">
         <v>-8.999999961435151</v>
@@ -4523,7 +4523,7 @@
         <v>-2.999999721166779</v>
       </c>
       <c r="J66">
-        <v>19.12909913063049</v>
+        <v>63.58752608299255</v>
       </c>
       <c r="K66">
         <v>-8.999999721166779</v>
@@ -4564,7 +4564,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J67">
-        <v>19.03613066673279</v>
+        <v>54.01147222518921</v>
       </c>
       <c r="K67">
         <v>-12</v>
@@ -4605,7 +4605,7 @@
         <v>-6</v>
       </c>
       <c r="J68">
-        <v>18.73985910415649</v>
+        <v>81.24236488342285</v>
       </c>
       <c r="K68">
         <v>-12</v>
@@ -4646,7 +4646,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J69">
-        <v>19.21470427513123</v>
+        <v>50.54561996459961</v>
       </c>
       <c r="K69">
         <v>-12</v>
@@ -4687,7 +4687,7 @@
         <v>-6</v>
       </c>
       <c r="J70">
-        <v>19.57943391799927</v>
+        <v>51.60462689399719</v>
       </c>
       <c r="K70">
         <v>-12</v>
@@ -4728,7 +4728,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J71">
-        <v>18.95108485221863</v>
+        <v>72.15127396583557</v>
       </c>
       <c r="K71">
         <v>-12</v>
@@ -4769,7 +4769,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J72">
-        <v>19.55827212333679</v>
+        <v>71.0211546421051</v>
       </c>
       <c r="K72">
         <v>-11.99999999999999</v>
@@ -4810,7 +4810,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J73">
-        <v>18.79916906356812</v>
+        <v>77.44984483718872</v>
       </c>
       <c r="K73">
         <v>-12</v>
@@ -4851,7 +4851,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J74">
-        <v>18.74784398078918</v>
+        <v>44.92200303077698</v>
       </c>
       <c r="K74">
         <v>-12</v>
@@ -4892,7 +4892,7 @@
         <v>-6</v>
       </c>
       <c r="J75">
-        <v>18.84687495231628</v>
+        <v>48.40351700782776</v>
       </c>
       <c r="K75">
         <v>-12</v>
@@ -4933,7 +4933,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J76">
-        <v>19.06244206428528</v>
+        <v>47.63824701309204</v>
       </c>
       <c r="K76">
         <v>-11.99999999999999</v>
@@ -4974,7 +4974,7 @@
         <v>-6</v>
       </c>
       <c r="J77">
-        <v>19.21760988235474</v>
+        <v>46.86809301376343</v>
       </c>
       <c r="K77">
         <v>-12</v>
@@ -5015,7 +5015,7 @@
         <v>-1.999999048818299</v>
       </c>
       <c r="J78">
-        <v>18.46933221817017</v>
+        <v>48.44441199302673</v>
       </c>
       <c r="K78">
         <v>-7.999999048818299</v>
@@ -5056,7 +5056,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J79">
-        <v>17.50705909729004</v>
+        <v>73.47904014587402</v>
       </c>
       <c r="K79">
         <v>-12</v>
@@ -5097,7 +5097,7 @@
         <v>-6</v>
       </c>
       <c r="J80">
-        <v>28.35851502418518</v>
+        <v>78.95871210098267</v>
       </c>
       <c r="K80">
         <v>-12</v>
@@ -5138,7 +5138,7 @@
         <v>-6</v>
       </c>
       <c r="J81">
-        <v>32.6631441116333</v>
+        <v>81.05487108230591</v>
       </c>
       <c r="K81">
         <v>-12</v>
@@ -5179,7 +5179,7 @@
         <v>-2.999999626233408</v>
       </c>
       <c r="J82">
-        <v>31.4869270324707</v>
+        <v>73.12276601791382</v>
       </c>
       <c r="K82">
         <v>-8.999999626233407</v>
@@ -5220,7 +5220,7 @@
         <v>-6</v>
       </c>
       <c r="J83">
-        <v>26.20038199424744</v>
+        <v>85.91510391235352</v>
       </c>
       <c r="K83">
         <v>-12</v>
@@ -5261,7 +5261,7 @@
         <v>-6</v>
       </c>
       <c r="J84">
-        <v>18.00269484519958</v>
+        <v>59.19286108016968</v>
       </c>
       <c r="K84">
         <v>-12</v>
@@ -5302,7 +5302,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J85">
-        <v>18.3548731803894</v>
+        <v>40.15162396430969</v>
       </c>
       <c r="K85">
         <v>-12.00000000000001</v>
@@ -5343,7 +5343,7 @@
         <v>-6</v>
       </c>
       <c r="J86">
-        <v>18.45065808296204</v>
+        <v>48.83631205558777</v>
       </c>
       <c r="K86">
         <v>-12</v>
@@ -5384,7 +5384,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J87">
-        <v>18.49014902114868</v>
+        <v>56.95403289794922</v>
       </c>
       <c r="K87">
         <v>-12</v>
@@ -5425,7 +5425,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J88">
-        <v>18.70320415496826</v>
+        <v>51.2228798866272</v>
       </c>
       <c r="K88">
         <v>-12</v>
@@ -5466,7 +5466,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J89">
-        <v>18.57904005050659</v>
+        <v>52.65806007385254</v>
       </c>
       <c r="K89">
         <v>-12</v>
@@ -5507,7 +5507,7 @@
         <v>-6</v>
       </c>
       <c r="J90">
-        <v>19.80736589431763</v>
+        <v>52.10727405548096</v>
       </c>
       <c r="K90">
         <v>-12</v>
@@ -5548,7 +5548,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J91">
-        <v>19.01423692703247</v>
+        <v>46.59367203712463</v>
       </c>
       <c r="K91">
         <v>-12</v>
@@ -5589,7 +5589,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J92">
-        <v>18.55692005157471</v>
+        <v>52.95741176605225</v>
       </c>
       <c r="K92">
         <v>-12</v>
@@ -5630,7 +5630,7 @@
         <v>-2.999999999077505</v>
       </c>
       <c r="J93">
-        <v>18.54497885704041</v>
+        <v>50.68098282814026</v>
       </c>
       <c r="K93">
         <v>-8.999999999077506</v>
@@ -5671,7 +5671,7 @@
         <v>-2.999999946923726</v>
       </c>
       <c r="J94">
-        <v>18.52225399017334</v>
+        <v>49.73394513130188</v>
       </c>
       <c r="K94">
         <v>-8.999999946923726</v>
@@ -5712,7 +5712,7 @@
         <v>-6</v>
       </c>
       <c r="J95">
-        <v>18.81636786460876</v>
+        <v>50.97706699371338</v>
       </c>
       <c r="K95">
         <v>-12</v>
@@ -5753,7 +5753,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J96">
-        <v>18.76021981239319</v>
+        <v>50.24909472465515</v>
       </c>
       <c r="K96">
         <v>-12</v>
@@ -5794,7 +5794,7 @@
         <v>-6</v>
       </c>
       <c r="J97">
-        <v>18.66277408599854</v>
+        <v>48.60138392448425</v>
       </c>
       <c r="K97">
         <v>-12</v>
@@ -5835,7 +5835,7 @@
         <v>-2.999999297674459</v>
       </c>
       <c r="J98">
-        <v>18.79675483703613</v>
+        <v>45.2023401260376</v>
       </c>
       <c r="K98">
         <v>-8.99999929767446</v>
@@ -5876,7 +5876,7 @@
         <v>-2.999999141938145</v>
       </c>
       <c r="J99">
-        <v>18.62773299217224</v>
+        <v>49.74946188926697</v>
       </c>
       <c r="K99">
         <v>-8.999999141938144</v>
@@ -5917,7 +5917,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J100">
-        <v>18.61458015441895</v>
+        <v>45.52602386474609</v>
       </c>
       <c r="K100">
         <v>-12</v>
@@ -5958,7 +5958,7 @@
         <v>-6</v>
       </c>
       <c r="J101">
-        <v>20.11766719818115</v>
+        <v>42.94938588142395</v>
       </c>
       <c r="K101">
         <v>-12</v>
@@ -5999,7 +5999,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J102">
-        <v>18.72948694229126</v>
+        <v>41.34214210510254</v>
       </c>
       <c r="K102">
         <v>-12</v>
@@ -6040,7 +6040,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J103">
-        <v>19.05202102661133</v>
+        <v>46.08030390739441</v>
       </c>
       <c r="K103">
         <v>-11.99999999999999</v>
@@ -6081,7 +6081,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J104">
-        <v>18.97940492630005</v>
+        <v>47.03174018859863</v>
       </c>
       <c r="K104">
         <v>-12</v>
@@ -6122,7 +6122,7 @@
         <v>-6</v>
       </c>
       <c r="J105">
-        <v>19.24622702598572</v>
+        <v>50.05793476104736</v>
       </c>
       <c r="K105">
         <v>-12</v>
@@ -6163,7 +6163,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J106">
-        <v>19.25758695602417</v>
+        <v>44.7076690196991</v>
       </c>
       <c r="K106">
         <v>-12</v>
@@ -6204,7 +6204,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J107">
-        <v>18.69660902023315</v>
+        <v>46.41589713096619</v>
       </c>
       <c r="K107">
         <v>-12</v>
@@ -6245,7 +6245,7 @@
         <v>-6</v>
       </c>
       <c r="J108">
-        <v>18.87762212753296</v>
+        <v>55.94735097885132</v>
       </c>
       <c r="K108">
         <v>-12</v>
@@ -6286,7 +6286,7 @@
         <v>-2.999992351402497</v>
       </c>
       <c r="J109">
-        <v>19.04759883880615</v>
+        <v>62.88552904129028</v>
       </c>
       <c r="K109">
         <v>-8.999992351402497</v>
@@ -6327,7 +6327,7 @@
         <v>-6</v>
       </c>
       <c r="J110">
-        <v>19.05601716041565</v>
+        <v>74.06250810623169</v>
       </c>
       <c r="K110">
         <v>-12</v>
@@ -6368,7 +6368,7 @@
         <v>-2.99999984419327</v>
       </c>
       <c r="J111">
-        <v>18.89249992370605</v>
+        <v>44.70149827003479</v>
       </c>
       <c r="K111">
         <v>-8.999999844193271</v>
@@ -6409,7 +6409,7 @@
         <v>-6</v>
       </c>
       <c r="J112">
-        <v>19.17119097709656</v>
+        <v>61.98857712745667</v>
       </c>
       <c r="K112">
         <v>-12</v>
@@ -6450,7 +6450,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J113">
-        <v>18.81145310401917</v>
+        <v>68.48413991928101</v>
       </c>
       <c r="K113">
         <v>-12</v>
@@ -6491,7 +6491,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J114">
-        <v>18.6472373008728</v>
+        <v>56.40515398979187</v>
       </c>
       <c r="K114">
         <v>-12</v>
@@ -6532,7 +6532,7 @@
         <v>-6</v>
       </c>
       <c r="J115">
-        <v>19.21423292160034</v>
+        <v>41.87614393234253</v>
       </c>
       <c r="K115">
         <v>-12</v>
@@ -6573,7 +6573,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J116">
-        <v>17.68382096290588</v>
+        <v>60.0856409072876</v>
       </c>
       <c r="K116">
         <v>-12</v>
@@ -6614,7 +6614,7 @@
         <v>-6</v>
       </c>
       <c r="J117">
-        <v>19.62879085540771</v>
+        <v>54.00573587417603</v>
       </c>
       <c r="K117">
         <v>-12</v>
@@ -6655,7 +6655,7 @@
         <v>-1.999998588157942</v>
       </c>
       <c r="J118">
-        <v>19.07025694847107</v>
+        <v>52.7839879989624</v>
       </c>
       <c r="K118">
         <v>-7.999998588157942</v>
@@ -6696,7 +6696,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J119">
-        <v>19.1881377696991</v>
+        <v>47.66724801063538</v>
       </c>
       <c r="K119">
         <v>-12</v>
@@ -6737,7 +6737,7 @@
         <v>-6</v>
       </c>
       <c r="J120">
-        <v>19.46017503738403</v>
+        <v>54.08580732345581</v>
       </c>
       <c r="K120">
         <v>-12</v>
@@ -6778,7 +6778,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J121">
-        <v>19.1409740447998</v>
+        <v>46.80760717391968</v>
       </c>
       <c r="K121">
         <v>-12</v>
@@ -6819,7 +6819,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J122">
-        <v>18.72636699676514</v>
+        <v>64.15829491615295</v>
       </c>
       <c r="K122">
         <v>-12</v>
@@ -6860,7 +6860,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J123">
-        <v>18.80290412902832</v>
+        <v>46.21960401535034</v>
       </c>
       <c r="K123">
         <v>-12</v>
@@ -6901,7 +6901,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J124">
-        <v>18.93482208251953</v>
+        <v>45.24077987670898</v>
       </c>
       <c r="K124">
         <v>-12</v>
@@ -6942,7 +6942,7 @@
         <v>-6</v>
       </c>
       <c r="J125">
-        <v>18.69389581680298</v>
+        <v>46.03266191482544</v>
       </c>
       <c r="K125">
         <v>-12</v>
@@ -6983,7 +6983,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J126">
-        <v>18.84451413154602</v>
+        <v>50.93604397773743</v>
       </c>
       <c r="K126">
         <v>-12</v>
@@ -7024,7 +7024,7 @@
         <v>-6</v>
       </c>
       <c r="J127">
-        <v>18.8096010684967</v>
+        <v>43.93025016784668</v>
       </c>
       <c r="K127">
         <v>-12</v>
@@ -7065,7 +7065,7 @@
         <v>-6</v>
       </c>
       <c r="J128">
-        <v>19.1417920589447</v>
+        <v>50.51191592216492</v>
       </c>
       <c r="K128">
         <v>-12</v>
@@ -7106,7 +7106,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J129">
-        <v>18.87598085403442</v>
+        <v>48.67774391174316</v>
       </c>
       <c r="K129">
         <v>-12</v>
@@ -7147,7 +7147,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J130">
-        <v>18.94424104690552</v>
+        <v>49.04452395439148</v>
       </c>
       <c r="K130">
         <v>-12</v>
@@ -7188,7 +7188,7 @@
         <v>-2.999999781199444</v>
       </c>
       <c r="J131">
-        <v>18.88828611373901</v>
+        <v>49.23743081092834</v>
       </c>
       <c r="K131">
         <v>-8.999999781199444</v>
@@ -7229,7 +7229,7 @@
         <v>-1.99999919812155</v>
       </c>
       <c r="J132">
-        <v>18.87676692008972</v>
+        <v>67.61684203147888</v>
       </c>
       <c r="K132">
         <v>-7.99999919812155</v>
@@ -7270,7 +7270,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J133">
-        <v>20.68464517593384</v>
+        <v>82.40424299240112</v>
       </c>
       <c r="K133">
         <v>-12</v>
@@ -7311,7 +7311,7 @@
         <v>-6</v>
       </c>
       <c r="J134">
-        <v>19.2827467918396</v>
+        <v>79.47774124145508</v>
       </c>
       <c r="K134">
         <v>-12</v>
@@ -7352,7 +7352,7 @@
         <v>-6</v>
       </c>
       <c r="J135">
-        <v>18.94132709503174</v>
+        <v>84.95846700668335</v>
       </c>
       <c r="K135">
         <v>-12</v>
@@ -7393,7 +7393,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J136">
-        <v>18.93300294876099</v>
+        <v>81.18014073371887</v>
       </c>
       <c r="K136">
         <v>-12</v>
@@ -7434,7 +7434,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J137">
-        <v>19.10007500648499</v>
+        <v>63.37710905075073</v>
       </c>
       <c r="K137">
         <v>-12</v>
@@ -7475,7 +7475,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J138">
-        <v>18.84883403778076</v>
+        <v>54.31488609313965</v>
       </c>
       <c r="K138">
         <v>-12</v>
@@ -7516,7 +7516,7 @@
         <v>-1.99999871685922</v>
       </c>
       <c r="J139">
-        <v>18.91249680519104</v>
+        <v>50.28729605674744</v>
       </c>
       <c r="K139">
         <v>-7.999998716859221</v>
@@ -7557,7 +7557,7 @@
         <v>-3.011776234851608</v>
       </c>
       <c r="J140">
-        <v>19.0827898979187</v>
+        <v>51.59189367294312</v>
       </c>
       <c r="K140">
         <v>-9.011776234851608</v>
@@ -7598,7 +7598,7 @@
         <v>-5.999999998365956</v>
       </c>
       <c r="J141">
-        <v>18.99075794219971</v>
+        <v>68.27095293998718</v>
       </c>
       <c r="K141">
         <v>-11.99999999836596</v>
@@ -7639,7 +7639,7 @@
         <v>-6</v>
       </c>
       <c r="J142">
-        <v>18.85968995094299</v>
+        <v>76.4769070148468</v>
       </c>
       <c r="K142">
         <v>-12</v>
@@ -7680,7 +7680,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J143">
-        <v>18.74003314971924</v>
+        <v>72.80202507972717</v>
       </c>
       <c r="K143">
         <v>-12</v>
@@ -7721,7 +7721,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J144">
-        <v>18.86523079872131</v>
+        <v>68.37061715126038</v>
       </c>
       <c r="K144">
         <v>-12</v>
@@ -7762,7 +7762,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J145">
-        <v>18.94566798210144</v>
+        <v>68.99833393096924</v>
       </c>
       <c r="K145">
         <v>-12.00000000000001</v>
@@ -7803,7 +7803,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J146">
-        <v>20.03790688514709</v>
+        <v>48.62116885185242</v>
       </c>
       <c r="K146">
         <v>-12</v>
@@ -7844,7 +7844,7 @@
         <v>-6</v>
       </c>
       <c r="J147">
-        <v>19.15775609016418</v>
+        <v>62.1720130443573</v>
       </c>
       <c r="K147">
         <v>-12</v>
@@ -7885,7 +7885,7 @@
         <v>-6</v>
       </c>
       <c r="J148">
-        <v>19.18875908851624</v>
+        <v>52.28526473045349</v>
       </c>
       <c r="K148">
         <v>-12</v>
@@ -7926,7 +7926,7 @@
         <v>-2.999999878224675</v>
       </c>
       <c r="J149">
-        <v>19.76162004470825</v>
+        <v>63.51404094696045</v>
       </c>
       <c r="K149">
         <v>-8.999999878224674</v>
@@ -7967,7 +7967,7 @@
         <v>-6</v>
       </c>
       <c r="J150">
-        <v>20.50536704063416</v>
+        <v>83.81393098831177</v>
       </c>
       <c r="K150">
         <v>-12</v>
@@ -8008,7 +8008,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J151">
-        <v>24.02525162696838</v>
+        <v>76.09286975860596</v>
       </c>
       <c r="K151">
         <v>-12</v>
@@ -8049,7 +8049,7 @@
         <v>-6</v>
       </c>
       <c r="J152">
-        <v>20.80386090278625</v>
+        <v>72.89377880096436</v>
       </c>
       <c r="K152">
         <v>-12</v>
@@ -8090,7 +8090,7 @@
         <v>-6</v>
       </c>
       <c r="J153">
-        <v>19.25880908966064</v>
+        <v>76.42954587936401</v>
       </c>
       <c r="K153">
         <v>-12</v>
@@ -8131,7 +8131,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J154">
-        <v>21.32839894294739</v>
+        <v>59.59830808639526</v>
       </c>
       <c r="K154">
         <v>-12</v>
@@ -8172,7 +8172,7 @@
         <v>-2.999999492987</v>
       </c>
       <c r="J155">
-        <v>21.12651228904724</v>
+        <v>71.20783305168152</v>
       </c>
       <c r="K155">
         <v>-8.999999492987001</v>
@@ -8213,7 +8213,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J156">
-        <v>19.20122885704041</v>
+        <v>70.94979095458984</v>
       </c>
       <c r="K156">
         <v>-12</v>
@@ -8254,7 +8254,7 @@
         <v>-6</v>
       </c>
       <c r="J157">
-        <v>19.36107802391052</v>
+        <v>82.337327003479</v>
       </c>
       <c r="K157">
         <v>-12</v>
@@ -8295,7 +8295,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J158">
-        <v>18.8202269077301</v>
+        <v>82.91576099395752</v>
       </c>
       <c r="K158">
         <v>-12</v>
@@ -8336,7 +8336,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J159">
-        <v>20.47201895713806</v>
+        <v>85.0391149520874</v>
       </c>
       <c r="K159">
         <v>-12</v>
@@ -8377,7 +8377,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J160">
-        <v>18.84250593185425</v>
+        <v>71.33731889724731</v>
       </c>
       <c r="K160">
         <v>-12</v>
@@ -8418,7 +8418,7 @@
         <v>-6</v>
       </c>
       <c r="J161">
-        <v>18.84071707725525</v>
+        <v>76.44469404220581</v>
       </c>
       <c r="K161">
         <v>-12</v>
@@ -8459,7 +8459,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J162">
-        <v>18.72143888473511</v>
+        <v>81.27395296096802</v>
       </c>
       <c r="K162">
         <v>-12</v>
@@ -8500,7 +8500,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J163">
-        <v>18.69238305091858</v>
+        <v>81.34143877029419</v>
       </c>
       <c r="K163">
         <v>-12</v>
@@ -8541,7 +8541,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J164">
-        <v>18.85581994056702</v>
+        <v>74.51818299293518</v>
       </c>
       <c r="K164">
         <v>-12</v>
@@ -8582,7 +8582,7 @@
         <v>-1.999998370549657</v>
       </c>
       <c r="J165">
-        <v>19.54289817810059</v>
+        <v>81.07702875137329</v>
       </c>
       <c r="K165">
         <v>-7.999998370549656</v>
@@ -8623,7 +8623,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J166">
-        <v>18.72511410713196</v>
+        <v>83.63052296638489</v>
       </c>
       <c r="K166">
         <v>-12</v>
@@ -8664,7 +8664,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J167">
-        <v>19.01555204391479</v>
+        <v>75.69940996170044</v>
       </c>
       <c r="K167">
         <v>-11.99999999999999</v>
@@ -8705,7 +8705,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J168">
-        <v>18.67200422286987</v>
+        <v>82.01404714584351</v>
       </c>
       <c r="K168">
         <v>-12</v>
@@ -8746,7 +8746,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J169">
-        <v>19.39283418655396</v>
+        <v>75.05553293228149</v>
       </c>
       <c r="K169">
         <v>-11.99999999999999</v>
@@ -8787,7 +8787,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J170">
-        <v>19.0497100353241</v>
+        <v>83.1215341091156</v>
       </c>
       <c r="K170">
         <v>-12</v>
@@ -8828,7 +8828,7 @@
         <v>-2.999999976395274</v>
       </c>
       <c r="J171">
-        <v>18.97486710548401</v>
+        <v>77.35257601737976</v>
       </c>
       <c r="K171">
         <v>-8.999999976395275</v>
@@ -8869,7 +8869,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J172">
-        <v>18.77286601066589</v>
+        <v>73.76228785514832</v>
       </c>
       <c r="K172">
         <v>-12</v>
@@ -8910,7 +8910,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J173">
-        <v>18.65067505836487</v>
+        <v>72.36506295204163</v>
       </c>
       <c r="K173">
         <v>-12</v>
@@ -8951,7 +8951,7 @@
         <v>-2.999998077878182</v>
       </c>
       <c r="J174">
-        <v>18.85169887542725</v>
+        <v>84.15957403182983</v>
       </c>
       <c r="K174">
         <v>-8.999998077878182</v>
@@ -8992,7 +8992,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J175">
-        <v>18.90250992774963</v>
+        <v>82.3318350315094</v>
       </c>
       <c r="K175">
         <v>-12</v>
@@ -9033,7 +9033,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J176">
-        <v>18.78707575798035</v>
+        <v>81.72713494300842</v>
       </c>
       <c r="K176">
         <v>-12</v>
@@ -9074,7 +9074,7 @@
         <v>-6</v>
       </c>
       <c r="J177">
-        <v>21.53654909133911</v>
+        <v>85.55907034873962</v>
       </c>
       <c r="K177">
         <v>-12</v>
@@ -9115,7 +9115,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J178">
-        <v>18.9677619934082</v>
+        <v>89.47141313552856</v>
       </c>
       <c r="K178">
         <v>-12.00000000000001</v>
@@ -9156,7 +9156,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J179">
-        <v>19.13952493667603</v>
+        <v>77.41121315956116</v>
       </c>
       <c r="K179">
         <v>-11.99999999999999</v>
@@ -9197,7 +9197,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J180">
-        <v>18.69167304039001</v>
+        <v>66.60549688339233</v>
       </c>
       <c r="K180">
         <v>-11.99999999999999</v>
@@ -9238,7 +9238,7 @@
         <v>-6</v>
       </c>
       <c r="J181">
-        <v>19.15688800811768</v>
+        <v>83.53367209434509</v>
       </c>
       <c r="K181">
         <v>-12</v>
@@ -9279,7 +9279,7 @@
         <v>-1.99999923694689</v>
       </c>
       <c r="J182">
-        <v>19.27730989456177</v>
+        <v>87.1048469543457</v>
       </c>
       <c r="K182">
         <v>-7.99999923694689</v>
@@ -9320,7 +9320,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J183">
-        <v>18.8536171913147</v>
+        <v>80.54160094261169</v>
       </c>
       <c r="K183">
         <v>-12</v>
@@ -9361,7 +9361,7 @@
         <v>-6</v>
       </c>
       <c r="J184">
-        <v>17.51197218894958</v>
+        <v>83.18966889381409</v>
       </c>
       <c r="K184">
         <v>-12</v>
@@ -9402,7 +9402,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J185">
-        <v>18.66303277015686</v>
+        <v>83.52181315422058</v>
       </c>
       <c r="K185">
         <v>-12</v>
@@ -9443,7 +9443,7 @@
         <v>-2.999999905282479</v>
       </c>
       <c r="J186">
-        <v>18.80839419364929</v>
+        <v>81.36953115463257</v>
       </c>
       <c r="K186">
         <v>-8.999999905282479</v>
@@ -9484,7 +9484,7 @@
         <v>-2.999998484393311</v>
       </c>
       <c r="J187">
-        <v>20.5422990322113</v>
+        <v>78.31629276275635</v>
       </c>
       <c r="K187">
         <v>-8.999998484393311</v>
@@ -9525,7 +9525,7 @@
         <v>-6</v>
       </c>
       <c r="J188">
-        <v>19.45975494384766</v>
+        <v>79.25203394889832</v>
       </c>
       <c r="K188">
         <v>-12</v>
@@ -9566,7 +9566,7 @@
         <v>-6</v>
       </c>
       <c r="J189">
-        <v>19.3697681427002</v>
+        <v>84.75487303733826</v>
       </c>
       <c r="K189">
         <v>-12</v>
@@ -9607,7 +9607,7 @@
         <v>-6</v>
       </c>
       <c r="J190">
-        <v>18.85540986061096</v>
+        <v>78.62491893768311</v>
       </c>
       <c r="K190">
         <v>-12</v>
@@ -9648,7 +9648,7 @@
         <v>-2.999999965217913</v>
       </c>
       <c r="J191">
-        <v>18.96528172492981</v>
+        <v>84.51592087745667</v>
       </c>
       <c r="K191">
         <v>-8.999999965217913</v>
@@ -9689,7 +9689,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J192">
-        <v>19.53408098220825</v>
+        <v>81.75538206100464</v>
       </c>
       <c r="K192">
         <v>-12</v>
@@ -9730,7 +9730,7 @@
         <v>-6</v>
       </c>
       <c r="J193">
-        <v>20.00160217285156</v>
+        <v>76.88989114761353</v>
       </c>
       <c r="K193">
         <v>-12</v>
@@ -9771,7 +9771,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J194">
-        <v>19.8414101600647</v>
+        <v>77.02422475814819</v>
       </c>
       <c r="K194">
         <v>-12</v>
@@ -9812,7 +9812,7 @@
         <v>-6</v>
       </c>
       <c r="J195">
-        <v>18.67405414581299</v>
+        <v>76.77782201766968</v>
       </c>
       <c r="K195">
         <v>-12</v>
@@ -9853,7 +9853,7 @@
         <v>-6</v>
       </c>
       <c r="J196">
-        <v>18.99472093582153</v>
+        <v>87.34397292137146</v>
       </c>
       <c r="K196">
         <v>-12</v>
@@ -9894,7 +9894,7 @@
         <v>-2.99999996904446</v>
       </c>
       <c r="J197">
-        <v>19.20335793495178</v>
+        <v>91.04169106483459</v>
       </c>
       <c r="K197">
         <v>-8.99999996904446</v>
@@ -9935,7 +9935,7 @@
         <v>-2.999999650770653</v>
       </c>
       <c r="J198">
-        <v>19.46538519859314</v>
+        <v>89.06242704391479</v>
       </c>
       <c r="K198">
         <v>-8.999999650770654</v>
@@ -9976,7 +9976,7 @@
         <v>-6</v>
       </c>
       <c r="J199">
-        <v>19.07096433639526</v>
+        <v>85.45844078063965</v>
       </c>
       <c r="K199">
         <v>-12</v>
@@ -10017,7 +10017,7 @@
         <v>-6</v>
       </c>
       <c r="J200">
-        <v>19.13002014160156</v>
+        <v>74.26531791687012</v>
       </c>
       <c r="K200">
         <v>-12</v>
@@ -10058,7 +10058,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J201">
-        <v>18.94420099258423</v>
+        <v>93.17827796936035</v>
       </c>
       <c r="K201">
         <v>-12</v>
@@ -10099,7 +10099,7 @@
         <v>-1.99999825391406</v>
       </c>
       <c r="J202">
-        <v>19.15799403190613</v>
+        <v>80.97903299331665</v>
       </c>
       <c r="K202">
         <v>-7.99999825391406</v>
@@ -10140,7 +10140,7 @@
         <v>-6</v>
       </c>
       <c r="J203">
-        <v>18.89172697067261</v>
+        <v>72.36712908744812</v>
       </c>
       <c r="K203">
         <v>-12</v>
@@ -10181,7 +10181,7 @@
         <v>-6</v>
       </c>
       <c r="J204">
-        <v>18.98381900787354</v>
+        <v>85.798495054245</v>
       </c>
       <c r="K204">
         <v>-12</v>
@@ -10222,7 +10222,7 @@
         <v>-2.999999452561927</v>
       </c>
       <c r="J205">
-        <v>19.15050101280212</v>
+        <v>83.16413593292236</v>
       </c>
       <c r="K205">
         <v>-8.999999452561926</v>
@@ -10263,7 +10263,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J206">
-        <v>18.98172903060913</v>
+        <v>84.62908387184143</v>
       </c>
       <c r="K206">
         <v>-12</v>
@@ -10304,7 +10304,7 @@
         <v>-5.999999999999961</v>
       </c>
       <c r="J207">
-        <v>18.8741090297699</v>
+        <v>58.18145608901978</v>
       </c>
       <c r="K207">
         <v>-11.99999999999996</v>
@@ -10345,7 +10345,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J208">
-        <v>21.20961689949036</v>
+        <v>82.19836759567261</v>
       </c>
       <c r="K208">
         <v>-12</v>
@@ -10386,7 +10386,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J209">
-        <v>19.46584606170654</v>
+        <v>72.14439487457275</v>
       </c>
       <c r="K209">
         <v>-12</v>
@@ -10427,7 +10427,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J210">
-        <v>19.03859114646912</v>
+        <v>86.98794889450073</v>
       </c>
       <c r="K210">
         <v>-12</v>
@@ -10468,7 +10468,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J211">
-        <v>18.85716795921326</v>
+        <v>79.4107358455658</v>
       </c>
       <c r="K211">
         <v>-12</v>
@@ -10509,7 +10509,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J212">
-        <v>19.72655701637268</v>
+        <v>84.0673520565033</v>
       </c>
       <c r="K212">
         <v>-12</v>
@@ -10550,7 +10550,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J213">
-        <v>19.08224701881409</v>
+        <v>79.6657600402832</v>
       </c>
       <c r="K213">
         <v>-12</v>
@@ -10591,7 +10591,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J214">
-        <v>18.822429895401</v>
+        <v>84.04885601997375</v>
       </c>
       <c r="K214">
         <v>-12</v>
@@ -10632,7 +10632,7 @@
         <v>-2.999999849643164</v>
       </c>
       <c r="J215">
-        <v>19.0251669883728</v>
+        <v>77.4611930847168</v>
       </c>
       <c r="K215">
         <v>-8.999999849643164</v>
@@ -10673,7 +10673,7 @@
         <v>-6</v>
       </c>
       <c r="J216">
-        <v>18.96019601821899</v>
+        <v>86.13582897186279</v>
       </c>
       <c r="K216">
         <v>-12</v>
@@ -10714,7 +10714,7 @@
         <v>-2.999998980004424</v>
       </c>
       <c r="J217">
-        <v>19.03344702720642</v>
+        <v>90.8446090221405</v>
       </c>
       <c r="K217">
         <v>-8.999998980004424</v>
@@ -10755,7 +10755,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J218">
-        <v>19.24371790885925</v>
+        <v>71.86306118965149</v>
       </c>
       <c r="K218">
         <v>-12</v>
@@ -10796,7 +10796,7 @@
         <v>-2.999999755689501</v>
       </c>
       <c r="J219">
-        <v>19.68929600715637</v>
+        <v>84.32046484947205</v>
       </c>
       <c r="K219">
         <v>-8.999999755689501</v>
@@ -10837,7 +10837,7 @@
         <v>-6</v>
       </c>
       <c r="J220">
-        <v>20.10384631156921</v>
+        <v>79.44176912307739</v>
       </c>
       <c r="K220">
         <v>-12</v>
@@ -10878,7 +10878,7 @@
         <v>-6</v>
       </c>
       <c r="J221">
-        <v>19.7919819355011</v>
+        <v>82.46154713630676</v>
       </c>
       <c r="K221">
         <v>-12</v>
@@ -10919,7 +10919,7 @@
         <v>-2.986052555410739</v>
       </c>
       <c r="J222">
-        <v>19.31207394599915</v>
+        <v>78.50994300842285</v>
       </c>
       <c r="K222">
         <v>-8.986052555410739</v>
@@ -10960,7 +10960,7 @@
         <v>-2.99999982171128</v>
       </c>
       <c r="J223">
-        <v>19.55327177047729</v>
+        <v>87.64863204956055</v>
       </c>
       <c r="K223">
         <v>-8.999999821711279</v>
@@ -11001,7 +11001,7 @@
         <v>-6</v>
       </c>
       <c r="J224">
-        <v>19.81581115722656</v>
+        <v>87.87869095802307</v>
       </c>
       <c r="K224">
         <v>-12</v>
@@ -11042,7 +11042,7 @@
         <v>-2.999999963526111</v>
       </c>
       <c r="J225">
-        <v>19.20315337181091</v>
+        <v>77.81625199317932</v>
       </c>
       <c r="K225">
         <v>-8.999999963526111</v>
@@ -11083,7 +11083,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J226">
-        <v>19.68010020256042</v>
+        <v>63.49733185768127</v>
       </c>
       <c r="K226">
         <v>-12</v>
@@ -11124,7 +11124,7 @@
         <v>-6</v>
       </c>
       <c r="J227">
-        <v>19.30879211425781</v>
+        <v>73.19314575195312</v>
       </c>
       <c r="K227">
         <v>-12</v>
@@ -11165,7 +11165,7 @@
         <v>-6</v>
       </c>
       <c r="J228">
-        <v>18.88636803627014</v>
+        <v>58.18551301956177</v>
       </c>
       <c r="K228">
         <v>-12</v>
@@ -11206,7 +11206,7 @@
         <v>-6</v>
       </c>
       <c r="J229">
-        <v>19.18051815032959</v>
+        <v>50.0313618183136</v>
       </c>
       <c r="K229">
         <v>-12</v>
@@ -11247,7 +11247,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J230">
-        <v>18.9937961101532</v>
+        <v>59.05292510986328</v>
       </c>
       <c r="K230">
         <v>-12</v>
@@ -11288,7 +11288,7 @@
         <v>-6</v>
       </c>
       <c r="J231">
-        <v>18.6580228805542</v>
+        <v>50.958899974823</v>
       </c>
       <c r="K231">
         <v>-12</v>
@@ -11329,7 +11329,7 @@
         <v>-2.999992282419154</v>
       </c>
       <c r="J232">
-        <v>19.34740209579468</v>
+        <v>45.55374908447266</v>
       </c>
       <c r="K232">
         <v>-8.999992282419154</v>
@@ -11370,7 +11370,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J233">
-        <v>19.00374794006348</v>
+        <v>47.98450303077698</v>
       </c>
       <c r="K233">
         <v>-12</v>
@@ -11411,7 +11411,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J234">
-        <v>18.97586798667908</v>
+        <v>46.65734505653381</v>
       </c>
       <c r="K234">
         <v>-11.99999999999999</v>
@@ -11452,7 +11452,7 @@
         <v>-6</v>
       </c>
       <c r="J235">
-        <v>18.86287808418274</v>
+        <v>78.52951502799988</v>
       </c>
       <c r="K235">
         <v>-12</v>
@@ -11493,7 +11493,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J236">
-        <v>19.96699786186218</v>
+        <v>76.71763896942139</v>
       </c>
       <c r="K236">
         <v>-12</v>
@@ -11534,7 +11534,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J237">
-        <v>18.79819226264954</v>
+        <v>75.50029397010803</v>
       </c>
       <c r="K237">
         <v>-12</v>
@@ -11575,7 +11575,7 @@
         <v>-6</v>
       </c>
       <c r="J238">
-        <v>28.6236789226532</v>
+        <v>72.81206488609314</v>
       </c>
       <c r="K238">
         <v>-12</v>
@@ -11616,7 +11616,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J239">
-        <v>21.66923809051514</v>
+        <v>57.51848602294922</v>
       </c>
       <c r="K239">
         <v>-12.00000000000001</v>
@@ -11657,7 +11657,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J240">
-        <v>19.00347805023193</v>
+        <v>52.81060004234314</v>
       </c>
       <c r="K240">
         <v>-12</v>
@@ -11698,7 +11698,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J241">
-        <v>19.04953098297119</v>
+        <v>67.26748394966125</v>
       </c>
       <c r="K241">
         <v>-12</v>
@@ -11739,7 +11739,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J242">
-        <v>19.36558794975281</v>
+        <v>80.84478616714478</v>
       </c>
       <c r="K242">
         <v>-12</v>
@@ -11780,7 +11780,7 @@
         <v>-6</v>
       </c>
       <c r="J243">
-        <v>19.33979868888855</v>
+        <v>82.66911220550537</v>
       </c>
       <c r="K243">
         <v>-12</v>
@@ -11821,7 +11821,7 @@
         <v>-2.999999568616249</v>
       </c>
       <c r="J244">
-        <v>21.39272499084473</v>
+        <v>75.08194708824158</v>
       </c>
       <c r="K244">
         <v>-8.999999568616248</v>
@@ -11862,7 +11862,7 @@
         <v>-6</v>
       </c>
       <c r="J245">
-        <v>19.8192777633667</v>
+        <v>82.0390100479126</v>
       </c>
       <c r="K245">
         <v>-12</v>
@@ -11903,7 +11903,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J246">
-        <v>20.78267908096313</v>
+        <v>73.5527229309082</v>
       </c>
       <c r="K246">
         <v>-12</v>
@@ -11944,7 +11944,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J247">
-        <v>19.7694981098175</v>
+        <v>78.88849806785583</v>
       </c>
       <c r="K247">
         <v>-12</v>
@@ -11985,7 +11985,7 @@
         <v>-6</v>
       </c>
       <c r="J248">
-        <v>19.18423295021057</v>
+        <v>63.90079188346863</v>
       </c>
       <c r="K248">
         <v>-12</v>
@@ -12026,7 +12026,7 @@
         <v>-6</v>
       </c>
       <c r="J249">
-        <v>19.69470000267029</v>
+        <v>80.46706771850586</v>
       </c>
       <c r="K249">
         <v>-12</v>
@@ -12067,7 +12067,7 @@
         <v>-6</v>
       </c>
       <c r="J250">
-        <v>20.56760501861572</v>
+        <v>82.21957087516785</v>
       </c>
       <c r="K250">
         <v>-12</v>
@@ -12108,7 +12108,7 @@
         <v>-6</v>
       </c>
       <c r="J251">
-        <v>21.48487186431885</v>
+        <v>56.53899502754211</v>
       </c>
       <c r="K251">
         <v>-12</v>
@@ -12149,7 +12149,7 @@
         <v>-6</v>
       </c>
       <c r="J252">
-        <v>19.97426104545593</v>
+        <v>68.07767200469971</v>
       </c>
       <c r="K252">
         <v>-12</v>
@@ -12190,7 +12190,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J253">
-        <v>20.54590368270874</v>
+        <v>78.43605399131775</v>
       </c>
       <c r="K253">
         <v>-12</v>
@@ -12231,7 +12231,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J254">
-        <v>19.70374083518982</v>
+        <v>79.97484087944031</v>
       </c>
       <c r="K254">
         <v>-12</v>
@@ -12272,7 +12272,7 @@
         <v>-6</v>
       </c>
       <c r="J255">
-        <v>19.55162119865417</v>
+        <v>68.3056800365448</v>
       </c>
       <c r="K255">
         <v>-12</v>
@@ -12313,7 +12313,7 @@
         <v>-2.999999951698487</v>
       </c>
       <c r="J256">
-        <v>19.83287715911865</v>
+        <v>82.57547378540039</v>
       </c>
       <c r="K256">
         <v>-8.999999951698488</v>
@@ -12354,7 +12354,7 @@
         <v>-1.999998810631953</v>
       </c>
       <c r="J257">
-        <v>19.82829117774963</v>
+        <v>70.29771995544434</v>
       </c>
       <c r="K257">
         <v>-7.999998810631952</v>
@@ -12395,7 +12395,7 @@
         <v>-2.999999244634189</v>
       </c>
       <c r="J258">
-        <v>19.40342211723328</v>
+        <v>76.89081430435181</v>
       </c>
       <c r="K258">
         <v>-8.999999244634189</v>
@@ -12436,7 +12436,7 @@
         <v>-6</v>
       </c>
       <c r="J259">
-        <v>19.49211001396179</v>
+        <v>77.97515225410461</v>
       </c>
       <c r="K259">
         <v>-12</v>
@@ -12477,7 +12477,7 @@
         <v>-6</v>
       </c>
       <c r="J260">
-        <v>19.45958304405212</v>
+        <v>73.22587895393372</v>
       </c>
       <c r="K260">
         <v>-12</v>
@@ -12518,7 +12518,7 @@
         <v>-6</v>
       </c>
       <c r="J261">
-        <v>19.152752161026</v>
+        <v>83.33058786392212</v>
       </c>
       <c r="K261">
         <v>-12</v>
@@ -12559,7 +12559,7 @@
         <v>-2.999999708295272</v>
       </c>
       <c r="J262">
-        <v>19.34933090209961</v>
+        <v>76.77079510688782</v>
       </c>
       <c r="K262">
         <v>-8.999999708295272</v>
@@ -12600,7 +12600,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J263">
-        <v>18.99495792388916</v>
+        <v>75.91259980201721</v>
       </c>
       <c r="K263">
         <v>-12</v>
@@ -12641,7 +12641,7 @@
         <v>-6</v>
       </c>
       <c r="J264">
-        <v>19.17069101333618</v>
+        <v>80.50718903541565</v>
       </c>
       <c r="K264">
         <v>-12</v>
@@ -12682,7 +12682,7 @@
         <v>-6</v>
       </c>
       <c r="J265">
-        <v>19.25973510742188</v>
+        <v>79.50758409500122</v>
       </c>
       <c r="K265">
         <v>-12</v>
@@ -12723,7 +12723,7 @@
         <v>-6</v>
       </c>
       <c r="J266">
-        <v>19.07467079162598</v>
+        <v>77.17024803161621</v>
       </c>
       <c r="K266">
         <v>-12</v>
@@ -12764,7 +12764,7 @@
         <v>-6</v>
       </c>
       <c r="J267">
-        <v>19.07434606552124</v>
+        <v>74.05667996406555</v>
       </c>
       <c r="K267">
         <v>-12</v>
@@ -12805,7 +12805,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J268">
-        <v>19.03943109512329</v>
+        <v>84.50722718238831</v>
       </c>
       <c r="K268">
         <v>-12</v>
@@ -12846,7 +12846,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J269">
-        <v>22.27067518234253</v>
+        <v>80.16803383827209</v>
       </c>
       <c r="K269">
         <v>-12</v>
@@ -12887,7 +12887,7 @@
         <v>-2.999999818890717</v>
       </c>
       <c r="J270">
-        <v>19.04190468788147</v>
+        <v>79.5190269947052</v>
       </c>
       <c r="K270">
         <v>-8.999999818890718</v>
@@ -12928,7 +12928,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J271">
-        <v>19.25308680534363</v>
+        <v>75.95509505271912</v>
       </c>
       <c r="K271">
         <v>-12</v>
@@ -12969,7 +12969,7 @@
         <v>-1.999993943729633</v>
       </c>
       <c r="J272">
-        <v>18.98244524002075</v>
+        <v>62.74790596961975</v>
       </c>
       <c r="K272">
         <v>-7.999993943729633</v>
@@ -13010,7 +13010,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J273">
-        <v>19.24572801589966</v>
+        <v>60.04930925369263</v>
       </c>
       <c r="K273">
         <v>-11.99999999999999</v>
@@ -13051,7 +13051,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J274">
-        <v>19.65070915222168</v>
+        <v>55.84144520759583</v>
       </c>
       <c r="K274">
         <v>-11.99999999999999</v>
@@ -13092,7 +13092,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J275">
-        <v>19.24725890159607</v>
+        <v>60.51587724685669</v>
       </c>
       <c r="K275">
         <v>-12</v>
@@ -13133,7 +13133,7 @@
         <v>-6</v>
       </c>
       <c r="J276">
-        <v>19.13440680503845</v>
+        <v>51.8484091758728</v>
       </c>
       <c r="K276">
         <v>-12</v>
@@ -13174,7 +13174,7 @@
         <v>-6</v>
       </c>
       <c r="J277">
-        <v>21.13141822814941</v>
+        <v>65.77659225463867</v>
       </c>
       <c r="K277">
         <v>-12</v>
@@ -13215,7 +13215,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J278">
-        <v>18.9640519618988</v>
+        <v>61.35873413085938</v>
       </c>
       <c r="K278">
         <v>-12</v>
@@ -13256,7 +13256,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J279">
-        <v>21.03156471252441</v>
+        <v>63.98652911186218</v>
       </c>
       <c r="K279">
         <v>-12</v>
@@ -13297,7 +13297,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J280">
-        <v>22.10524487495422</v>
+        <v>66.0830500125885</v>
       </c>
       <c r="K280">
         <v>-12</v>
@@ -13338,7 +13338,7 @@
         <v>-1.999998953602797</v>
       </c>
       <c r="J281">
-        <v>22.4205801486969</v>
+        <v>64.78062200546265</v>
       </c>
       <c r="K281">
         <v>-7.999998953602796</v>
@@ -13379,7 +13379,7 @@
         <v>-6</v>
       </c>
       <c r="J282">
-        <v>19.86981511116028</v>
+        <v>59.36251878738403</v>
       </c>
       <c r="K282">
         <v>-12</v>
@@ -13420,7 +13420,7 @@
         <v>-6</v>
       </c>
       <c r="J283">
-        <v>22.3312840461731</v>
+        <v>64.78142118453979</v>
       </c>
       <c r="K283">
         <v>-12</v>
@@ -13461,7 +13461,7 @@
         <v>-2.999999491414698</v>
       </c>
       <c r="J284">
-        <v>18.76794910430908</v>
+        <v>64.4749002456665</v>
       </c>
       <c r="K284">
         <v>-8.999999491414698</v>
@@ -13502,7 +13502,7 @@
         <v>-3.003375883651213</v>
       </c>
       <c r="J285">
-        <v>18.99009895324707</v>
+        <v>59.99990391731262</v>
       </c>
       <c r="K285">
         <v>-9.003375883651213</v>
@@ -13543,7 +13543,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J286">
-        <v>20.10508298873901</v>
+        <v>62.062331199646</v>
       </c>
       <c r="K286">
         <v>-12</v>
@@ -13584,7 +13584,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J287">
-        <v>20.29255604743958</v>
+        <v>64.66476202011108</v>
       </c>
       <c r="K287">
         <v>-12</v>
@@ -13625,7 +13625,7 @@
         <v>-2.999999733933026</v>
       </c>
       <c r="J288">
-        <v>19.7937068939209</v>
+        <v>64.63977694511414</v>
       </c>
       <c r="K288">
         <v>-8.999999733933027</v>
@@ -13666,7 +13666,7 @@
         <v>-6</v>
       </c>
       <c r="J289">
-        <v>19.35557007789612</v>
+        <v>64.18578171730042</v>
       </c>
       <c r="K289">
         <v>-12</v>
@@ -13707,7 +13707,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J290">
-        <v>18.98957586288452</v>
+        <v>65.14490294456482</v>
       </c>
       <c r="K290">
         <v>-12</v>
@@ -13748,7 +13748,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J291">
-        <v>19.1083869934082</v>
+        <v>65.15444087982178</v>
       </c>
       <c r="K291">
         <v>-12</v>
@@ -13789,7 +13789,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J292">
-        <v>19.71931910514832</v>
+        <v>65.10983800888062</v>
       </c>
       <c r="K292">
         <v>-12</v>
@@ -13830,7 +13830,7 @@
         <v>-6</v>
       </c>
       <c r="J293">
-        <v>20.25970411300659</v>
+        <v>61.94702529907227</v>
       </c>
       <c r="K293">
         <v>-12</v>
@@ -13871,7 +13871,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J294">
-        <v>19.24902701377869</v>
+        <v>64.35624504089355</v>
       </c>
       <c r="K294">
         <v>-12</v>
@@ -13912,7 +13912,7 @@
         <v>-6</v>
       </c>
       <c r="J295">
-        <v>18.56338787078857</v>
+        <v>59.31823492050171</v>
       </c>
       <c r="K295">
         <v>-12</v>
@@ -13953,7 +13953,7 @@
         <v>-6</v>
       </c>
       <c r="J296">
-        <v>19.61318302154541</v>
+        <v>60.46179890632629</v>
       </c>
       <c r="K296">
         <v>-12</v>
@@ -13994,7 +13994,7 @@
         <v>-2.999999636383229</v>
       </c>
       <c r="J297">
-        <v>19.37570476531982</v>
+        <v>57.68474197387695</v>
       </c>
       <c r="K297">
         <v>-8.99999963638323</v>
@@ -14035,7 +14035,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J298">
-        <v>18.85192108154297</v>
+        <v>62.10206294059753</v>
       </c>
       <c r="K298">
         <v>-12</v>
@@ -14076,7 +14076,7 @@
         <v>-6</v>
       </c>
       <c r="J299">
-        <v>24.29796099662781</v>
+        <v>64.57015800476074</v>
       </c>
       <c r="K299">
         <v>-12</v>
@@ -14117,7 +14117,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J300">
-        <v>19.02385425567627</v>
+        <v>64.48699498176575</v>
       </c>
       <c r="K300">
         <v>-12</v>
@@ -14158,7 +14158,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J301">
-        <v>19.25695085525513</v>
+        <v>63.94880700111389</v>
       </c>
       <c r="K301">
         <v>-12</v>
@@ -14199,7 +14199,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J302">
-        <v>19.22971510887146</v>
+        <v>61.55859112739563</v>
       </c>
       <c r="K302">
         <v>-12</v>
@@ -14240,7 +14240,7 @@
         <v>-1.999995146723258</v>
       </c>
       <c r="J303">
-        <v>20.04570007324219</v>
+        <v>65.53497385978699</v>
       </c>
       <c r="K303">
         <v>-7.999995146723258</v>
@@ -14281,7 +14281,7 @@
         <v>-6</v>
       </c>
       <c r="J304">
-        <v>19.23580503463745</v>
+        <v>65.79903721809387</v>
       </c>
       <c r="K304">
         <v>-12</v>
@@ -14322,7 +14322,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J305">
-        <v>19.36915802955627</v>
+        <v>65.34143900871277</v>
       </c>
       <c r="K305">
         <v>-12.00000000000001</v>
@@ -14363,7 +14363,7 @@
         <v>-2.999999527138288</v>
       </c>
       <c r="J306">
-        <v>19.15003800392151</v>
+        <v>65.36491107940674</v>
       </c>
       <c r="K306">
         <v>-8.999999527138288</v>
@@ -14404,7 +14404,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J307">
-        <v>19.02923488616943</v>
+        <v>63.85908770561218</v>
       </c>
       <c r="K307">
         <v>-12</v>
@@ -14445,7 +14445,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J308">
-        <v>18.8892662525177</v>
+        <v>63.57987880706787</v>
       </c>
       <c r="K308">
         <v>-12</v>
@@ -14486,7 +14486,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J309">
-        <v>19.05561304092407</v>
+        <v>64.9098527431488</v>
       </c>
       <c r="K309">
         <v>-12</v>
@@ -14527,7 +14527,7 @@
         <v>-6</v>
       </c>
       <c r="J310">
-        <v>19.60066819190979</v>
+        <v>64.62543702125549</v>
       </c>
       <c r="K310">
         <v>-12</v>
@@ -14568,7 +14568,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J311">
-        <v>19.5476610660553</v>
+        <v>58.88846373558044</v>
       </c>
       <c r="K311">
         <v>-12</v>
@@ -14609,7 +14609,7 @@
         <v>-6</v>
       </c>
       <c r="J312">
-        <v>18.93182587623596</v>
+        <v>63.78158378601074</v>
       </c>
       <c r="K312">
         <v>-12</v>
@@ -14650,7 +14650,7 @@
         <v>-1.999998708140875</v>
       </c>
       <c r="J313">
-        <v>18.92886304855347</v>
+        <v>64.61270093917847</v>
       </c>
       <c r="K313">
         <v>-7.999998708140875</v>
@@ -14691,7 +14691,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J314">
-        <v>19.2993950843811</v>
+        <v>64.18131399154663</v>
       </c>
       <c r="K314">
         <v>-11.99999999999999</v>
@@ -14732,7 +14732,7 @@
         <v>-1.999999093025279</v>
       </c>
       <c r="J315">
-        <v>18.83618903160095</v>
+        <v>64.69138503074646</v>
       </c>
       <c r="K315">
         <v>-7.999999093025279</v>
@@ -14773,7 +14773,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J316">
-        <v>18.64089393615723</v>
+        <v>64.48257303237915</v>
       </c>
       <c r="K316">
         <v>-12</v>
@@ -14814,7 +14814,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J317">
-        <v>21.28652215003967</v>
+        <v>57.95762395858765</v>
       </c>
       <c r="K317">
         <v>-12</v>
@@ -14855,7 +14855,7 @@
         <v>-6</v>
       </c>
       <c r="J318">
-        <v>19.21798920631409</v>
+        <v>63.04138803482056</v>
       </c>
       <c r="K318">
         <v>-12</v>
@@ -14896,7 +14896,7 @@
         <v>-2.999999764981928</v>
       </c>
       <c r="J319">
-        <v>19.11713409423828</v>
+        <v>64.99636387825012</v>
       </c>
       <c r="K319">
         <v>-8.999999764981929</v>
@@ -14937,7 +14937,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J320">
-        <v>18.93327832221985</v>
+        <v>64.95027303695679</v>
       </c>
       <c r="K320">
         <v>-12</v>
@@ -14978,7 +14978,7 @@
         <v>-6</v>
       </c>
       <c r="J321">
-        <v>18.80151104927063</v>
+        <v>63.91359519958496</v>
       </c>
       <c r="K321">
         <v>-12</v>
@@ -15019,7 +15019,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J322">
-        <v>19.42905116081238</v>
+        <v>59.94076013565063</v>
       </c>
       <c r="K322">
         <v>-12</v>
@@ -15060,7 +15060,7 @@
         <v>-6</v>
       </c>
       <c r="J323">
-        <v>19.73647689819336</v>
+        <v>60.05180907249451</v>
       </c>
       <c r="K323">
         <v>-12</v>
@@ -15101,7 +15101,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J324">
-        <v>20.12007069587708</v>
+        <v>63.05192685127258</v>
       </c>
       <c r="K324">
         <v>-12</v>
@@ -15142,7 +15142,7 @@
         <v>-6</v>
       </c>
       <c r="J325">
-        <v>20.49145603179932</v>
+        <v>64.1335141658783</v>
       </c>
       <c r="K325">
         <v>-12</v>
@@ -15183,7 +15183,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J326">
-        <v>18.84673810005188</v>
+        <v>63.94321179389954</v>
       </c>
       <c r="K326">
         <v>-11.99999999999999</v>
@@ -15224,7 +15224,7 @@
         <v>-6</v>
       </c>
       <c r="J327">
-        <v>19.18365788459778</v>
+        <v>64.04338002204895</v>
       </c>
       <c r="K327">
         <v>-12</v>
@@ -15265,7 +15265,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J328">
-        <v>19.23119401931763</v>
+        <v>59.49200797080994</v>
       </c>
       <c r="K328">
         <v>-12</v>
@@ -15306,7 +15306,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J329">
-        <v>19.69733214378357</v>
+        <v>62.43509006500244</v>
       </c>
       <c r="K329">
         <v>-12</v>
@@ -15347,7 +15347,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J330">
-        <v>21.30072593688965</v>
+        <v>59.34193921089172</v>
       </c>
       <c r="K330">
         <v>-12</v>
@@ -15388,7 +15388,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J331">
-        <v>19.31508827209473</v>
+        <v>64.35039496421814</v>
       </c>
       <c r="K331">
         <v>-12</v>
@@ -15429,7 +15429,7 @@
         <v>-6</v>
       </c>
       <c r="J332">
-        <v>19.62020993232727</v>
+        <v>63.15954089164734</v>
       </c>
       <c r="K332">
         <v>-12</v>
@@ -15470,7 +15470,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J333">
-        <v>19.13257908821106</v>
+        <v>65.08944892883301</v>
       </c>
       <c r="K333">
         <v>-12</v>
@@ -15511,7 +15511,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J334">
-        <v>19.21227812767029</v>
+        <v>62.52464318275452</v>
       </c>
       <c r="K334">
         <v>-11.99999999999999</v>
@@ -15552,7 +15552,7 @@
         <v>-1.999999790531928</v>
       </c>
       <c r="J335">
-        <v>26.58135914802551</v>
+        <v>65.09565305709839</v>
       </c>
       <c r="K335">
         <v>-7.999999790531928</v>
@@ -15593,7 +15593,7 @@
         <v>-6</v>
       </c>
       <c r="J336">
-        <v>20.24332332611084</v>
+        <v>63.82687830924988</v>
       </c>
       <c r="K336">
         <v>-12</v>
@@ -15634,7 +15634,7 @@
         <v>-6</v>
       </c>
       <c r="J337">
-        <v>19.53699517250061</v>
+        <v>61.46399307250977</v>
       </c>
       <c r="K337">
         <v>-12</v>
@@ -15675,7 +15675,7 @@
         <v>-6</v>
       </c>
       <c r="J338">
-        <v>19.03482913970947</v>
+        <v>64.30797576904297</v>
       </c>
       <c r="K338">
         <v>-12</v>
@@ -15716,7 +15716,7 @@
         <v>-1.999999097559141</v>
       </c>
       <c r="J339">
-        <v>19.44225215911865</v>
+        <v>64.6914381980896</v>
       </c>
       <c r="K339">
         <v>-7.999999097559141</v>
@@ -15757,7 +15757,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J340">
-        <v>19.09798812866211</v>
+        <v>64.26205492019653</v>
       </c>
       <c r="K340">
         <v>-12</v>
@@ -15798,7 +15798,7 @@
         <v>-6</v>
       </c>
       <c r="J341">
-        <v>19.06219911575317</v>
+        <v>59.66430687904358</v>
       </c>
       <c r="K341">
         <v>-12</v>
@@ -15839,7 +15839,7 @@
         <v>-6</v>
       </c>
       <c r="J342">
-        <v>19.29827404022217</v>
+        <v>64.79927611351013</v>
       </c>
       <c r="K342">
         <v>-12</v>
@@ -15880,7 +15880,7 @@
         <v>-6</v>
       </c>
       <c r="J343">
-        <v>19.46658825874329</v>
+        <v>57.01308393478394</v>
       </c>
       <c r="K343">
         <v>-12</v>
@@ -15921,7 +15921,7 @@
         <v>-6</v>
       </c>
       <c r="J344">
-        <v>19.05573916435242</v>
+        <v>64.63973474502563</v>
       </c>
       <c r="K344">
         <v>-12</v>
@@ -15962,7 +15962,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J345">
-        <v>19.39201402664185</v>
+        <v>64.0407657623291</v>
       </c>
       <c r="K345">
         <v>-12</v>
@@ -16003,7 +16003,7 @@
         <v>-2.999999362407286</v>
       </c>
       <c r="J346">
-        <v>19.25614070892334</v>
+        <v>63.99075198173523</v>
       </c>
       <c r="K346">
         <v>-8.999999362407287</v>
@@ -16044,7 +16044,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J347">
-        <v>19.17729210853577</v>
+        <v>60.12142896652222</v>
       </c>
       <c r="K347">
         <v>-12.00000000000001</v>
@@ -16085,7 +16085,7 @@
         <v>-6</v>
       </c>
       <c r="J348">
-        <v>18.95872402191162</v>
+        <v>62.8770272731781</v>
       </c>
       <c r="K348">
         <v>-12</v>
@@ -16126,7 +16126,7 @@
         <v>-2.999997486268914</v>
       </c>
       <c r="J349">
-        <v>19.12920022010803</v>
+        <v>64.22964096069336</v>
       </c>
       <c r="K349">
         <v>-8.999997486268914</v>
@@ -16167,7 +16167,7 @@
         <v>-5.999999711298122</v>
       </c>
       <c r="J350">
-        <v>18.97776794433594</v>
+        <v>64.11690902709961</v>
       </c>
       <c r="K350">
         <v>-11.99999971129812</v>
@@ -16208,7 +16208,7 @@
         <v>-2.999999829496964</v>
       </c>
       <c r="J351">
-        <v>19.24055337905884</v>
+        <v>64.73302292823792</v>
       </c>
       <c r="K351">
         <v>-8.999999829496964</v>
@@ -16249,7 +16249,7 @@
         <v>-2.999999668679183</v>
       </c>
       <c r="J352">
-        <v>19.50343298912048</v>
+        <v>62.36869096755981</v>
       </c>
       <c r="K352">
         <v>-8.999999668679184</v>
@@ -16290,7 +16290,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J353">
-        <v>18.89119911193848</v>
+        <v>49.94557690620422</v>
       </c>
       <c r="K353">
         <v>-12.00000000000001</v>
@@ -16331,7 +16331,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J354">
-        <v>19.1190128326416</v>
+        <v>63.44368314743042</v>
       </c>
       <c r="K354">
         <v>-12</v>
@@ -16372,7 +16372,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J355">
-        <v>18.58868503570557</v>
+        <v>65.04715704917908</v>
       </c>
       <c r="K355">
         <v>-11.99999999999999</v>
@@ -16413,7 +16413,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J356">
-        <v>18.73412108421326</v>
+        <v>64.19679689407349</v>
       </c>
       <c r="K356">
         <v>-12</v>
@@ -16454,7 +16454,7 @@
         <v>-6</v>
       </c>
       <c r="J357">
-        <v>18.80566310882568</v>
+        <v>59.68805599212646</v>
       </c>
       <c r="K357">
         <v>-12</v>
@@ -16495,7 +16495,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J358">
-        <v>19.13357996940613</v>
+        <v>65.20604491233826</v>
       </c>
       <c r="K358">
         <v>-12</v>
@@ -16536,7 +16536,7 @@
         <v>-6</v>
       </c>
       <c r="J359">
-        <v>18.77680325508118</v>
+        <v>56.6639449596405</v>
       </c>
       <c r="K359">
         <v>-12</v>
@@ -16577,7 +16577,7 @@
         <v>-6</v>
       </c>
       <c r="J360">
-        <v>20.10182189941406</v>
+        <v>65.52564215660095</v>
       </c>
       <c r="K360">
         <v>-12</v>
@@ -16618,7 +16618,7 @@
         <v>-2.999999894669981</v>
       </c>
       <c r="J361">
-        <v>20.09431576728821</v>
+        <v>62.52661395072937</v>
       </c>
       <c r="K361">
         <v>-8.99999989466998</v>
@@ -16659,7 +16659,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J362">
-        <v>19.28966617584229</v>
+        <v>61.27326202392578</v>
       </c>
       <c r="K362">
         <v>-12</v>
@@ -16700,7 +16700,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J363">
-        <v>19.03752279281616</v>
+        <v>63.90720510482788</v>
       </c>
       <c r="K363">
         <v>-12</v>
@@ -16741,7 +16741,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J364">
-        <v>18.59273910522461</v>
+        <v>64.83943176269531</v>
       </c>
       <c r="K364">
         <v>-12</v>
@@ -16782,7 +16782,7 @@
         <v>-6</v>
       </c>
       <c r="J365">
-        <v>18.85446500778198</v>
+        <v>61.65594816207886</v>
       </c>
       <c r="K365">
         <v>-12</v>
@@ -16823,7 +16823,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J366">
-        <v>19.13128185272217</v>
+        <v>61.96001386642456</v>
       </c>
       <c r="K366">
         <v>-12</v>
@@ -16864,7 +16864,7 @@
         <v>-6</v>
       </c>
       <c r="J367">
-        <v>18.71455502510071</v>
+        <v>65.42249584197998</v>
       </c>
       <c r="K367">
         <v>-12</v>
@@ -16905,7 +16905,7 @@
         <v>-6</v>
       </c>
       <c r="J368">
-        <v>19.12086510658264</v>
+        <v>64.0465190410614</v>
       </c>
       <c r="K368">
         <v>-12</v>
@@ -16946,7 +16946,7 @@
         <v>-6</v>
       </c>
       <c r="J369">
-        <v>19.14070224761963</v>
+        <v>64.63330507278442</v>
       </c>
       <c r="K369">
         <v>-12</v>
@@ -16987,7 +16987,7 @@
         <v>-6</v>
       </c>
       <c r="J370">
-        <v>18.95516800880432</v>
+        <v>62.63523268699646</v>
       </c>
       <c r="K370">
         <v>-12</v>
@@ -17028,7 +17028,7 @@
         <v>-2.999999809053107</v>
       </c>
       <c r="J371">
-        <v>18.62764501571655</v>
+        <v>64.56062412261963</v>
       </c>
       <c r="K371">
         <v>-8.999999809053108</v>
@@ -17069,7 +17069,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J372">
-        <v>18.90605783462524</v>
+        <v>64.38323307037354</v>
       </c>
       <c r="K372">
         <v>-12</v>
@@ -17110,7 +17110,7 @@
         <v>-2.999999863306329</v>
       </c>
       <c r="J373">
-        <v>19.74812793731689</v>
+        <v>60.25173902511597</v>
       </c>
       <c r="K373">
         <v>-8.999999863306329</v>
@@ -17151,7 +17151,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J374">
-        <v>20.0081000328064</v>
+        <v>64.54831886291504</v>
       </c>
       <c r="K374">
         <v>-12</v>
@@ -17192,7 +17192,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J375">
-        <v>20.09626388549805</v>
+        <v>63.88895010948181</v>
       </c>
       <c r="K375">
         <v>-12</v>
@@ -17233,7 +17233,7 @@
         <v>-6</v>
       </c>
       <c r="J376">
-        <v>18.8783278465271</v>
+        <v>64.07204079627991</v>
       </c>
       <c r="K376">
         <v>-12</v>
@@ -17274,7 +17274,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J377">
-        <v>20.09803915023804</v>
+        <v>63.12001991271973</v>
       </c>
       <c r="K377">
         <v>-12</v>
@@ -17315,7 +17315,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J378">
-        <v>19.30457806587219</v>
+        <v>64.78800988197327</v>
       </c>
       <c r="K378">
         <v>-11.99999999999999</v>
@@ -17356,7 +17356,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J379">
-        <v>18.67719721794128</v>
+        <v>64.12844109535217</v>
       </c>
       <c r="K379">
         <v>-11.99999999999999</v>
@@ -17397,7 +17397,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J380">
-        <v>19.06561684608459</v>
+        <v>64.2886061668396</v>
       </c>
       <c r="K380">
         <v>-12</v>
@@ -17438,7 +17438,7 @@
         <v>-2.999998943891856</v>
       </c>
       <c r="J381">
-        <v>19.77114009857178</v>
+        <v>64.79043769836426</v>
       </c>
       <c r="K381">
         <v>-8.999998943891857</v>
@@ -17479,7 +17479,7 @@
         <v>-6</v>
       </c>
       <c r="J382">
-        <v>18.83821821212769</v>
+        <v>64.09913015365601</v>
       </c>
       <c r="K382">
         <v>-12</v>
@@ -17520,7 +17520,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J383">
-        <v>18.80615210533142</v>
+        <v>64.67520213127136</v>
       </c>
       <c r="K383">
         <v>-12</v>
@@ -17561,7 +17561,7 @@
         <v>-6</v>
       </c>
       <c r="J384">
-        <v>19.37294816970825</v>
+        <v>64.04680013656616</v>
       </c>
       <c r="K384">
         <v>-12</v>
@@ -17602,7 +17602,7 @@
         <v>-6</v>
       </c>
       <c r="J385">
-        <v>19.00694680213928</v>
+        <v>61.69937705993652</v>
       </c>
       <c r="K385">
         <v>-12</v>
@@ -17643,7 +17643,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J386">
-        <v>18.82438898086548</v>
+        <v>64.69000101089478</v>
       </c>
       <c r="K386">
         <v>-12</v>
@@ -17684,7 +17684,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J387">
-        <v>18.7672221660614</v>
+        <v>63.31966018676758</v>
       </c>
       <c r="K387">
         <v>-12</v>
@@ -17725,7 +17725,7 @@
         <v>-6</v>
       </c>
       <c r="J388">
-        <v>18.79041695594788</v>
+        <v>64.71978688240051</v>
       </c>
       <c r="K388">
         <v>-12</v>
@@ -17766,7 +17766,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J389">
-        <v>18.88480520248413</v>
+        <v>64.78635787963867</v>
       </c>
       <c r="K389">
         <v>-12</v>
@@ -17807,7 +17807,7 @@
         <v>-6</v>
       </c>
       <c r="J390">
-        <v>18.61631011962891</v>
+        <v>64.91991591453552</v>
       </c>
       <c r="K390">
         <v>-12</v>
@@ -17848,7 +17848,7 @@
         <v>-2.99999983691259</v>
       </c>
       <c r="J391">
-        <v>19.16274213790894</v>
+        <v>64.18187808990479</v>
       </c>
       <c r="K391">
         <v>-8.99999983691259</v>
@@ -17889,7 +17889,7 @@
         <v>-2.999999680753466</v>
       </c>
       <c r="J392">
-        <v>20.29681205749512</v>
+        <v>64.92437505722046</v>
       </c>
       <c r="K392">
         <v>-8.999999680753465</v>
@@ -17930,7 +17930,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J393">
-        <v>18.90130591392517</v>
+        <v>64.798748254776</v>
       </c>
       <c r="K393">
         <v>-12</v>
@@ -17971,7 +17971,7 @@
         <v>-6.000000000000008</v>
       </c>
       <c r="J394">
-        <v>18.78979992866516</v>
+        <v>62.75772905349731</v>
       </c>
       <c r="K394">
         <v>-12.00000000000001</v>
@@ -18012,7 +18012,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J395">
-        <v>18.84790921211243</v>
+        <v>57.73055505752563</v>
       </c>
       <c r="K395">
         <v>-11.99999999999999</v>
@@ -18053,7 +18053,7 @@
         <v>-1.999997396689707</v>
       </c>
       <c r="J396">
-        <v>18.81962203979492</v>
+        <v>59.41629576683044</v>
       </c>
       <c r="K396">
         <v>-7.999997396689706</v>
@@ -18094,7 +18094,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J397">
-        <v>18.80696225166321</v>
+        <v>64.69949007034302</v>
       </c>
       <c r="K397">
         <v>-12</v>
@@ -18135,7 +18135,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J398">
-        <v>18.75370001792908</v>
+        <v>63.55160212516785</v>
       </c>
       <c r="K398">
         <v>-12</v>
@@ -18176,7 +18176,7 @@
         <v>-2.999999864970357</v>
       </c>
       <c r="J399">
-        <v>18.64728808403015</v>
+        <v>64.98651099205017</v>
       </c>
       <c r="K399">
         <v>-8.999999864970357</v>
@@ -18217,7 +18217,7 @@
         <v>-5.999999983381255</v>
       </c>
       <c r="J400">
-        <v>18.90215587615967</v>
+        <v>63.95133996009827</v>
       </c>
       <c r="K400">
         <v>-11.99999998338125</v>
@@ -18258,7 +18258,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J401">
-        <v>18.92177510261536</v>
+        <v>57.59205293655396</v>
       </c>
       <c r="K401">
         <v>-12</v>
@@ -18299,7 +18299,7 @@
         <v>-6</v>
       </c>
       <c r="J402">
-        <v>18.86342406272888</v>
+        <v>64.94444799423218</v>
       </c>
       <c r="K402">
         <v>-12</v>
@@ -18340,7 +18340,7 @@
         <v>-2.999989953295872</v>
       </c>
       <c r="J403">
-        <v>18.99036741256714</v>
+        <v>54.66159510612488</v>
       </c>
       <c r="K403">
         <v>-8.999989953295872</v>
@@ -18381,7 +18381,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J404">
-        <v>18.85110974311829</v>
+        <v>65.59892702102661</v>
       </c>
       <c r="K404">
         <v>-12</v>
@@ -18422,7 +18422,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J405">
-        <v>26.86764693260193</v>
+        <v>64.31807899475098</v>
       </c>
       <c r="K405">
         <v>-12</v>
@@ -18463,7 +18463,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J406">
-        <v>29.33465027809143</v>
+        <v>59.23160600662231</v>
       </c>
       <c r="K406">
         <v>-11.99999999999999</v>
@@ -18504,7 +18504,7 @@
         <v>-5.999999999999993</v>
       </c>
       <c r="J407">
-        <v>29.58732008934021</v>
+        <v>64.11525201797485</v>
       </c>
       <c r="K407">
         <v>-11.99999999999999</v>
@@ -18545,7 +18545,7 @@
         <v>-6</v>
       </c>
       <c r="J408">
-        <v>20.85478615760803</v>
+        <v>64.88151812553406</v>
       </c>
       <c r="K408">
         <v>-12</v>
@@ -18586,7 +18586,7 @@
         <v>-6</v>
       </c>
       <c r="J409">
-        <v>18.66170287132263</v>
+        <v>62.73641610145569</v>
       </c>
       <c r="K409">
         <v>-12</v>
@@ -18627,7 +18627,7 @@
         <v>-6</v>
       </c>
       <c r="J410">
-        <v>18.8349130153656</v>
+        <v>64.82472491264343</v>
       </c>
       <c r="K410">
         <v>-12</v>
@@ -18668,7 +18668,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J411">
-        <v>18.62771916389465</v>
+        <v>64.87196612358093</v>
       </c>
       <c r="K411">
         <v>-12</v>
@@ -18709,7 +18709,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J412">
-        <v>18.61351609230042</v>
+        <v>59.70762968063354</v>
       </c>
       <c r="K412">
         <v>-12</v>
@@ -18750,7 +18750,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J413">
-        <v>18.61581587791443</v>
+        <v>63.96619200706482</v>
       </c>
       <c r="K413">
         <v>-12</v>
@@ -18791,7 +18791,7 @@
         <v>-6</v>
       </c>
       <c r="J414">
-        <v>18.69754695892334</v>
+        <v>64.19827318191528</v>
       </c>
       <c r="K414">
         <v>-12</v>
@@ -18832,7 +18832,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J415">
-        <v>18.89422583580017</v>
+        <v>64.22539710998535</v>
       </c>
       <c r="K415">
         <v>-12</v>
@@ -18873,7 +18873,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J416">
-        <v>18.80833506584167</v>
+        <v>64.08978796005249</v>
       </c>
       <c r="K416">
         <v>-12</v>
@@ -18914,7 +18914,7 @@
         <v>-6</v>
       </c>
       <c r="J417">
-        <v>18.58356404304504</v>
+        <v>61.70827603340149</v>
       </c>
       <c r="K417">
         <v>-12</v>
@@ -18955,7 +18955,7 @@
         <v>-6</v>
       </c>
       <c r="J418">
-        <v>18.59977507591248</v>
+        <v>63.14416098594666</v>
       </c>
       <c r="K418">
         <v>-12</v>
@@ -18996,7 +18996,7 @@
         <v>-6</v>
       </c>
       <c r="J419">
-        <v>18.93361210823059</v>
+        <v>64.55558609962463</v>
       </c>
       <c r="K419">
         <v>-12</v>
@@ -19037,7 +19037,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J420">
-        <v>18.73561406135559</v>
+        <v>61.14521670341492</v>
       </c>
       <c r="K420">
         <v>-12</v>
@@ -19078,7 +19078,7 @@
         <v>-2.99999919455583</v>
       </c>
       <c r="J421">
-        <v>18.94672393798828</v>
+        <v>60.98203682899475</v>
       </c>
       <c r="K421">
         <v>-8.99999919455583</v>
@@ -19119,7 +19119,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J422">
-        <v>20.19594025611877</v>
+        <v>64.81426310539246</v>
       </c>
       <c r="K422">
         <v>-12</v>
@@ -19160,7 +19160,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J423">
-        <v>19.03527212142944</v>
+        <v>63.06410694122314</v>
       </c>
       <c r="K423">
         <v>-12</v>
@@ -19201,7 +19201,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J424">
-        <v>18.89013314247131</v>
+        <v>63.77204203605652</v>
       </c>
       <c r="K424">
         <v>-12</v>
@@ -19242,7 +19242,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J425">
-        <v>19.652419090271</v>
+        <v>62.12775015830994</v>
       </c>
       <c r="K425">
         <v>-12</v>
@@ -19283,7 +19283,7 @@
         <v>-1.999998182559154</v>
       </c>
       <c r="J426">
-        <v>19.12333703041077</v>
+        <v>65.12744188308716</v>
       </c>
       <c r="K426">
         <v>-7.999998182559154</v>
@@ -19324,7 +19324,7 @@
         <v>-6</v>
       </c>
       <c r="J427">
-        <v>20.99275588989258</v>
+        <v>57.29276180267334</v>
       </c>
       <c r="K427">
         <v>-12</v>
@@ -19365,7 +19365,7 @@
         <v>-6</v>
       </c>
       <c r="J428">
-        <v>19.09732699394226</v>
+        <v>60.36456990242004</v>
       </c>
       <c r="K428">
         <v>-12</v>
@@ -19406,7 +19406,7 @@
         <v>-2.99999948862629</v>
       </c>
       <c r="J429">
-        <v>18.73607277870178</v>
+        <v>64.54621911048889</v>
       </c>
       <c r="K429">
         <v>-8.99999948862629</v>
@@ -19447,7 +19447,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J430">
-        <v>18.75617027282715</v>
+        <v>63.95384502410889</v>
       </c>
       <c r="K430">
         <v>-12</v>
@@ -19488,7 +19488,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J431">
-        <v>19.18791890144348</v>
+        <v>64.95181107521057</v>
       </c>
       <c r="K431">
         <v>-12.00000000000001</v>
@@ -19529,7 +19529,7 @@
         <v>-2.999999982265008</v>
       </c>
       <c r="J432">
-        <v>19.09492588043213</v>
+        <v>61.06762671470642</v>
       </c>
       <c r="K432">
         <v>-8.999999982265008</v>
@@ -19570,7 +19570,7 @@
         <v>-6</v>
       </c>
       <c r="J433">
-        <v>18.69431805610657</v>
+        <v>65.11492514610291</v>
       </c>
       <c r="K433">
         <v>-12</v>
@@ -19611,7 +19611,7 @@
         <v>-2.99999973965417</v>
       </c>
       <c r="J434">
-        <v>18.72975707054138</v>
+        <v>63.73689699172974</v>
       </c>
       <c r="K434">
         <v>-8.99999973965417</v>
@@ -19652,7 +19652,7 @@
         <v>-6</v>
       </c>
       <c r="J435">
-        <v>18.91863179206848</v>
+        <v>64.309894323349</v>
       </c>
       <c r="K435">
         <v>-12</v>
@@ -19693,7 +19693,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J436">
-        <v>18.90519070625305</v>
+        <v>61.11188316345215</v>
       </c>
       <c r="K436">
         <v>-12</v>
@@ -19734,7 +19734,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J437">
-        <v>19.47707915306091</v>
+        <v>64.05704498291016</v>
       </c>
       <c r="K437">
         <v>-12</v>
@@ -19775,7 +19775,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J438">
-        <v>19.80999398231506</v>
+        <v>64.94178676605225</v>
       </c>
       <c r="K438">
         <v>-12</v>
@@ -19816,7 +19816,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J439">
-        <v>18.98671007156372</v>
+        <v>64.05482697486877</v>
       </c>
       <c r="K439">
         <v>-12</v>
@@ -19857,7 +19857,7 @@
         <v>-6</v>
       </c>
       <c r="J440">
-        <v>18.69212698936462</v>
+        <v>60.98277974128723</v>
       </c>
       <c r="K440">
         <v>-12</v>
@@ -19898,7 +19898,7 @@
         <v>-6</v>
       </c>
       <c r="J441">
-        <v>18.7664692401886</v>
+        <v>64.21817684173584</v>
       </c>
       <c r="K441">
         <v>-12</v>
@@ -19939,7 +19939,7 @@
         <v>-6</v>
       </c>
       <c r="J442">
-        <v>18.80289006233215</v>
+        <v>65.0857138633728</v>
       </c>
       <c r="K442">
         <v>-12</v>
@@ -19980,7 +19980,7 @@
         <v>-2.99999972969646</v>
       </c>
       <c r="J443">
-        <v>18.8921811580658</v>
+        <v>64.44166493415833</v>
       </c>
       <c r="K443">
         <v>-8.999999729696459</v>
@@ -20021,7 +20021,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J444">
-        <v>18.67866492271423</v>
+        <v>64.00403499603271</v>
       </c>
       <c r="K444">
         <v>-12</v>
@@ -20062,7 +20062,7 @@
         <v>-6</v>
       </c>
       <c r="J445">
-        <v>18.90082097053528</v>
+        <v>64.76801991462708</v>
       </c>
       <c r="K445">
         <v>-12</v>
@@ -20103,7 +20103,7 @@
         <v>-1.999999367810126</v>
       </c>
       <c r="J446">
-        <v>18.68482732772827</v>
+        <v>60.18913316726685</v>
       </c>
       <c r="K446">
         <v>-7.999999367810125</v>
@@ -20144,7 +20144,7 @@
         <v>-6</v>
       </c>
       <c r="J447">
-        <v>18.80050802230835</v>
+        <v>64.9657998085022</v>
       </c>
       <c r="K447">
         <v>-12</v>
@@ -20185,7 +20185,7 @@
         <v>-6</v>
       </c>
       <c r="J448">
-        <v>18.63273406028748</v>
+        <v>64.00243997573853</v>
       </c>
       <c r="K448">
         <v>-12</v>
@@ -20226,7 +20226,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J449">
-        <v>18.7185389995575</v>
+        <v>64.72122097015381</v>
       </c>
       <c r="K449">
         <v>-12</v>
@@ -20267,7 +20267,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J450">
-        <v>18.6437771320343</v>
+        <v>64.81766295433044</v>
       </c>
       <c r="K450">
         <v>-12</v>
@@ -20308,7 +20308,7 @@
         <v>-6</v>
       </c>
       <c r="J451">
-        <v>20.61138796806335</v>
+        <v>62.98806285858154</v>
       </c>
       <c r="K451">
         <v>-12</v>
@@ -20349,7 +20349,7 @@
         <v>-6</v>
       </c>
       <c r="J452">
-        <v>28.86698698997498</v>
+        <v>65.03748989105225</v>
       </c>
       <c r="K452">
         <v>-12</v>
@@ -20390,7 +20390,7 @@
         <v>-6</v>
       </c>
       <c r="J453">
-        <v>28.67313408851624</v>
+        <v>64.06471705436707</v>
       </c>
       <c r="K453">
         <v>-12</v>
@@ -20431,7 +20431,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J454">
-        <v>19.60267066955566</v>
+        <v>63.66192507743835</v>
       </c>
       <c r="K454">
         <v>-12</v>
@@ -20472,7 +20472,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J455">
-        <v>19.15444803237915</v>
+        <v>63.68635821342468</v>
       </c>
       <c r="K455">
         <v>-12</v>
@@ -20513,7 +20513,7 @@
         <v>-2.999999670086456</v>
       </c>
       <c r="J456">
-        <v>18.92478513717651</v>
+        <v>62.75467395782471</v>
       </c>
       <c r="K456">
         <v>-8.999999670086456</v>
@@ -20554,7 +20554,7 @@
         <v>-6</v>
       </c>
       <c r="J457">
-        <v>18.9066858291626</v>
+        <v>64.38983607292175</v>
       </c>
       <c r="K457">
         <v>-12</v>
@@ -20595,7 +20595,7 @@
         <v>-6</v>
       </c>
       <c r="J458">
-        <v>18.77659821510315</v>
+        <v>63.98481893539429</v>
       </c>
       <c r="K458">
         <v>-12</v>
@@ -20636,7 +20636,7 @@
         <v>-6</v>
       </c>
       <c r="J459">
-        <v>18.65697693824768</v>
+        <v>59.33114409446716</v>
       </c>
       <c r="K459">
         <v>-12</v>
@@ -20677,7 +20677,7 @@
         <v>-2.999998574996228</v>
       </c>
       <c r="J460">
-        <v>18.86191892623901</v>
+        <v>64.28888916969299</v>
       </c>
       <c r="K460">
         <v>-8.999998574996228</v>
@@ -20718,7 +20718,7 @@
         <v>-6</v>
       </c>
       <c r="J461">
-        <v>18.80324506759644</v>
+        <v>60.47660207748413</v>
       </c>
       <c r="K461">
         <v>-12</v>
@@ -20759,7 +20759,7 @@
         <v>-1.999998879490134</v>
       </c>
       <c r="J462">
-        <v>19.11551308631897</v>
+        <v>64.4626088142395</v>
       </c>
       <c r="K462">
         <v>-7.999998879490134</v>
@@ -20800,7 +20800,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J463">
-        <v>19.02762603759766</v>
+        <v>64.79959106445312</v>
       </c>
       <c r="K463">
         <v>-12</v>
@@ -20841,7 +20841,7 @@
         <v>-2.999999873165863</v>
       </c>
       <c r="J464">
-        <v>18.90688896179199</v>
+        <v>62.9344789981842</v>
       </c>
       <c r="K464">
         <v>-8.999999873165862</v>
@@ -20882,7 +20882,7 @@
         <v>-6</v>
       </c>
       <c r="J465">
-        <v>18.45817089080811</v>
+        <v>63.73856782913208</v>
       </c>
       <c r="K465">
         <v>-12</v>
@@ -20923,7 +20923,7 @@
         <v>-6</v>
       </c>
       <c r="J466">
-        <v>17.51116609573364</v>
+        <v>64.88129091262817</v>
       </c>
       <c r="K466">
         <v>-12</v>
@@ -20964,7 +20964,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J467">
-        <v>17.75605726242065</v>
+        <v>64.06427907943726</v>
       </c>
       <c r="K467">
         <v>-12</v>
@@ -21005,7 +21005,7 @@
         <v>-6</v>
       </c>
       <c r="J468">
-        <v>18.85734701156616</v>
+        <v>61.68034195899963</v>
       </c>
       <c r="K468">
         <v>-12</v>
@@ -21046,7 +21046,7 @@
         <v>-6</v>
       </c>
       <c r="J469">
-        <v>18.7780647277832</v>
+        <v>64.14964127540588</v>
       </c>
       <c r="K469">
         <v>-12</v>
@@ -21087,7 +21087,7 @@
         <v>-6</v>
       </c>
       <c r="J470">
-        <v>20.06168007850647</v>
+        <v>56.93781399726868</v>
       </c>
       <c r="K470">
         <v>-12</v>
@@ -21128,7 +21128,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J471">
-        <v>19.2974169254303</v>
+        <v>64.09241199493408</v>
       </c>
       <c r="K471">
         <v>-12.00000000000001</v>
@@ -21169,7 +21169,7 @@
         <v>-6</v>
       </c>
       <c r="J472">
-        <v>19.62479472160339</v>
+        <v>64.93215894699097</v>
       </c>
       <c r="K472">
         <v>-12</v>
@@ -21210,7 +21210,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J473">
-        <v>18.68968200683594</v>
+        <v>64.68549799919128</v>
       </c>
       <c r="K473">
         <v>-12</v>
@@ -21251,7 +21251,7 @@
         <v>-2.999999876231382</v>
       </c>
       <c r="J474">
-        <v>18.72077918052673</v>
+        <v>59.37986421585083</v>
       </c>
       <c r="K474">
         <v>-8.999999876231382</v>
@@ -21292,7 +21292,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J475">
-        <v>18.81502795219421</v>
+        <v>55.73340320587158</v>
       </c>
       <c r="K475">
         <v>-12</v>
@@ -21333,7 +21333,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J476">
-        <v>18.74551129341125</v>
+        <v>64.02783799171448</v>
       </c>
       <c r="K476">
         <v>-12</v>
@@ -21374,7 +21374,7 @@
         <v>-6</v>
       </c>
       <c r="J477">
-        <v>18.76543092727661</v>
+        <v>61.98938083648682</v>
       </c>
       <c r="K477">
         <v>-12</v>
@@ -21415,7 +21415,7 @@
         <v>-6</v>
       </c>
       <c r="J478">
-        <v>19.04009389877319</v>
+        <v>64.10826182365417</v>
       </c>
       <c r="K478">
         <v>-12</v>
@@ -21456,7 +21456,7 @@
         <v>-6</v>
       </c>
       <c r="J479">
-        <v>18.86665797233582</v>
+        <v>64.91446018218994</v>
       </c>
       <c r="K479">
         <v>-12</v>
@@ -21497,7 +21497,7 @@
         <v>-6</v>
       </c>
       <c r="J480">
-        <v>18.67864012718201</v>
+        <v>60.82314801216125</v>
       </c>
       <c r="K480">
         <v>-12</v>
@@ -21538,7 +21538,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J481">
-        <v>18.66021704673767</v>
+        <v>64.99040007591248</v>
       </c>
       <c r="K481">
         <v>-12</v>
@@ -21579,7 +21579,7 @@
         <v>-6</v>
       </c>
       <c r="J482">
-        <v>18.66293787956238</v>
+        <v>64.76004600524902</v>
       </c>
       <c r="K482">
         <v>-12</v>
@@ -21620,7 +21620,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J483">
-        <v>18.70829701423645</v>
+        <v>60.37318801879883</v>
       </c>
       <c r="K483">
         <v>-12</v>
@@ -21661,7 +21661,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J484">
-        <v>20.30664682388306</v>
+        <v>64.85946488380432</v>
       </c>
       <c r="K484">
         <v>-12</v>
@@ -21702,7 +21702,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J485">
-        <v>19.07728505134583</v>
+        <v>64.16554498672485</v>
       </c>
       <c r="K485">
         <v>-12</v>
@@ -21743,7 +21743,7 @@
         <v>-2.99999979555393</v>
       </c>
       <c r="J486">
-        <v>18.98761105537415</v>
+        <v>60.39659595489502</v>
       </c>
       <c r="K486">
         <v>-8.999999795553929</v>
@@ -21784,7 +21784,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J487">
-        <v>19.30154609680176</v>
+        <v>63.96785306930542</v>
       </c>
       <c r="K487">
         <v>-11.99999999999999</v>
@@ -21825,7 +21825,7 @@
         <v>-2.999999505257043</v>
       </c>
       <c r="J488">
-        <v>19.35319924354553</v>
+        <v>64.71323490142822</v>
       </c>
       <c r="K488">
         <v>-8.999999505257042</v>
@@ -21866,7 +21866,7 @@
         <v>-2.999999374721492</v>
       </c>
       <c r="J489">
-        <v>19.21473002433777</v>
+        <v>65.05872297286987</v>
       </c>
       <c r="K489">
         <v>-8.999999374721492</v>
@@ -21907,7 +21907,7 @@
         <v>-2.999999720758721</v>
       </c>
       <c r="J490">
-        <v>18.792809009552</v>
+        <v>60.31106424331665</v>
       </c>
       <c r="K490">
         <v>-8.999999720758721</v>
@@ -21948,7 +21948,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J491">
-        <v>18.84660792350769</v>
+        <v>61.94573211669922</v>
       </c>
       <c r="K491">
         <v>-12</v>
@@ -21989,7 +21989,7 @@
         <v>-1.999996581805935</v>
       </c>
       <c r="J492">
-        <v>18.73900699615479</v>
+        <v>64.14835286140442</v>
       </c>
       <c r="K492">
         <v>-7.999996581805935</v>
@@ -22030,7 +22030,7 @@
         <v>-6</v>
       </c>
       <c r="J493">
-        <v>18.72464990615845</v>
+        <v>64.68554019927979</v>
       </c>
       <c r="K493">
         <v>-12</v>
@@ -22071,7 +22071,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J494">
-        <v>19.24801468849182</v>
+        <v>64.02365517616272</v>
       </c>
       <c r="K494">
         <v>-12</v>
@@ -22112,7 +22112,7 @@
         <v>-2.999999208605689</v>
       </c>
       <c r="J495">
-        <v>19.01338601112366</v>
+        <v>61.79478001594543</v>
       </c>
       <c r="K495">
         <v>-8.99999920860569</v>
@@ -22153,7 +22153,7 @@
         <v>-5.994659371956028</v>
       </c>
       <c r="J496">
-        <v>18.85362505912781</v>
+        <v>64.75066018104553</v>
       </c>
       <c r="K496">
         <v>-11.99465937195603</v>
@@ -22194,7 +22194,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J497">
-        <v>18.91974401473999</v>
+        <v>64.27825593948364</v>
       </c>
       <c r="K497">
         <v>-12</v>
@@ -22235,7 +22235,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J498">
-        <v>18.88367986679077</v>
+        <v>61.77125692367554</v>
       </c>
       <c r="K498">
         <v>-12</v>
@@ -22276,7 +22276,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J499">
-        <v>18.76711010932922</v>
+        <v>64.08737993240356</v>
       </c>
       <c r="K499">
         <v>-12</v>
@@ -22317,7 +22317,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J500">
-        <v>19.06001591682434</v>
+        <v>65.12529802322388</v>
       </c>
       <c r="K500">
         <v>-12</v>
@@ -22358,7 +22358,7 @@
         <v>-2.999999792459565</v>
       </c>
       <c r="J501">
-        <v>26.43232893943787</v>
+        <v>64.15426802635193</v>
       </c>
       <c r="K501">
         <v>-8.999999792459565</v>
@@ -22399,7 +22399,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J502">
-        <v>20.1100218296051</v>
+        <v>63.15639901161194</v>
       </c>
       <c r="K502">
         <v>-12</v>
@@ -22440,7 +22440,7 @@
         <v>-6</v>
       </c>
       <c r="J503">
-        <v>20.01749515533447</v>
+        <v>64.97441577911377</v>
       </c>
       <c r="K503">
         <v>-12</v>
@@ -22481,7 +22481,7 @@
         <v>-6</v>
       </c>
       <c r="J504">
-        <v>19.23943495750427</v>
+        <v>64.23367929458618</v>
       </c>
       <c r="K504">
         <v>-12</v>
@@ -22522,7 +22522,7 @@
         <v>-6</v>
       </c>
       <c r="J505">
-        <v>20.52118134498596</v>
+        <v>62.44204592704773</v>
       </c>
       <c r="K505">
         <v>-12</v>
@@ -22563,7 +22563,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J506">
-        <v>20.42255520820618</v>
+        <v>64.08035087585449</v>
       </c>
       <c r="K506">
         <v>-12</v>
@@ -22604,7 +22604,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J507">
-        <v>19.27746415138245</v>
+        <v>59.74901080131531</v>
       </c>
       <c r="K507">
         <v>-12</v>
@@ -22645,7 +22645,7 @@
         <v>-5.999998047204632</v>
       </c>
       <c r="J508">
-        <v>18.94765210151672</v>
+        <v>64.38842177391052</v>
       </c>
       <c r="K508">
         <v>-11.99999804720463</v>
@@ -22686,7 +22686,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J509">
-        <v>18.97513008117676</v>
+        <v>65.1098210811615</v>
       </c>
       <c r="K509">
         <v>-12</v>
@@ -22727,7 +22727,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J510">
-        <v>18.97865080833435</v>
+        <v>64.65377998352051</v>
       </c>
       <c r="K510">
         <v>-12</v>
@@ -22768,7 +22768,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J511">
-        <v>19.23596215248108</v>
+        <v>64.13425016403198</v>
       </c>
       <c r="K511">
         <v>-12</v>
@@ -22809,7 +22809,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J512">
-        <v>18.99324798583984</v>
+        <v>57.82853388786316</v>
       </c>
       <c r="K512">
         <v>-12</v>
@@ -22850,7 +22850,7 @@
         <v>-2.999999638462931</v>
       </c>
       <c r="J513">
-        <v>18.95323801040649</v>
+        <v>63.90112495422363</v>
       </c>
       <c r="K513">
         <v>-8.999999638462931</v>
@@ -22891,7 +22891,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J514">
-        <v>19.97388005256653</v>
+        <v>63.71951675415039</v>
       </c>
       <c r="K514">
         <v>-12.00000000000001</v>
@@ -22932,7 +22932,7 @@
         <v>-2.999999559718206</v>
       </c>
       <c r="J515">
-        <v>19.65942096710205</v>
+        <v>64.01540780067444</v>
       </c>
       <c r="K515">
         <v>-8.999999559718205</v>
@@ -22973,7 +22973,7 @@
         <v>-2.999999890406319</v>
       </c>
       <c r="J516">
-        <v>19.36558127403259</v>
+        <v>61.88289284706116</v>
       </c>
       <c r="K516">
         <v>-8.999999890406318</v>
@@ -23014,7 +23014,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J517">
-        <v>19.24367499351501</v>
+        <v>64.65801310539246</v>
       </c>
       <c r="K517">
         <v>-12</v>
@@ -23055,7 +23055,7 @@
         <v>-1.999999219376897</v>
       </c>
       <c r="J518">
-        <v>18.99528384208679</v>
+        <v>65.30324387550354</v>
       </c>
       <c r="K518">
         <v>-7.999999219376896</v>
@@ -23096,7 +23096,7 @@
         <v>-6</v>
       </c>
       <c r="J519">
-        <v>19.31641602516174</v>
+        <v>64.83060717582703</v>
       </c>
       <c r="K519">
         <v>-12</v>
@@ -23137,7 +23137,7 @@
         <v>-2.999999946917665</v>
       </c>
       <c r="J520">
-        <v>21.55733609199524</v>
+        <v>64.1241888999939</v>
       </c>
       <c r="K520">
         <v>-8.999999946917665</v>
@@ -23178,7 +23178,7 @@
         <v>-6</v>
       </c>
       <c r="J521">
-        <v>19.88164782524109</v>
+        <v>65.01264095306396</v>
       </c>
       <c r="K521">
         <v>-12</v>
@@ -23219,7 +23219,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J522">
-        <v>24.52674007415771</v>
+        <v>63.57839679718018</v>
       </c>
       <c r="K522">
         <v>-12</v>
@@ -23260,7 +23260,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J523">
-        <v>23.77628803253174</v>
+        <v>65.35803699493408</v>
       </c>
       <c r="K523">
         <v>-12</v>
@@ -23301,7 +23301,7 @@
         <v>-2.999999092956272</v>
       </c>
       <c r="J524">
-        <v>19.51839208602905</v>
+        <v>65.11229586601257</v>
       </c>
       <c r="K524">
         <v>-8.999999092956273</v>
@@ -23342,7 +23342,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J525">
-        <v>18.74791932106018</v>
+        <v>64.13394999504089</v>
       </c>
       <c r="K525">
         <v>-12</v>
@@ -23383,7 +23383,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J526">
-        <v>18.87003207206726</v>
+        <v>60.34025025367737</v>
       </c>
       <c r="K526">
         <v>-12</v>
@@ -23424,7 +23424,7 @@
         <v>-6</v>
       </c>
       <c r="J527">
-        <v>19.45888781547546</v>
+        <v>62.11460614204407</v>
       </c>
       <c r="K527">
         <v>-12</v>
@@ -23465,7 +23465,7 @@
         <v>-2.99999951464237</v>
       </c>
       <c r="J528">
-        <v>19.19318604469299</v>
+        <v>59.67809891700745</v>
       </c>
       <c r="K528">
         <v>-8.99999951464237</v>
@@ -23506,7 +23506,7 @@
         <v>-6</v>
       </c>
       <c r="J529">
-        <v>18.90836501121521</v>
+        <v>64.30912828445435</v>
       </c>
       <c r="K529">
         <v>-12</v>
@@ -23547,7 +23547,7 @@
         <v>-6</v>
       </c>
       <c r="J530">
-        <v>18.93619108200073</v>
+        <v>64.84660410881042</v>
       </c>
       <c r="K530">
         <v>-12</v>
@@ -23588,7 +23588,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J531">
-        <v>18.75504899024963</v>
+        <v>62.59238195419312</v>
       </c>
       <c r="K531">
         <v>-11.99999999999999</v>
@@ -23629,7 +23629,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J532">
-        <v>19.7766547203064</v>
+        <v>64.29400897026062</v>
       </c>
       <c r="K532">
         <v>-12</v>
@@ -23670,7 +23670,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J533">
-        <v>18.75767707824707</v>
+        <v>64.50993013381958</v>
       </c>
       <c r="K533">
         <v>-12</v>
@@ -23711,7 +23711,7 @@
         <v>-1.999999410163362</v>
       </c>
       <c r="J534">
-        <v>18.5787980556488</v>
+        <v>63.89812898635864</v>
       </c>
       <c r="K534">
         <v>-7.999999410163362</v>
@@ -23752,7 +23752,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J535">
-        <v>18.78533029556274</v>
+        <v>58.98635101318359</v>
       </c>
       <c r="K535">
         <v>-12</v>
@@ -23793,7 +23793,7 @@
         <v>-6</v>
       </c>
       <c r="J536">
-        <v>18.88382196426392</v>
+        <v>64.5119731426239</v>
       </c>
       <c r="K536">
         <v>-12</v>
@@ -23834,7 +23834,7 @@
         <v>-6</v>
       </c>
       <c r="J537">
-        <v>18.58514189720154</v>
+        <v>59.65757489204407</v>
       </c>
       <c r="K537">
         <v>-12</v>
@@ -23875,7 +23875,7 @@
         <v>-2.999999712971328</v>
       </c>
       <c r="J538">
-        <v>18.80439186096191</v>
+        <v>64.05660676956177</v>
       </c>
       <c r="K538">
         <v>-8.999999712971327</v>
@@ -23916,7 +23916,7 @@
         <v>-6</v>
       </c>
       <c r="J539">
-        <v>18.97669291496277</v>
+        <v>65.11939978599548</v>
       </c>
       <c r="K539">
         <v>-12</v>
@@ -23957,7 +23957,7 @@
         <v>-2.999999845958837</v>
       </c>
       <c r="J540">
-        <v>19.09838700294495</v>
+        <v>64.54169225692749</v>
       </c>
       <c r="K540">
         <v>-8.999999845958836</v>
@@ -23998,7 +23998,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J541">
-        <v>18.64825081825256</v>
+        <v>63.76595616340637</v>
       </c>
       <c r="K541">
         <v>-12</v>
@@ -24039,7 +24039,7 @@
         <v>-6</v>
       </c>
       <c r="J542">
-        <v>18.66207504272461</v>
+        <v>62.22953677177429</v>
       </c>
       <c r="K542">
         <v>-12</v>
@@ -24080,7 +24080,7 @@
         <v>-6</v>
       </c>
       <c r="J543">
-        <v>18.71444797515869</v>
+        <v>60.1196448802948</v>
       </c>
       <c r="K543">
         <v>-12</v>
@@ -24121,7 +24121,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J544">
-        <v>17.83476400375366</v>
+        <v>64.79805016517639</v>
       </c>
       <c r="K544">
         <v>-12</v>
@@ -24162,7 +24162,7 @@
         <v>-2.999999729425725</v>
       </c>
       <c r="J545">
-        <v>17.62724900245667</v>
+        <v>64.07771301269531</v>
       </c>
       <c r="K545">
         <v>-8.999999729425726</v>
@@ -24203,7 +24203,7 @@
         <v>-6</v>
       </c>
       <c r="J546">
-        <v>25.23301100730896</v>
+        <v>62.22595500946045</v>
       </c>
       <c r="K546">
         <v>-12</v>
@@ -24244,7 +24244,7 @@
         <v>-6</v>
       </c>
       <c r="J547">
-        <v>31.81420493125916</v>
+        <v>62.5064971446991</v>
       </c>
       <c r="K547">
         <v>-12</v>
@@ -24285,7 +24285,7 @@
         <v>-2.99999978915244</v>
       </c>
       <c r="J548">
-        <v>22.6716480255127</v>
+        <v>65.33389806747437</v>
       </c>
       <c r="K548">
         <v>-8.99999978915244</v>
@@ -24326,7 +24326,7 @@
         <v>-6</v>
       </c>
       <c r="J549">
-        <v>18.13741707801819</v>
+        <v>62.49860787391663</v>
       </c>
       <c r="K549">
         <v>-12</v>
@@ -24367,7 +24367,7 @@
         <v>-6</v>
       </c>
       <c r="J550">
-        <v>18.25359392166138</v>
+        <v>64.19365978240967</v>
       </c>
       <c r="K550">
         <v>-12</v>
@@ -24408,7 +24408,7 @@
         <v>-6</v>
       </c>
       <c r="J551">
-        <v>18.73113012313843</v>
+        <v>64.9680380821228</v>
       </c>
       <c r="K551">
         <v>-12</v>
@@ -24449,7 +24449,7 @@
         <v>-2.999999622406816</v>
       </c>
       <c r="J552">
-        <v>18.49522399902344</v>
+        <v>55.19052505493164</v>
       </c>
       <c r="K552">
         <v>-8.999999622406815</v>
@@ -24490,7 +24490,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J553">
-        <v>18.66732096672058</v>
+        <v>64.81426525115967</v>
       </c>
       <c r="K553">
         <v>-12</v>
@@ -24531,7 +24531,7 @@
         <v>-2.999999319759742</v>
       </c>
       <c r="J554">
-        <v>18.60250401496887</v>
+        <v>64.24490785598755</v>
       </c>
       <c r="K554">
         <v>-8.999999319759741</v>
@@ -24572,7 +24572,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J555">
-        <v>18.69551587104797</v>
+        <v>62.99356126785278</v>
       </c>
       <c r="K555">
         <v>-12</v>
@@ -24613,7 +24613,7 @@
         <v>-2.999999906471948</v>
       </c>
       <c r="J556">
-        <v>18.90898108482361</v>
+        <v>64.38462781906128</v>
       </c>
       <c r="K556">
         <v>-8.999999906471949</v>
@@ -24654,7 +24654,7 @@
         <v>-6</v>
       </c>
       <c r="J557">
-        <v>18.67305183410645</v>
+        <v>63.79135894775391</v>
       </c>
       <c r="K557">
         <v>-12</v>
@@ -24695,7 +24695,7 @@
         <v>-6</v>
       </c>
       <c r="J558">
-        <v>18.87763500213623</v>
+        <v>63.2663722038269</v>
       </c>
       <c r="K558">
         <v>-12</v>
@@ -24736,7 +24736,7 @@
         <v>-6</v>
       </c>
       <c r="J559">
-        <v>18.87466812133789</v>
+        <v>63.87882804870605</v>
       </c>
       <c r="K559">
         <v>-12</v>
@@ -24777,7 +24777,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J560">
-        <v>18.50476002693176</v>
+        <v>64.82620000839233</v>
       </c>
       <c r="K560">
         <v>-12</v>
@@ -24818,7 +24818,7 @@
         <v>-6</v>
       </c>
       <c r="J561">
-        <v>19.92025184631348</v>
+        <v>64.3570191860199</v>
       </c>
       <c r="K561">
         <v>-12</v>
@@ -24859,7 +24859,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J562">
-        <v>18.60223793983459</v>
+        <v>60.41425895690918</v>
       </c>
       <c r="K562">
         <v>-12</v>
@@ -24900,7 +24900,7 @@
         <v>-2.999998457921162</v>
       </c>
       <c r="J563">
-        <v>18.63049006462097</v>
+        <v>63.24276185035706</v>
       </c>
       <c r="K563">
         <v>-8.999998457921162</v>
@@ -24941,7 +24941,7 @@
         <v>-6</v>
       </c>
       <c r="J564">
-        <v>18.61883330345154</v>
+        <v>64.6623969078064</v>
       </c>
       <c r="K564">
         <v>-12</v>
@@ -24982,7 +24982,7 @@
         <v>-6</v>
       </c>
       <c r="J565">
-        <v>19.00761294364929</v>
+        <v>64.88034081459045</v>
       </c>
       <c r="K565">
         <v>-12</v>
@@ -25023,7 +25023,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J566">
-        <v>19.27173900604248</v>
+        <v>64.12645483016968</v>
       </c>
       <c r="K566">
         <v>-12</v>
@@ -25064,7 +25064,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J567">
-        <v>18.95684933662415</v>
+        <v>62.12771105766296</v>
       </c>
       <c r="K567">
         <v>-12</v>
@@ -25105,7 +25105,7 @@
         <v>-6</v>
       </c>
       <c r="J568">
-        <v>18.68823575973511</v>
+        <v>55.47387504577637</v>
       </c>
       <c r="K568">
         <v>-12</v>
@@ -25146,7 +25146,7 @@
         <v>-6</v>
       </c>
       <c r="J569">
-        <v>19.05173182487488</v>
+        <v>65.36851620674133</v>
       </c>
       <c r="K569">
         <v>-12</v>
@@ -25187,7 +25187,7 @@
         <v>-6</v>
       </c>
       <c r="J570">
-        <v>19.25209999084473</v>
+        <v>63.0828800201416</v>
       </c>
       <c r="K570">
         <v>-12</v>
@@ -25228,7 +25228,7 @@
         <v>-6</v>
       </c>
       <c r="J571">
-        <v>18.86307907104492</v>
+        <v>64.64098525047302</v>
       </c>
       <c r="K571">
         <v>-12</v>
@@ -25269,7 +25269,7 @@
         <v>-6</v>
       </c>
       <c r="J572">
-        <v>19.24611926078796</v>
+        <v>65.14892387390137</v>
       </c>
       <c r="K572">
         <v>-12</v>
@@ -25310,7 +25310,7 @@
         <v>-6</v>
       </c>
       <c r="J573">
-        <v>18.91483497619629</v>
+        <v>62.31974101066589</v>
       </c>
       <c r="K573">
         <v>-12</v>
@@ -25351,7 +25351,7 @@
         <v>-6.000000000000001</v>
       </c>
       <c r="J574">
-        <v>19.02474284172058</v>
+        <v>60.07939791679382</v>
       </c>
       <c r="K574">
         <v>-12</v>
@@ -25392,7 +25392,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J575">
-        <v>19.11965322494507</v>
+        <v>64.2928466796875</v>
       </c>
       <c r="K575">
         <v>-11.99999999999999</v>
@@ -25433,7 +25433,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J576">
-        <v>20.08864593505859</v>
+        <v>64.93626809120178</v>
       </c>
       <c r="K576">
         <v>-12</v>
@@ -25474,7 +25474,7 @@
         <v>-6</v>
       </c>
       <c r="J577">
-        <v>19.48261213302612</v>
+        <v>64.20978903770447</v>
       </c>
       <c r="K577">
         <v>-12</v>
@@ -25515,7 +25515,7 @@
         <v>-1.999998503268246</v>
       </c>
       <c r="J578">
-        <v>18.8116888999939</v>
+        <v>63.06386017799377</v>
       </c>
       <c r="K578">
         <v>-7.999998503268246</v>
@@ -25556,7 +25556,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J579">
-        <v>18.92037606239319</v>
+        <v>62.68345499038696</v>
       </c>
       <c r="K579">
         <v>-12</v>
@@ -25597,7 +25597,7 @@
         <v>-2.999998038370734</v>
       </c>
       <c r="J580">
-        <v>19.36893796920776</v>
+        <v>63.86160206794739</v>
       </c>
       <c r="K580">
         <v>-8.999998038370734</v>
@@ -25638,7 +25638,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J581">
-        <v>19.51457405090332</v>
+        <v>64.73138308525085</v>
       </c>
       <c r="K581">
         <v>-12</v>
@@ -25679,7 +25679,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J582">
-        <v>18.86901187896729</v>
+        <v>61.32897710800171</v>
       </c>
       <c r="K582">
         <v>-12</v>
@@ -25720,7 +25720,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J583">
-        <v>19.39145278930664</v>
+        <v>64.87960982322693</v>
       </c>
       <c r="K583">
         <v>-12</v>
@@ -25761,7 +25761,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J584">
-        <v>19.07649707794189</v>
+        <v>63.95428800582886</v>
       </c>
       <c r="K584">
         <v>-12</v>
@@ -25802,7 +25802,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J585">
-        <v>18.65034794807434</v>
+        <v>64.25323486328125</v>
       </c>
       <c r="K585">
         <v>-12.00000000000001</v>
@@ -25843,7 +25843,7 @@
         <v>-2.999999041599627</v>
       </c>
       <c r="J586">
-        <v>19.28692889213562</v>
+        <v>64.61641001701355</v>
       </c>
       <c r="K586">
         <v>-8.999999041599628</v>
@@ -25884,7 +25884,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J587">
-        <v>19.21316981315613</v>
+        <v>64.2869758605957</v>
       </c>
       <c r="K587">
         <v>-12</v>
@@ -25925,7 +25925,7 @@
         <v>-6</v>
       </c>
       <c r="J588">
-        <v>18.71551084518433</v>
+        <v>64.88526201248169</v>
       </c>
       <c r="K588">
         <v>-12</v>
@@ -25966,7 +25966,7 @@
         <v>-2.999999410791111</v>
       </c>
       <c r="J589">
-        <v>18.76145315170288</v>
+        <v>63.97538805007935</v>
       </c>
       <c r="K589">
         <v>-8.99999941079111</v>
@@ -26007,7 +26007,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J590">
-        <v>19.30305004119873</v>
+        <v>64.78457379341125</v>
       </c>
       <c r="K590">
         <v>-12</v>
@@ -26048,7 +26048,7 @@
         <v>-2.999944613866395</v>
       </c>
       <c r="J591">
-        <v>19.39871120452881</v>
+        <v>59.66973376274109</v>
       </c>
       <c r="K591">
         <v>-8.999944613866395</v>
@@ -26089,7 +26089,7 @@
         <v>-6</v>
       </c>
       <c r="J592">
-        <v>18.90420579910278</v>
+        <v>63.16964197158813</v>
       </c>
       <c r="K592">
         <v>-12</v>
@@ -26130,7 +26130,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J593">
-        <v>18.94925999641418</v>
+        <v>62.16465616226196</v>
       </c>
       <c r="K593">
         <v>-12</v>
@@ -26171,7 +26171,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J594">
-        <v>18.6134021282196</v>
+        <v>64.37046194076538</v>
       </c>
       <c r="K594">
         <v>-12</v>
@@ -26212,7 +26212,7 @@
         <v>-6</v>
       </c>
       <c r="J595">
-        <v>18.72639513015747</v>
+        <v>63.57460498809814</v>
       </c>
       <c r="K595">
         <v>-12</v>
@@ -26253,7 +26253,7 @@
         <v>-2.999998855042888</v>
       </c>
       <c r="J596">
-        <v>18.57619380950928</v>
+        <v>64.21825003623962</v>
       </c>
       <c r="K596">
         <v>-8.999998855042888</v>
@@ -26294,7 +26294,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J597">
-        <v>18.88518500328064</v>
+        <v>64.8713710308075</v>
       </c>
       <c r="K597">
         <v>-12</v>
@@ -26335,7 +26335,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J598">
-        <v>18.68729996681213</v>
+        <v>64.34103798866272</v>
       </c>
       <c r="K598">
         <v>-12</v>
@@ -26376,7 +26376,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J599">
-        <v>18.60251116752625</v>
+        <v>64.70884108543396</v>
       </c>
       <c r="K599">
         <v>-12</v>
@@ -26417,7 +26417,7 @@
         <v>-2.999999598413278</v>
       </c>
       <c r="J600">
-        <v>18.57751202583313</v>
+        <v>62.66632199287415</v>
       </c>
       <c r="K600">
         <v>-8.999999598413279</v>
@@ -26458,7 +26458,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J601">
-        <v>19.58586001396179</v>
+        <v>64.5125720500946</v>
       </c>
       <c r="K601">
         <v>-12</v>
@@ -26499,7 +26499,7 @@
         <v>-2.999998465013355</v>
       </c>
       <c r="J602">
-        <v>18.73695278167725</v>
+        <v>65.18321681022644</v>
       </c>
       <c r="K602">
         <v>-8.999998465013356</v>
@@ -26540,7 +26540,7 @@
         <v>-5.99999754791745</v>
       </c>
       <c r="J603">
-        <v>18.63772225379944</v>
+        <v>64.09049487113953</v>
       </c>
       <c r="K603">
         <v>-11.99999754791745</v>
@@ -26581,7 +26581,7 @@
         <v>-1.999998384072275</v>
       </c>
       <c r="J604">
-        <v>18.78456687927246</v>
+        <v>64.53452086448669</v>
       </c>
       <c r="K604">
         <v>-7.999998384072274</v>
@@ -26622,7 +26622,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J605">
-        <v>18.7682466506958</v>
+        <v>64.19898891448975</v>
       </c>
       <c r="K605">
         <v>-12</v>
@@ -26663,7 +26663,7 @@
         <v>-6</v>
       </c>
       <c r="J606">
-        <v>19.72097778320312</v>
+        <v>61.57309699058533</v>
       </c>
       <c r="K606">
         <v>-12</v>
@@ -26704,7 +26704,7 @@
         <v>-2.999999943344442</v>
       </c>
       <c r="J607">
-        <v>20.43296217918396</v>
+        <v>64.29123902320862</v>
       </c>
       <c r="K607">
         <v>-8.999999943344442</v>
@@ -26745,7 +26745,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J608">
-        <v>18.99377298355103</v>
+        <v>62.80385208129883</v>
       </c>
       <c r="K608">
         <v>-12</v>
@@ -26786,7 +26786,7 @@
         <v>-2.999999809093236</v>
       </c>
       <c r="J609">
-        <v>19.62542915344238</v>
+        <v>64.814857006073</v>
       </c>
       <c r="K609">
         <v>-8.999999809093236</v>
@@ -26827,7 +26827,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J610">
-        <v>19.11812567710876</v>
+        <v>60.23210191726685</v>
       </c>
       <c r="K610">
         <v>-12</v>
@@ -26868,7 +26868,7 @@
         <v>-6</v>
       </c>
       <c r="J611">
-        <v>18.65074896812439</v>
+        <v>64.89276313781738</v>
       </c>
       <c r="K611">
         <v>-12</v>
@@ -26909,7 +26909,7 @@
         <v>-6</v>
       </c>
       <c r="J612">
-        <v>18.66355586051941</v>
+        <v>60.74342203140259</v>
       </c>
       <c r="K612">
         <v>-12</v>
@@ -26950,7 +26950,7 @@
         <v>-2.999999800416858</v>
       </c>
       <c r="J613">
-        <v>18.88079905509949</v>
+        <v>64.93130302429199</v>
       </c>
       <c r="K613">
         <v>-8.999999800416859</v>
@@ -26991,7 +26991,7 @@
         <v>-2.999999606461255</v>
       </c>
       <c r="J614">
-        <v>18.72451782226562</v>
+        <v>60.20323586463928</v>
       </c>
       <c r="K614">
         <v>-8.999999606461255</v>
@@ -27032,7 +27032,7 @@
         <v>-6</v>
       </c>
       <c r="J615">
-        <v>19.20321679115295</v>
+        <v>64.95652103424072</v>
       </c>
       <c r="K615">
         <v>-12</v>
@@ -27073,7 +27073,7 @@
         <v>-1.999998929777797</v>
       </c>
       <c r="J616">
-        <v>18.92723608016968</v>
+        <v>63.03722214698792</v>
       </c>
       <c r="K616">
         <v>-7.999998929777797</v>
@@ -27114,7 +27114,7 @@
         <v>-6</v>
       </c>
       <c r="J617">
-        <v>18.80795907974243</v>
+        <v>65.15777206420898</v>
       </c>
       <c r="K617">
         <v>-12</v>
@@ -27155,7 +27155,7 @@
         <v>-6</v>
       </c>
       <c r="J618">
-        <v>19.27455401420593</v>
+        <v>65.39909386634827</v>
       </c>
       <c r="K618">
         <v>-12</v>
@@ -27196,7 +27196,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J619">
-        <v>19.25972604751587</v>
+        <v>63.41127777099609</v>
       </c>
       <c r="K619">
         <v>-12</v>
@@ -27237,7 +27237,7 @@
         <v>-5.998924721569172</v>
       </c>
       <c r="J620">
-        <v>18.89829111099243</v>
+        <v>63.95422410964966</v>
       </c>
       <c r="K620">
         <v>-11.99892472156917</v>
@@ -27278,7 +27278,7 @@
         <v>-6</v>
       </c>
       <c r="J621">
-        <v>18.82523488998413</v>
+        <v>63.3757472038269</v>
       </c>
       <c r="K621">
         <v>-12</v>
@@ -27319,7 +27319,7 @@
         <v>-2.999999298482168</v>
       </c>
       <c r="J622">
-        <v>18.70533299446106</v>
+        <v>65.23783779144287</v>
       </c>
       <c r="K622">
         <v>-8.999999298482168</v>
@@ -27360,7 +27360,7 @@
         <v>-2.999999834909719</v>
       </c>
       <c r="J623">
-        <v>18.78584384918213</v>
+        <v>65.26020288467407</v>
       </c>
       <c r="K623">
         <v>-8.999999834909719</v>
@@ -27401,7 +27401,7 @@
         <v>-6</v>
       </c>
       <c r="J624">
-        <v>18.94972372055054</v>
+        <v>64.68864107131958</v>
       </c>
       <c r="K624">
         <v>-12</v>
@@ -27442,7 +27442,7 @@
         <v>-6</v>
       </c>
       <c r="J625">
-        <v>19.24914312362671</v>
+        <v>65.2208240032196</v>
       </c>
       <c r="K625">
         <v>-12</v>
@@ -27483,7 +27483,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J626">
-        <v>28.28557109832764</v>
+        <v>64.60146403312683</v>
       </c>
       <c r="K626">
         <v>-11.99999999999999</v>
@@ -27524,7 +27524,7 @@
         <v>-6</v>
       </c>
       <c r="J627">
-        <v>20.10434627532959</v>
+        <v>64.48260307312012</v>
       </c>
       <c r="K627">
         <v>-12</v>
@@ -27565,7 +27565,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J628">
-        <v>18.84078812599182</v>
+        <v>55.89800000190735</v>
       </c>
       <c r="K628">
         <v>-12</v>
@@ -27606,7 +27606,7 @@
         <v>-2.999999289085805</v>
       </c>
       <c r="J629">
-        <v>18.74688386917114</v>
+        <v>65.27417898178101</v>
       </c>
       <c r="K629">
         <v>-8.999999289085805</v>
@@ -27647,7 +27647,7 @@
         <v>-6</v>
       </c>
       <c r="J630">
-        <v>18.75699901580811</v>
+        <v>65.40529608726501</v>
       </c>
       <c r="K630">
         <v>-12</v>
@@ -27688,7 +27688,7 @@
         <v>-6</v>
       </c>
       <c r="J631">
-        <v>18.64960479736328</v>
+        <v>65.5624988079071</v>
       </c>
       <c r="K631">
         <v>-12</v>
@@ -27729,7 +27729,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J632">
-        <v>18.56395602226257</v>
+        <v>65.55796313285828</v>
       </c>
       <c r="K632">
         <v>-12.00000000000001</v>
@@ -27770,7 +27770,7 @@
         <v>-6</v>
       </c>
       <c r="J633">
-        <v>18.94626808166504</v>
+        <v>63.39759993553162</v>
       </c>
       <c r="K633">
         <v>-12</v>
@@ -27811,7 +27811,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J634">
-        <v>18.66451001167297</v>
+        <v>65.13681101799011</v>
       </c>
       <c r="K634">
         <v>-12</v>
@@ -27852,7 +27852,7 @@
         <v>-2.999998524344548</v>
       </c>
       <c r="J635">
-        <v>18.74551796913147</v>
+        <v>58.97447085380554</v>
       </c>
       <c r="K635">
         <v>-8.999998524344548</v>
@@ -27893,7 +27893,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J636">
-        <v>18.85500311851501</v>
+        <v>65.60405516624451</v>
       </c>
       <c r="K636">
         <v>-12</v>
@@ -27934,7 +27934,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J637">
-        <v>18.66721606254578</v>
+        <v>60.70316600799561</v>
       </c>
       <c r="K637">
         <v>-12</v>
@@ -27975,7 +27975,7 @@
         <v>-6</v>
       </c>
       <c r="J638">
-        <v>21.32825016975403</v>
+        <v>61.89995527267456</v>
       </c>
       <c r="K638">
         <v>-12</v>
@@ -28016,7 +28016,7 @@
         <v>-6</v>
       </c>
       <c r="J639">
-        <v>19.31875991821289</v>
+        <v>65.62381601333618</v>
       </c>
       <c r="K639">
         <v>-12</v>
@@ -28057,7 +28057,7 @@
         <v>-5.999999972103378</v>
       </c>
       <c r="J640">
-        <v>18.71660900115967</v>
+        <v>64.14285326004028</v>
       </c>
       <c r="K640">
         <v>-11.99999997210338</v>
@@ -28098,7 +28098,7 @@
         <v>-6</v>
       </c>
       <c r="J641">
-        <v>18.84480285644531</v>
+        <v>62.48685622215271</v>
       </c>
       <c r="K641">
         <v>-12</v>
@@ -28139,7 +28139,7 @@
         <v>-6</v>
       </c>
       <c r="J642">
-        <v>23.20639204978943</v>
+        <v>59.84001493453979</v>
       </c>
       <c r="K642">
         <v>-12</v>
@@ -28180,7 +28180,7 @@
         <v>-2.999985852473394</v>
       </c>
       <c r="J643">
-        <v>29.75999999046326</v>
+        <v>65.00890493392944</v>
       </c>
       <c r="K643">
         <v>-8.999985852473394</v>
@@ -28221,7 +28221,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J644">
-        <v>29.5927722454071</v>
+        <v>64.56022810935974</v>
       </c>
       <c r="K644">
         <v>-12.00000000000001</v>
@@ -28262,7 +28262,7 @@
         <v>-3.025862910031123</v>
       </c>
       <c r="J645">
-        <v>19.21266794204712</v>
+        <v>59.82326316833496</v>
       </c>
       <c r="K645">
         <v>-9.025862910031123</v>
@@ -28303,7 +28303,7 @@
         <v>-6</v>
       </c>
       <c r="J646">
-        <v>17.4164559841156</v>
+        <v>65.35001492500305</v>
       </c>
       <c r="K646">
         <v>-12</v>
@@ -28344,7 +28344,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J647">
-        <v>17.35955476760864</v>
+        <v>64.48023986816406</v>
       </c>
       <c r="K647">
         <v>-12</v>
@@ -28385,7 +28385,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J648">
-        <v>18.52086400985718</v>
+        <v>65.52783298492432</v>
       </c>
       <c r="K648">
         <v>-12</v>
@@ -28426,7 +28426,7 @@
         <v>-6</v>
       </c>
       <c r="J649">
-        <v>18.85959696769714</v>
+        <v>57.9696409702301</v>
       </c>
       <c r="K649">
         <v>-12</v>
@@ -28467,7 +28467,7 @@
         <v>-2.999999668122262</v>
       </c>
       <c r="J650">
-        <v>18.54718804359436</v>
+        <v>65.4954891204834</v>
       </c>
       <c r="K650">
         <v>-8.999999668122262</v>
@@ -28508,7 +28508,7 @@
         <v>-2.999999980434475</v>
       </c>
       <c r="J651">
-        <v>18.66287207603455</v>
+        <v>64.47710180282593</v>
       </c>
       <c r="K651">
         <v>-8.999999980434474</v>
@@ -28549,7 +28549,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J652">
-        <v>18.72229790687561</v>
+        <v>63.46897387504578</v>
       </c>
       <c r="K652">
         <v>-12</v>
@@ -28590,7 +28590,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J653">
-        <v>18.63095092773438</v>
+        <v>58.15550518035889</v>
       </c>
       <c r="K653">
         <v>-12</v>
@@ -28631,7 +28631,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J654">
-        <v>18.74272298812866</v>
+        <v>64.44867396354675</v>
       </c>
       <c r="K654">
         <v>-12</v>
@@ -28672,7 +28672,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J655">
-        <v>21.5526909828186</v>
+        <v>61.81177592277527</v>
       </c>
       <c r="K655">
         <v>-11.99999999999999</v>
@@ -28713,7 +28713,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J656">
-        <v>19.98110890388489</v>
+        <v>63.2225239276886</v>
       </c>
       <c r="K656">
         <v>-12.00000000000001</v>
@@ -28754,7 +28754,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J657">
-        <v>18.71676301956177</v>
+        <v>65.44694399833679</v>
       </c>
       <c r="K657">
         <v>-11.99999999999999</v>
@@ -28795,7 +28795,7 @@
         <v>-6</v>
       </c>
       <c r="J658">
-        <v>18.85542893409729</v>
+        <v>62.49895977973938</v>
       </c>
       <c r="K658">
         <v>-12</v>
@@ -28836,7 +28836,7 @@
         <v>-2.999999157703712</v>
       </c>
       <c r="J659">
-        <v>18.66730690002441</v>
+        <v>63.78217506408691</v>
       </c>
       <c r="K659">
         <v>-8.999999157703712</v>
@@ -28877,7 +28877,7 @@
         <v>-6</v>
       </c>
       <c r="J660">
-        <v>18.57109689712524</v>
+        <v>62.77996397018433</v>
       </c>
       <c r="K660">
         <v>-12</v>
@@ -28918,7 +28918,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J661">
-        <v>18.53816509246826</v>
+        <v>64.66635394096375</v>
       </c>
       <c r="K661">
         <v>-12</v>
@@ -28959,7 +28959,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J662">
-        <v>18.89327597618103</v>
+        <v>62.3065869808197</v>
       </c>
       <c r="K662">
         <v>-11.99999999999999</v>
@@ -29000,7 +29000,7 @@
         <v>-6</v>
       </c>
       <c r="J663">
-        <v>18.65667295455933</v>
+        <v>60.86612510681152</v>
       </c>
       <c r="K663">
         <v>-12</v>
@@ -29041,7 +29041,7 @@
         <v>-2.999999647042765</v>
       </c>
       <c r="J664">
-        <v>18.62662076950073</v>
+        <v>64.81036281585693</v>
       </c>
       <c r="K664">
         <v>-8.999999647042765</v>
@@ -29082,7 +29082,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J665">
-        <v>18.67548084259033</v>
+        <v>64.26461005210876</v>
       </c>
       <c r="K665">
         <v>-12</v>
@@ -29123,7 +29123,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J666">
-        <v>18.86903405189514</v>
+        <v>60.45185494422913</v>
       </c>
       <c r="K666">
         <v>-12.00000000000001</v>
@@ -29164,7 +29164,7 @@
         <v>-6</v>
       </c>
       <c r="J667">
-        <v>18.64439511299133</v>
+        <v>64.50473189353943</v>
       </c>
       <c r="K667">
         <v>-12</v>
@@ -29205,7 +29205,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J668">
-        <v>19.13315606117249</v>
+        <v>62.759920835495</v>
       </c>
       <c r="K668">
         <v>-12</v>
@@ -29246,7 +29246,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J669">
-        <v>19.78555989265442</v>
+        <v>65.42656779289246</v>
       </c>
       <c r="K669">
         <v>-12</v>
@@ -29287,7 +29287,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J670">
-        <v>18.83555793762207</v>
+        <v>60.86137199401855</v>
       </c>
       <c r="K670">
         <v>-12</v>
@@ -29328,7 +29328,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J671">
-        <v>18.95665001869202</v>
+        <v>64.9384708404541</v>
       </c>
       <c r="K671">
         <v>-12</v>
@@ -29369,7 +29369,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J672">
-        <v>18.59260630607605</v>
+        <v>64.13674974441528</v>
       </c>
       <c r="K672">
         <v>-11.99999999999999</v>
@@ -29410,7 +29410,7 @@
         <v>-6</v>
       </c>
       <c r="J673">
-        <v>18.54782009124756</v>
+        <v>65.00899910926819</v>
       </c>
       <c r="K673">
         <v>-12</v>
@@ -29451,7 +29451,7 @@
         <v>-2.999999942967956</v>
       </c>
       <c r="J674">
-        <v>18.83443474769592</v>
+        <v>64.47230887413025</v>
       </c>
       <c r="K674">
         <v>-8.999999942967957</v>
@@ -29492,7 +29492,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J675">
-        <v>18.90221786499023</v>
+        <v>63.7544891834259</v>
       </c>
       <c r="K675">
         <v>-12</v>
@@ -29533,7 +29533,7 @@
         <v>-6</v>
       </c>
       <c r="J676">
-        <v>18.64211010932922</v>
+        <v>65.16706323623657</v>
       </c>
       <c r="K676">
         <v>-12</v>
@@ -29574,7 +29574,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J677">
-        <v>18.73823618888855</v>
+        <v>64.65761613845825</v>
       </c>
       <c r="K677">
         <v>-12</v>
@@ -29615,7 +29615,7 @@
         <v>-2.9999999488469</v>
       </c>
       <c r="J678">
-        <v>17.0427360534668</v>
+        <v>65.23968482017517</v>
       </c>
       <c r="K678">
         <v>-8.999999948846899</v>
@@ -29656,7 +29656,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J679">
-        <v>22.68584513664246</v>
+        <v>63.36247324943542</v>
       </c>
       <c r="K679">
         <v>-12</v>
@@ -29697,7 +29697,7 @@
         <v>-6</v>
       </c>
       <c r="J680">
-        <v>31.06746602058411</v>
+        <v>63.70450782775879</v>
       </c>
       <c r="K680">
         <v>-12</v>
@@ -29738,7 +29738,7 @@
         <v>-2.999999771120479</v>
       </c>
       <c r="J681">
-        <v>19.01882791519165</v>
+        <v>59.82705283164978</v>
       </c>
       <c r="K681">
         <v>-8.999999771120478</v>
@@ -29779,7 +29779,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J682">
-        <v>18.01778197288513</v>
+        <v>63.26743674278259</v>
       </c>
       <c r="K682">
         <v>-12</v>
@@ -29820,7 +29820,7 @@
         <v>-6</v>
       </c>
       <c r="J683">
-        <v>17.73642086982727</v>
+        <v>59.87717604637146</v>
       </c>
       <c r="K683">
         <v>-12</v>
@@ -29861,7 +29861,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J684">
-        <v>18.46126890182495</v>
+        <v>60.12927508354187</v>
       </c>
       <c r="K684">
         <v>-11.99999999999999</v>
@@ -29902,7 +29902,7 @@
         <v>-2.999999984511261</v>
       </c>
       <c r="J685">
-        <v>18.59830808639526</v>
+        <v>65.01147603988647</v>
       </c>
       <c r="K685">
         <v>-8.999999984511261</v>
@@ -29943,7 +29943,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J686">
-        <v>18.50943732261658</v>
+        <v>64.74807906150818</v>
       </c>
       <c r="K686">
         <v>-12</v>
@@ -29984,7 +29984,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J687">
-        <v>18.63897013664246</v>
+        <v>65.69312715530396</v>
       </c>
       <c r="K687">
         <v>-12</v>
@@ -30025,7 +30025,7 @@
         <v>-1.999999215245741</v>
       </c>
       <c r="J688">
-        <v>18.86723113059998</v>
+        <v>63.93656802177429</v>
       </c>
       <c r="K688">
         <v>-7.999999215245741</v>
@@ -30066,7 +30066,7 @@
         <v>-6</v>
       </c>
       <c r="J689">
-        <v>18.67805600166321</v>
+        <v>65.47826290130615</v>
       </c>
       <c r="K689">
         <v>-12</v>
@@ -30107,7 +30107,7 @@
         <v>-1.999999084767123</v>
       </c>
       <c r="J690">
-        <v>18.67111277580261</v>
+        <v>65.36792969703674</v>
       </c>
       <c r="K690">
         <v>-7.999999084767123</v>
@@ -30148,7 +30148,7 @@
         <v>-2.999999893792578</v>
       </c>
       <c r="J691">
-        <v>18.54048585891724</v>
+        <v>62.07560229301453</v>
       </c>
       <c r="K691">
         <v>-8.999999893792578</v>
@@ -30189,7 +30189,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J692">
-        <v>18.82668209075928</v>
+        <v>65.23508191108704</v>
       </c>
       <c r="K692">
         <v>-12</v>
@@ -30230,7 +30230,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J693">
-        <v>18.7854368686676</v>
+        <v>62.69932889938354</v>
       </c>
       <c r="K693">
         <v>-12</v>
@@ -30271,7 +30271,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J694">
-        <v>18.76588797569275</v>
+        <v>65.21803712844849</v>
       </c>
       <c r="K694">
         <v>-12</v>
@@ -30312,7 +30312,7 @@
         <v>-2.999999791884164</v>
       </c>
       <c r="J695">
-        <v>18.66471099853516</v>
+        <v>63.03761315345764</v>
       </c>
       <c r="K695">
         <v>-8.999999791884164</v>
@@ -30353,7 +30353,7 @@
         <v>-6</v>
       </c>
       <c r="J696">
-        <v>18.8006808757782</v>
+        <v>61.49664211273193</v>
       </c>
       <c r="K696">
         <v>-12</v>
@@ -30394,7 +30394,7 @@
         <v>-2.999999674305574</v>
       </c>
       <c r="J697">
-        <v>19.05660200119019</v>
+        <v>65.42354083061218</v>
       </c>
       <c r="K697">
         <v>-8.999999674305574</v>
@@ -30435,7 +30435,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J698">
-        <v>18.72021794319153</v>
+        <v>59.15140891075134</v>
       </c>
       <c r="K698">
         <v>-12</v>
@@ -30476,7 +30476,7 @@
         <v>-3.005404327583585</v>
       </c>
       <c r="J699">
-        <v>18.75411319732666</v>
+        <v>65.1723530292511</v>
       </c>
       <c r="K699">
         <v>-9.005404327583584</v>
@@ -30517,7 +30517,7 @@
         <v>-2.999999065246865</v>
       </c>
       <c r="J700">
-        <v>20.31432485580444</v>
+        <v>64.59184598922729</v>
       </c>
       <c r="K700">
         <v>-8.999999065246865</v>
@@ -30558,7 +30558,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J701">
-        <v>19.34642195701599</v>
+        <v>65.32672786712646</v>
       </c>
       <c r="K701">
         <v>-12</v>
@@ -30599,7 +30599,7 @@
         <v>-2.999999809864058</v>
       </c>
       <c r="J702">
-        <v>18.90440487861633</v>
+        <v>64.4045741558075</v>
       </c>
       <c r="K702">
         <v>-8.999999809864057</v>
@@ -30640,7 +30640,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J703">
-        <v>19.63441586494446</v>
+        <v>65.2789351940155</v>
       </c>
       <c r="K703">
         <v>-12</v>
@@ -30681,7 +30681,7 @@
         <v>-2.999999391806717</v>
       </c>
       <c r="J704">
-        <v>21.00396275520325</v>
+        <v>65.08607721328735</v>
       </c>
       <c r="K704">
         <v>-8.999999391806718</v>
@@ -30722,7 +30722,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J705">
-        <v>21.68185496330261</v>
+        <v>64.5902099609375</v>
       </c>
       <c r="K705">
         <v>-12</v>
@@ -30763,7 +30763,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J706">
-        <v>19.50497007369995</v>
+        <v>65.29062294960022</v>
       </c>
       <c r="K706">
         <v>-12</v>
@@ -30804,7 +30804,7 @@
         <v>-6</v>
       </c>
       <c r="J707">
-        <v>17.34099888801575</v>
+        <v>64.25707793235779</v>
       </c>
       <c r="K707">
         <v>-12</v>
@@ -30845,7 +30845,7 @@
         <v>-2.999999933382007</v>
       </c>
       <c r="J708">
-        <v>15.55121827125549</v>
+        <v>65.15949892997742</v>
       </c>
       <c r="K708">
         <v>-8.999999933382007</v>
@@ -30886,7 +30886,7 @@
         <v>-6</v>
       </c>
       <c r="J709">
-        <v>19.20820093154907</v>
+        <v>62.66863226890564</v>
       </c>
       <c r="K709">
         <v>-12</v>
@@ -30927,7 +30927,7 @@
         <v>-6</v>
       </c>
       <c r="J710">
-        <v>18.64526844024658</v>
+        <v>63.23649406433105</v>
       </c>
       <c r="K710">
         <v>-12</v>
@@ -30968,7 +30968,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J711">
-        <v>18.56014800071716</v>
+        <v>65.36926817893982</v>
       </c>
       <c r="K711">
         <v>-11.99999999999999</v>
@@ -31009,7 +31009,7 @@
         <v>-6</v>
       </c>
       <c r="J712">
-        <v>18.74464893341064</v>
+        <v>56.14647388458252</v>
       </c>
       <c r="K712">
         <v>-12</v>
@@ -31050,7 +31050,7 @@
         <v>-6</v>
       </c>
       <c r="J713">
-        <v>18.69889092445374</v>
+        <v>64.35629963874817</v>
       </c>
       <c r="K713">
         <v>-12</v>
@@ -31091,7 +31091,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J714">
-        <v>18.72795009613037</v>
+        <v>64.40029191970825</v>
       </c>
       <c r="K714">
         <v>-12</v>
@@ -31132,7 +31132,7 @@
         <v>-6</v>
       </c>
       <c r="J715">
-        <v>18.79019594192505</v>
+        <v>64.96221113204956</v>
       </c>
       <c r="K715">
         <v>-12</v>
@@ -31173,7 +31173,7 @@
         <v>-2.999999877095981</v>
       </c>
       <c r="J716">
-        <v>19.19980788230896</v>
+        <v>64.5048348903656</v>
       </c>
       <c r="K716">
         <v>-8.999999877095981</v>
@@ -31214,7 +31214,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J717">
-        <v>19.32827591896057</v>
+        <v>58.88437390327454</v>
       </c>
       <c r="K717">
         <v>-12</v>
@@ -31255,7 +31255,7 @@
         <v>-6</v>
       </c>
       <c r="J718">
-        <v>19.04460906982422</v>
+        <v>65.45862817764282</v>
       </c>
       <c r="K718">
         <v>-12</v>
@@ -31296,7 +31296,7 @@
         <v>-6</v>
       </c>
       <c r="J719">
-        <v>18.6826651096344</v>
+        <v>58.78851914405823</v>
       </c>
       <c r="K719">
         <v>-12</v>
@@ -31337,7 +31337,7 @@
         <v>-6</v>
       </c>
       <c r="J720">
-        <v>18.54183125495911</v>
+        <v>65.30182814598083</v>
       </c>
       <c r="K720">
         <v>-12</v>
@@ -31378,7 +31378,7 @@
         <v>-6</v>
       </c>
       <c r="J721">
-        <v>18.7263708114624</v>
+        <v>62.14493632316589</v>
       </c>
       <c r="K721">
         <v>-12</v>
@@ -31419,7 +31419,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J722">
-        <v>18.60682511329651</v>
+        <v>62.82488417625427</v>
       </c>
       <c r="K722">
         <v>-12</v>
@@ -31460,7 +31460,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J723">
-        <v>18.68678712844849</v>
+        <v>64.69651198387146</v>
       </c>
       <c r="K723">
         <v>-12</v>
@@ -31501,7 +31501,7 @@
         <v>-6</v>
       </c>
       <c r="J724">
-        <v>18.69182085990906</v>
+        <v>61.34817314147949</v>
       </c>
       <c r="K724">
         <v>-12</v>
@@ -31542,7 +31542,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J725">
-        <v>18.45669102668762</v>
+        <v>64.59889793395996</v>
       </c>
       <c r="K725">
         <v>-12</v>
@@ -31583,7 +31583,7 @@
         <v>-6</v>
       </c>
       <c r="J726">
-        <v>18.66232490539551</v>
+        <v>64.65817809104919</v>
       </c>
       <c r="K726">
         <v>-12</v>
@@ -31624,7 +31624,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J727">
-        <v>18.67239785194397</v>
+        <v>61.80344128608704</v>
       </c>
       <c r="K727">
         <v>-12</v>
@@ -31665,7 +31665,7 @@
         <v>-2.999999932091376</v>
       </c>
       <c r="J728">
-        <v>18.60291361808777</v>
+        <v>64.19217610359192</v>
       </c>
       <c r="K728">
         <v>-8.999999932091375</v>
@@ -31706,7 +31706,7 @@
         <v>-2.999999948717458</v>
       </c>
       <c r="J729">
-        <v>18.57942414283752</v>
+        <v>65.06623578071594</v>
       </c>
       <c r="K729">
         <v>-8.999999948717457</v>
@@ -31747,7 +31747,7 @@
         <v>-6</v>
       </c>
       <c r="J730">
-        <v>18.69257593154907</v>
+        <v>61.47684788703918</v>
       </c>
       <c r="K730">
         <v>-12</v>
@@ -31788,7 +31788,7 @@
         <v>-1.999998439183129</v>
       </c>
       <c r="J731">
-        <v>20.34035706520081</v>
+        <v>64.95365810394287</v>
       </c>
       <c r="K731">
         <v>-7.999998439183129</v>
@@ -31829,7 +31829,7 @@
         <v>-1.999999724581395</v>
       </c>
       <c r="J732">
-        <v>19.77302622795105</v>
+        <v>59.89736080169678</v>
       </c>
       <c r="K732">
         <v>-7.999999724581395</v>
@@ -31870,7 +31870,7 @@
         <v>-2.999978568302974</v>
       </c>
       <c r="J733">
-        <v>19.20379185676575</v>
+        <v>64.8656530380249</v>
       </c>
       <c r="K733">
         <v>-8.999978568302975</v>
@@ -31911,7 +31911,7 @@
         <v>-2.999999366760047</v>
       </c>
       <c r="J734">
-        <v>18.55757713317871</v>
+        <v>60.4347677230835</v>
       </c>
       <c r="K734">
         <v>-8.999999366760047</v>
@@ -31952,7 +31952,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J735">
-        <v>18.88830804824829</v>
+        <v>64.66851401329041</v>
       </c>
       <c r="K735">
         <v>-12</v>
@@ -31993,7 +31993,7 @@
         <v>-6</v>
       </c>
       <c r="J736">
-        <v>17.36680889129639</v>
+        <v>62.55722784996033</v>
       </c>
       <c r="K736">
         <v>-12</v>
@@ -32034,7 +32034,7 @@
         <v>-6</v>
       </c>
       <c r="J737">
-        <v>18.35165023803711</v>
+        <v>60.14471006393433</v>
       </c>
       <c r="K737">
         <v>-12</v>
@@ -32075,7 +32075,7 @@
         <v>-6</v>
       </c>
       <c r="J738">
-        <v>18.55456304550171</v>
+        <v>64.80772590637207</v>
       </c>
       <c r="K738">
         <v>-12</v>
@@ -32116,7 +32116,7 @@
         <v>-6</v>
       </c>
       <c r="J739">
-        <v>18.46870088577271</v>
+        <v>64.23961496353149</v>
       </c>
       <c r="K739">
         <v>-12</v>
@@ -32157,7 +32157,7 @@
         <v>-6</v>
       </c>
       <c r="J740">
-        <v>18.85289788246155</v>
+        <v>64.8714554309845</v>
       </c>
       <c r="K740">
         <v>-12</v>
@@ -32198,7 +32198,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J741">
-        <v>18.83177924156189</v>
+        <v>64.43781185150146</v>
       </c>
       <c r="K741">
         <v>-12</v>
@@ -32239,7 +32239,7 @@
         <v>-1.999997573100999</v>
       </c>
       <c r="J742">
-        <v>18.81809020042419</v>
+        <v>63.79525232315063</v>
       </c>
       <c r="K742">
         <v>-7.999997573100999</v>
@@ -32280,7 +32280,7 @@
         <v>-6</v>
       </c>
       <c r="J743">
-        <v>18.54830002784729</v>
+        <v>64.48753499984741</v>
       </c>
       <c r="K743">
         <v>-12</v>
@@ -32321,7 +32321,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J744">
-        <v>19.46955680847168</v>
+        <v>64.52815914154053</v>
       </c>
       <c r="K744">
         <v>-12.00000000000001</v>
@@ -32362,7 +32362,7 @@
         <v>-6</v>
       </c>
       <c r="J745">
-        <v>18.80378699302673</v>
+        <v>65.39238905906677</v>
       </c>
       <c r="K745">
         <v>-12</v>
@@ -32403,7 +32403,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J746">
-        <v>18.56072592735291</v>
+        <v>64.46024990081787</v>
       </c>
       <c r="K746">
         <v>-12</v>
@@ -32444,7 +32444,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J747">
-        <v>18.77531599998474</v>
+        <v>65.09320592880249</v>
       </c>
       <c r="K747">
         <v>-12</v>
@@ -32485,7 +32485,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J748">
-        <v>19.39444994926453</v>
+        <v>65.95699381828308</v>
       </c>
       <c r="K748">
         <v>-12</v>
@@ -32526,7 +32526,7 @@
         <v>-6</v>
       </c>
       <c r="J749">
-        <v>19.14327597618103</v>
+        <v>64.46978712081909</v>
       </c>
       <c r="K749">
         <v>-12</v>
@@ -32567,7 +32567,7 @@
         <v>-1.99999982372915</v>
       </c>
       <c r="J750">
-        <v>18.95424199104309</v>
+        <v>64.62060117721558</v>
       </c>
       <c r="K750">
         <v>-7.999999823729151</v>
@@ -32608,7 +32608,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J751">
-        <v>18.65645909309387</v>
+        <v>64.43941211700439</v>
       </c>
       <c r="K751">
         <v>-12</v>
@@ -32649,7 +32649,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J752">
-        <v>18.53058481216431</v>
+        <v>62.51582002639771</v>
       </c>
       <c r="K752">
         <v>-12.00000000000001</v>
@@ -32690,7 +32690,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J753">
-        <v>19.18343496322632</v>
+        <v>64.43451404571533</v>
       </c>
       <c r="K753">
         <v>-12</v>
@@ -32731,7 +32731,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J754">
-        <v>18.71613430976868</v>
+        <v>64.76247191429138</v>
       </c>
       <c r="K754">
         <v>-12</v>
@@ -32772,7 +32772,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J755">
-        <v>18.64605212211609</v>
+        <v>62.29072690010071</v>
       </c>
       <c r="K755">
         <v>-12</v>
@@ -32813,7 +32813,7 @@
         <v>-2.999999661063859</v>
       </c>
       <c r="J756">
-        <v>18.62413907051086</v>
+        <v>64.20162200927734</v>
       </c>
       <c r="K756">
         <v>-8.999999661063859</v>
@@ -32854,7 +32854,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J757">
-        <v>19.28456211090088</v>
+        <v>63.76280903816223</v>
       </c>
       <c r="K757">
         <v>-12</v>
@@ -32895,7 +32895,7 @@
         <v>-6</v>
       </c>
       <c r="J758">
-        <v>19.00954508781433</v>
+        <v>63.36727499961853</v>
       </c>
       <c r="K758">
         <v>-12</v>
@@ -32936,7 +32936,7 @@
         <v>-6</v>
       </c>
       <c r="J759">
-        <v>18.76976609230042</v>
+        <v>65.12367391586304</v>
       </c>
       <c r="K759">
         <v>-12</v>
@@ -32977,7 +32977,7 @@
         <v>-6</v>
       </c>
       <c r="J760">
-        <v>18.70055603981018</v>
+        <v>64.89386200904846</v>
       </c>
       <c r="K760">
         <v>-12</v>
@@ -33018,7 +33018,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J761">
-        <v>18.85462808609009</v>
+        <v>64.75477600097656</v>
       </c>
       <c r="K761">
         <v>-12</v>
@@ -33059,7 +33059,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J762">
-        <v>18.98448204994202</v>
+        <v>65.602383852005</v>
       </c>
       <c r="K762">
         <v>-12</v>
@@ -33100,7 +33100,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J763">
-        <v>18.94701480865479</v>
+        <v>64.32146787643433</v>
       </c>
       <c r="K763">
         <v>-12</v>
@@ -33141,7 +33141,7 @@
         <v>-2.99993670752681</v>
       </c>
       <c r="J764">
-        <v>18.28270411491394</v>
+        <v>65.20864987373352</v>
       </c>
       <c r="K764">
         <v>-8.99993670752681</v>
@@ -33182,7 +33182,7 @@
         <v>-6</v>
       </c>
       <c r="J765">
-        <v>18.80063986778259</v>
+        <v>63.45759606361389</v>
       </c>
       <c r="K765">
         <v>-12</v>
@@ -33223,7 +33223,7 @@
         <v>-6</v>
       </c>
       <c r="J766">
-        <v>18.7268500328064</v>
+        <v>65.22974300384521</v>
       </c>
       <c r="K766">
         <v>-12</v>
@@ -33264,7 +33264,7 @@
         <v>-6</v>
       </c>
       <c r="J767">
-        <v>19.44208288192749</v>
+        <v>65.49893307685852</v>
       </c>
       <c r="K767">
         <v>-12</v>
@@ -33305,7 +33305,7 @@
         <v>-2.999999758398124</v>
       </c>
       <c r="J768">
-        <v>18.67741918563843</v>
+        <v>63.49259614944458</v>
       </c>
       <c r="K768">
         <v>-8.999999758398124</v>
@@ -33346,7 +33346,7 @@
         <v>-2.999999722302707</v>
       </c>
       <c r="J769">
-        <v>18.79821610450745</v>
+        <v>63.08128690719604</v>
       </c>
       <c r="K769">
         <v>-8.999999722302707</v>
@@ -33387,7 +33387,7 @@
         <v>-6</v>
       </c>
       <c r="J770">
-        <v>18.66219305992126</v>
+        <v>64.31057119369507</v>
       </c>
       <c r="K770">
         <v>-12</v>
@@ -33428,7 +33428,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J771">
-        <v>19.09023690223694</v>
+        <v>63.92329883575439</v>
       </c>
       <c r="K771">
         <v>-12</v>
@@ -33469,7 +33469,7 @@
         <v>-2.999999916340638</v>
       </c>
       <c r="J772">
-        <v>18.74195981025696</v>
+        <v>64.64152598381042</v>
       </c>
       <c r="K772">
         <v>-8.999999916340638</v>
@@ -33510,7 +33510,7 @@
         <v>-2.999999956404619</v>
       </c>
       <c r="J773">
-        <v>18.77828574180603</v>
+        <v>65.59072804450989</v>
       </c>
       <c r="K773">
         <v>-8.999999956404618</v>
@@ -33551,7 +33551,7 @@
         <v>-2.999950088239411</v>
       </c>
       <c r="J774">
-        <v>18.72695183753967</v>
+        <v>60.8639280796051</v>
       </c>
       <c r="K774">
         <v>-8.999950088239411</v>
@@ -33592,7 +33592,7 @@
         <v>-6</v>
       </c>
       <c r="J775">
-        <v>22.20157885551453</v>
+        <v>65.00795912742615</v>
       </c>
       <c r="K775">
         <v>-12</v>
@@ -33633,7 +33633,7 @@
         <v>-2.999999998727582</v>
       </c>
       <c r="J776">
-        <v>18.69974803924561</v>
+        <v>65.58449697494507</v>
       </c>
       <c r="K776">
         <v>-8.999999998727581</v>
@@ -33674,7 +33674,7 @@
         <v>-2.999999771714835</v>
       </c>
       <c r="J777">
-        <v>18.66885089874268</v>
+        <v>64.02343916893005</v>
       </c>
       <c r="K777">
         <v>-8.999999771714835</v>
@@ -33715,7 +33715,7 @@
         <v>-5.99999969448186</v>
       </c>
       <c r="J778">
-        <v>18.63359308242798</v>
+        <v>65.31092476844788</v>
       </c>
       <c r="K778">
         <v>-11.99999969448186</v>
@@ -33756,7 +33756,7 @@
         <v>-2.999999142955521</v>
       </c>
       <c r="J779">
-        <v>18.7700469493866</v>
+        <v>65.28545594215393</v>
       </c>
       <c r="K779">
         <v>-8.99999914295552</v>
@@ -33797,7 +33797,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J780">
-        <v>18.64286589622498</v>
+        <v>58.18156909942627</v>
       </c>
       <c r="K780">
         <v>-12</v>
@@ -33838,7 +33838,7 @@
         <v>-6</v>
       </c>
       <c r="J781">
-        <v>18.70070314407349</v>
+        <v>65.17910194396973</v>
       </c>
       <c r="K781">
         <v>-12</v>
@@ -33879,7 +33879,7 @@
         <v>-2.999999807925655</v>
       </c>
       <c r="J782">
-        <v>18.81938600540161</v>
+        <v>64.27891111373901</v>
       </c>
       <c r="K782">
         <v>-8.999999807925654</v>
@@ -33920,7 +33920,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J783">
-        <v>18.76007509231567</v>
+        <v>61.03295993804932</v>
       </c>
       <c r="K783">
         <v>-12</v>
@@ -33961,7 +33961,7 @@
         <v>-2.999999099237871</v>
       </c>
       <c r="J784">
-        <v>19.29342198371887</v>
+        <v>64.20030808448792</v>
       </c>
       <c r="K784">
         <v>-8.99999909923787</v>
@@ -34002,7 +34002,7 @@
         <v>-2.003936409382773</v>
       </c>
       <c r="J785">
-        <v>18.78741097450256</v>
+        <v>63.60366368293762</v>
       </c>
       <c r="K785">
         <v>-8.003936409382773</v>
@@ -34043,7 +34043,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J786">
-        <v>18.6551947593689</v>
+        <v>64.46301603317261</v>
       </c>
       <c r="K786">
         <v>-12</v>
@@ -34084,7 +34084,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J787">
-        <v>18.87425899505615</v>
+        <v>65.47947287559509</v>
       </c>
       <c r="K787">
         <v>-12</v>
@@ -34125,7 +34125,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J788">
-        <v>18.59434700012207</v>
+        <v>65.29755187034607</v>
       </c>
       <c r="K788">
         <v>-12</v>
@@ -34166,7 +34166,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J789">
-        <v>18.96085596084595</v>
+        <v>63.24626612663269</v>
       </c>
       <c r="K789">
         <v>-12.00000000000001</v>
@@ -34207,7 +34207,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J790">
-        <v>18.79269981384277</v>
+        <v>65.43359112739563</v>
       </c>
       <c r="K790">
         <v>-12</v>
@@ -34248,7 +34248,7 @@
         <v>-6</v>
       </c>
       <c r="J791">
-        <v>18.77028894424438</v>
+        <v>60.16664505004883</v>
       </c>
       <c r="K791">
         <v>-12</v>
@@ -34289,7 +34289,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J792">
-        <v>18.57451009750366</v>
+        <v>65.57474708557129</v>
       </c>
       <c r="K792">
         <v>-12</v>
@@ -34330,7 +34330,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J793">
-        <v>17.95341205596924</v>
+        <v>55.95416498184204</v>
       </c>
       <c r="K793">
         <v>-12.00000000000001</v>
@@ -34371,7 +34371,7 @@
         <v>-6</v>
       </c>
       <c r="J794">
-        <v>16.54286813735962</v>
+        <v>62.76747107505798</v>
       </c>
       <c r="K794">
         <v>-12</v>
@@ -34412,7 +34412,7 @@
         <v>-6</v>
       </c>
       <c r="J795">
-        <v>18.24356198310852</v>
+        <v>64.40546894073486</v>
       </c>
       <c r="K795">
         <v>-12</v>
@@ -34453,7 +34453,7 @@
         <v>-6</v>
       </c>
       <c r="J796">
-        <v>16.6418399810791</v>
+        <v>65.34019303321838</v>
       </c>
       <c r="K796">
         <v>-12</v>
@@ -34494,7 +34494,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J797">
-        <v>16.25234508514404</v>
+        <v>61.80455589294434</v>
       </c>
       <c r="K797">
         <v>-12</v>
@@ -34535,7 +34535,7 @@
         <v>-6</v>
       </c>
       <c r="J798">
-        <v>16.56224012374878</v>
+        <v>53.63354277610779</v>
       </c>
       <c r="K798">
         <v>-12</v>
@@ -34576,7 +34576,7 @@
         <v>-6</v>
       </c>
       <c r="J799">
-        <v>16.46703195571899</v>
+        <v>53.59001874923706</v>
       </c>
       <c r="K799">
         <v>-12</v>
@@ -34617,7 +34617,7 @@
         <v>-2.999999863371664</v>
       </c>
       <c r="J800">
-        <v>17.83934283256531</v>
+        <v>52.96693992614746</v>
       </c>
       <c r="K800">
         <v>-8.999999863371663</v>
@@ -34658,7 +34658,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J801">
-        <v>18.24176812171936</v>
+        <v>52.0702440738678</v>
       </c>
       <c r="K801">
         <v>-12</v>
@@ -34699,7 +34699,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J802">
-        <v>16.95544195175171</v>
+        <v>53.17065978050232</v>
       </c>
       <c r="K802">
         <v>-12</v>
@@ -34740,7 +34740,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J803">
-        <v>16.40367794036865</v>
+        <v>51.91283082962036</v>
       </c>
       <c r="K803">
         <v>-12</v>
@@ -34781,7 +34781,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J804">
-        <v>16.86639785766602</v>
+        <v>52.7179799079895</v>
       </c>
       <c r="K804">
         <v>-12</v>
@@ -34822,7 +34822,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J805">
-        <v>16.4788920879364</v>
+        <v>52.51610779762268</v>
       </c>
       <c r="K805">
         <v>-12</v>
@@ -34863,7 +34863,7 @@
         <v>-6</v>
       </c>
       <c r="J806">
-        <v>16.38072204589844</v>
+        <v>53.1152560710907</v>
       </c>
       <c r="K806">
         <v>-12</v>
@@ -34904,7 +34904,7 @@
         <v>-1.999999467490604</v>
       </c>
       <c r="J807">
-        <v>16.29960083961487</v>
+        <v>52.16404509544373</v>
       </c>
       <c r="K807">
         <v>-7.999999467490604</v>
@@ -34945,7 +34945,7 @@
         <v>-6</v>
       </c>
       <c r="J808">
-        <v>16.98424291610718</v>
+        <v>52.30679607391357</v>
       </c>
       <c r="K808">
         <v>-12</v>
@@ -34986,7 +34986,7 @@
         <v>-6</v>
       </c>
       <c r="J809">
-        <v>16.58171010017395</v>
+        <v>52.04391002655029</v>
       </c>
       <c r="K809">
         <v>-12</v>
@@ -35027,7 +35027,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J810">
-        <v>16.60759496688843</v>
+        <v>52.92487096786499</v>
       </c>
       <c r="K810">
         <v>-12</v>
@@ -35068,7 +35068,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J811">
-        <v>17.61463928222656</v>
+        <v>51.91773390769958</v>
       </c>
       <c r="K811">
         <v>-12</v>
@@ -35109,7 +35109,7 @@
         <v>-6</v>
       </c>
       <c r="J812">
-        <v>18.90701103210449</v>
+        <v>52.76857304573059</v>
       </c>
       <c r="K812">
         <v>-12</v>
@@ -35150,7 +35150,7 @@
         <v>-6</v>
       </c>
       <c r="J813">
-        <v>16.39769601821899</v>
+        <v>51.67152309417725</v>
       </c>
       <c r="K813">
         <v>-12</v>
@@ -35191,7 +35191,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J814">
-        <v>16.30974411964417</v>
+        <v>53.0567319393158</v>
       </c>
       <c r="K814">
         <v>-12</v>
@@ -35232,7 +35232,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J815">
-        <v>16.33815693855286</v>
+        <v>52.49261021614075</v>
       </c>
       <c r="K815">
         <v>-12</v>
@@ -35273,7 +35273,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J816">
-        <v>16.44250416755676</v>
+        <v>51.85905480384827</v>
       </c>
       <c r="K816">
         <v>-12</v>
@@ -35314,7 +35314,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J817">
-        <v>16.3760039806366</v>
+        <v>52.86149501800537</v>
       </c>
       <c r="K817">
         <v>-12</v>
@@ -35355,7 +35355,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J818">
-        <v>16.37993502616882</v>
+        <v>51.87469792366028</v>
       </c>
       <c r="K818">
         <v>-12</v>
@@ -35396,7 +35396,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J819">
-        <v>16.4683940410614</v>
+        <v>52.82489418983459</v>
       </c>
       <c r="K819">
         <v>-12</v>
@@ -35437,7 +35437,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J820">
-        <v>16.54254913330078</v>
+        <v>52.17060470581055</v>
       </c>
       <c r="K820">
         <v>-12</v>
@@ -35478,7 +35478,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J821">
-        <v>16.33289885520935</v>
+        <v>52.94022607803345</v>
       </c>
       <c r="K821">
         <v>-11.99999999999999</v>
@@ -35519,7 +35519,7 @@
         <v>-2.999998478376787</v>
       </c>
       <c r="J822">
-        <v>16.68997406959534</v>
+        <v>52.21152687072754</v>
       </c>
       <c r="K822">
         <v>-8.999998478376787</v>
@@ -35560,7 +35560,7 @@
         <v>-5.999999999999846</v>
       </c>
       <c r="J823">
-        <v>16.47270083427429</v>
+        <v>52.84487390518188</v>
       </c>
       <c r="K823">
         <v>-11.99999999999985</v>
@@ -35601,7 +35601,7 @@
         <v>-6</v>
       </c>
       <c r="J824">
-        <v>16.44252800941467</v>
+        <v>51.94851684570312</v>
       </c>
       <c r="K824">
         <v>-12</v>
@@ -35642,7 +35642,7 @@
         <v>-6</v>
       </c>
       <c r="J825">
-        <v>16.52584910392761</v>
+        <v>52.85802221298218</v>
       </c>
       <c r="K825">
         <v>-12</v>
@@ -35683,7 +35683,7 @@
         <v>-6</v>
       </c>
       <c r="J826">
-        <v>16.5023500919342</v>
+        <v>51.92748785018921</v>
       </c>
       <c r="K826">
         <v>-12</v>
@@ -35724,7 +35724,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J827">
-        <v>16.28000283241272</v>
+        <v>52.4052848815918</v>
       </c>
       <c r="K827">
         <v>-12</v>
@@ -35765,7 +35765,7 @@
         <v>-1.99999943237343</v>
       </c>
       <c r="J828">
-        <v>16.64164686203003</v>
+        <v>50.4626739025116</v>
       </c>
       <c r="K828">
         <v>-7.99999943237343</v>
@@ -35806,7 +35806,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J829">
-        <v>16.45580577850342</v>
+        <v>50.40811419487</v>
       </c>
       <c r="K829">
         <v>-12.00000000000001</v>
@@ -35847,7 +35847,7 @@
         <v>-1.999999956478938</v>
       </c>
       <c r="J830">
-        <v>19.67991399765015</v>
+        <v>52.5694408416748</v>
       </c>
       <c r="K830">
         <v>-7.999999956478938</v>
@@ -35888,7 +35888,7 @@
         <v>-6</v>
       </c>
       <c r="J831">
-        <v>19.36380171775818</v>
+        <v>51.69016599655151</v>
       </c>
       <c r="K831">
         <v>-12</v>
@@ -35929,7 +35929,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J832">
-        <v>17.13868165016174</v>
+        <v>52.9243369102478</v>
       </c>
       <c r="K832">
         <v>-12</v>
@@ -35970,7 +35970,7 @@
         <v>-2.999999369748664</v>
       </c>
       <c r="J833">
-        <v>20.3459198474884</v>
+        <v>52.06059885025024</v>
       </c>
       <c r="K833">
         <v>-8.999999369748664</v>
@@ -36011,7 +36011,7 @@
         <v>-6</v>
       </c>
       <c r="J834">
-        <v>20.5174126625061</v>
+        <v>53.07705879211426</v>
       </c>
       <c r="K834">
         <v>-12</v>
@@ -36052,7 +36052,7 @@
         <v>-1.999999467472281</v>
       </c>
       <c r="J835">
-        <v>18.74242997169495</v>
+        <v>46.65484118461609</v>
       </c>
       <c r="K835">
         <v>-7.999999467472281</v>
@@ -36093,7 +36093,7 @@
         <v>-6</v>
       </c>
       <c r="J836">
-        <v>19.93619990348816</v>
+        <v>52.19603085517883</v>
       </c>
       <c r="K836">
         <v>-12</v>
@@ -36134,7 +36134,7 @@
         <v>-1.99998845448637</v>
       </c>
       <c r="J837">
-        <v>23.05006313323975</v>
+        <v>49.68125796318054</v>
       </c>
       <c r="K837">
         <v>-7.99998845448637</v>
@@ -36175,7 +36175,7 @@
         <v>-6</v>
       </c>
       <c r="J838">
-        <v>16.57882714271545</v>
+        <v>53.21223497390747</v>
       </c>
       <c r="K838">
         <v>-12</v>
@@ -36216,7 +36216,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J839">
-        <v>16.33735680580139</v>
+        <v>51.57067394256592</v>
       </c>
       <c r="K839">
         <v>-12</v>
@@ -36257,7 +36257,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J840">
-        <v>16.40494203567505</v>
+        <v>52.34493803977966</v>
       </c>
       <c r="K840">
         <v>-12</v>
@@ -36298,7 +36298,7 @@
         <v>-6</v>
       </c>
       <c r="J841">
-        <v>16.73201704025269</v>
+        <v>39.03917813301086</v>
       </c>
       <c r="K841">
         <v>-12</v>
@@ -36339,7 +36339,7 @@
         <v>-2.9999997012819</v>
       </c>
       <c r="J842">
-        <v>16.53964018821716</v>
+        <v>57.8620080947876</v>
       </c>
       <c r="K842">
         <v>-8.999999701281901</v>
@@ -36380,7 +36380,7 @@
         <v>-2.999999931432066</v>
       </c>
       <c r="J843">
-        <v>21.34186410903931</v>
+        <v>56.60025882720947</v>
       </c>
       <c r="K843">
         <v>-8.999999931432065</v>
@@ -36421,7 +36421,7 @@
         <v>-1.999999951080689</v>
       </c>
       <c r="J844">
-        <v>17.82082891464233</v>
+        <v>56.20675683021545</v>
       </c>
       <c r="K844">
         <v>-7.999999951080689</v>
@@ -36462,7 +36462,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J845">
-        <v>21.58224511146545</v>
+        <v>56.62034010887146</v>
       </c>
       <c r="K845">
         <v>-12</v>
@@ -36503,7 +36503,7 @@
         <v>-6</v>
       </c>
       <c r="J846">
-        <v>17.55443906784058</v>
+        <v>52.38024282455444</v>
       </c>
       <c r="K846">
         <v>-12</v>
@@ -36544,7 +36544,7 @@
         <v>-1.999998276870626</v>
       </c>
       <c r="J847">
-        <v>17.37925505638123</v>
+        <v>57.00745224952698</v>
       </c>
       <c r="K847">
         <v>-7.999998276870626</v>
@@ -36585,7 +36585,7 @@
         <v>-6</v>
       </c>
       <c r="J848">
-        <v>20.74142789840698</v>
+        <v>54.67179799079895</v>
       </c>
       <c r="K848">
         <v>-12</v>
@@ -36626,7 +36626,7 @@
         <v>-6</v>
       </c>
       <c r="J849">
-        <v>17.40359616279602</v>
+        <v>57.92473292350769</v>
       </c>
       <c r="K849">
         <v>-12</v>
@@ -36667,7 +36667,7 @@
         <v>-6</v>
       </c>
       <c r="J850">
-        <v>19.61212706565857</v>
+        <v>59.75535297393799</v>
       </c>
       <c r="K850">
         <v>-12</v>
@@ -36708,7 +36708,7 @@
         <v>-6</v>
       </c>
       <c r="J851">
-        <v>18.11924695968628</v>
+        <v>57.85190796852112</v>
       </c>
       <c r="K851">
         <v>-12</v>
@@ -36749,7 +36749,7 @@
         <v>-6</v>
       </c>
       <c r="J852">
-        <v>16.45450496673584</v>
+        <v>58.55299997329712</v>
       </c>
       <c r="K852">
         <v>-12</v>
@@ -36790,7 +36790,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J853">
-        <v>17.49201321601868</v>
+        <v>56.9088408946991</v>
       </c>
       <c r="K853">
         <v>-12</v>
@@ -36831,7 +36831,7 @@
         <v>-6</v>
       </c>
       <c r="J854">
-        <v>20.3926420211792</v>
+        <v>52.30180096626282</v>
       </c>
       <c r="K854">
         <v>-12</v>
@@ -36872,7 +36872,7 @@
         <v>-6</v>
       </c>
       <c r="J855">
-        <v>18.00232911109924</v>
+        <v>58.39095401763916</v>
       </c>
       <c r="K855">
         <v>-12</v>
@@ -36913,7 +36913,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J856">
-        <v>16.44205498695374</v>
+        <v>55.98852801322937</v>
       </c>
       <c r="K856">
         <v>-12</v>
@@ -36954,7 +36954,7 @@
         <v>-6</v>
       </c>
       <c r="J857">
-        <v>16.31555008888245</v>
+        <v>56.27795195579529</v>
       </c>
       <c r="K857">
         <v>-12</v>
@@ -36995,7 +36995,7 @@
         <v>-6</v>
       </c>
       <c r="J858">
-        <v>16.51646065711975</v>
+        <v>55.8354959487915</v>
       </c>
       <c r="K858">
         <v>-12</v>
@@ -37036,7 +37036,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J859">
-        <v>16.61538696289062</v>
+        <v>54.46551704406738</v>
       </c>
       <c r="K859">
         <v>-12</v>
@@ -37077,7 +37077,7 @@
         <v>-6</v>
       </c>
       <c r="J860">
-        <v>16.54063701629639</v>
+        <v>53.99372792243958</v>
       </c>
       <c r="K860">
         <v>-12</v>
@@ -37118,7 +37118,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J861">
-        <v>16.48509311676025</v>
+        <v>57.44208216667175</v>
       </c>
       <c r="K861">
         <v>-12</v>
@@ -37159,7 +37159,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J862">
-        <v>16.82025980949402</v>
+        <v>53.16377115249634</v>
       </c>
       <c r="K862">
         <v>-12</v>
@@ -37200,7 +37200,7 @@
         <v>-6</v>
       </c>
       <c r="J863">
-        <v>16.65175294876099</v>
+        <v>54.96401405334473</v>
       </c>
       <c r="K863">
         <v>-12</v>
@@ -37241,7 +37241,7 @@
         <v>-6</v>
       </c>
       <c r="J864">
-        <v>17.6892421245575</v>
+        <v>54.81724882125854</v>
       </c>
       <c r="K864">
         <v>-12</v>
@@ -37282,7 +37282,7 @@
         <v>-3.332110354033985</v>
       </c>
       <c r="J865">
-        <v>16.56263995170593</v>
+        <v>51.33372020721436</v>
       </c>
       <c r="K865">
         <v>-9.332110354033986</v>
@@ -37323,7 +37323,7 @@
         <v>-2.999998902377404</v>
       </c>
       <c r="J866">
-        <v>16.50459909439087</v>
+        <v>52.6037929058075</v>
       </c>
       <c r="K866">
         <v>-8.999998902377405</v>
@@ -37364,7 +37364,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J867">
-        <v>16.53149628639221</v>
+        <v>56.21750402450562</v>
       </c>
       <c r="K867">
         <v>-12</v>
@@ -37405,7 +37405,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J868">
-        <v>18.42157912254333</v>
+        <v>53.71679186820984</v>
       </c>
       <c r="K868">
         <v>-12</v>
@@ -37446,7 +37446,7 @@
         <v>-2.999999797830745</v>
       </c>
       <c r="J869">
-        <v>16.6756329536438</v>
+        <v>52.00530195236206</v>
       </c>
       <c r="K869">
         <v>-8.999999797830744</v>
@@ -37487,7 +37487,7 @@
         <v>-6</v>
       </c>
       <c r="J870">
-        <v>16.42276978492737</v>
+        <v>57.06027221679688</v>
       </c>
       <c r="K870">
         <v>-12</v>
@@ -37528,7 +37528,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J871">
-        <v>16.70074486732483</v>
+        <v>54.17056465148926</v>
       </c>
       <c r="K871">
         <v>-12</v>
@@ -37569,7 +37569,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J872">
-        <v>17.43677687644958</v>
+        <v>56.82304191589355</v>
       </c>
       <c r="K872">
         <v>-12</v>
@@ -37610,7 +37610,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J873">
-        <v>16.40267872810364</v>
+        <v>56.18410611152649</v>
       </c>
       <c r="K873">
         <v>-12</v>
@@ -37651,7 +37651,7 @@
         <v>-6</v>
       </c>
       <c r="J874">
-        <v>16.54929280281067</v>
+        <v>56.27800488471985</v>
       </c>
       <c r="K874">
         <v>-12</v>
@@ -37692,7 +37692,7 @@
         <v>-2.999999048043145</v>
       </c>
       <c r="J875">
-        <v>16.45173478126526</v>
+        <v>55.3633599281311</v>
       </c>
       <c r="K875">
         <v>-8.999999048043145</v>
@@ -37733,7 +37733,7 @@
         <v>-2.999999743213423</v>
       </c>
       <c r="J876">
-        <v>16.39728617668152</v>
+        <v>54.47903418540955</v>
       </c>
       <c r="K876">
         <v>-8.999999743213422</v>
@@ -37774,7 +37774,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J877">
-        <v>16.78562998771667</v>
+        <v>55.35764503479004</v>
       </c>
       <c r="K877">
         <v>-11.99999999999999</v>
@@ -37815,7 +37815,7 @@
         <v>-6</v>
       </c>
       <c r="J878">
-        <v>16.33420968055725</v>
+        <v>58.07011985778809</v>
       </c>
       <c r="K878">
         <v>-12</v>
@@ -37856,7 +37856,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J879">
-        <v>16.6525661945343</v>
+        <v>57.86332702636719</v>
       </c>
       <c r="K879">
         <v>-12</v>
@@ -37897,7 +37897,7 @@
         <v>-2.999993227951078</v>
       </c>
       <c r="J880">
-        <v>17.3187792301178</v>
+        <v>57.00210118293762</v>
       </c>
       <c r="K880">
         <v>-8.999993227951078</v>
@@ -37938,7 +37938,7 @@
         <v>-6</v>
       </c>
       <c r="J881">
-        <v>16.50472497940063</v>
+        <v>58.87198185920715</v>
       </c>
       <c r="K881">
         <v>-12</v>
@@ -37979,7 +37979,7 @@
         <v>-2.99999976983589</v>
       </c>
       <c r="J882">
-        <v>17.19750714302063</v>
+        <v>55.57266879081726</v>
       </c>
       <c r="K882">
         <v>-8.99999976983589</v>
@@ -38020,7 +38020,7 @@
         <v>-2.999999827345759</v>
       </c>
       <c r="J883">
-        <v>16.60526323318481</v>
+        <v>51.10910415649414</v>
       </c>
       <c r="K883">
         <v>-8.999999827345759</v>
@@ -38061,7 +38061,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J884">
-        <v>16.35168814659119</v>
+        <v>57.86168098449707</v>
       </c>
       <c r="K884">
         <v>-12</v>
@@ -38102,7 +38102,7 @@
         <v>-6</v>
       </c>
       <c r="J885">
-        <v>16.59027886390686</v>
+        <v>58.00243020057678</v>
       </c>
       <c r="K885">
         <v>-12</v>
@@ -38143,7 +38143,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J886">
-        <v>16.46958899497986</v>
+        <v>57.37700390815735</v>
       </c>
       <c r="K886">
         <v>-12</v>
@@ -38184,7 +38184,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J887">
-        <v>16.67204689979553</v>
+        <v>57.36115097999573</v>
       </c>
       <c r="K887">
         <v>-12</v>
@@ -38225,7 +38225,7 @@
         <v>-6</v>
       </c>
       <c r="J888">
-        <v>17.2894492149353</v>
+        <v>55.17712211608887</v>
       </c>
       <c r="K888">
         <v>-12</v>
@@ -38266,7 +38266,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J889">
-        <v>16.94863986968994</v>
+        <v>54.38626098632812</v>
       </c>
       <c r="K889">
         <v>-12</v>
@@ -38307,7 +38307,7 @@
         <v>-6</v>
       </c>
       <c r="J890">
-        <v>16.43539714813232</v>
+        <v>55.56567406654358</v>
       </c>
       <c r="K890">
         <v>-12</v>
@@ -38348,7 +38348,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J891">
-        <v>16.8167450428009</v>
+        <v>58.19756007194519</v>
       </c>
       <c r="K891">
         <v>-12</v>
@@ -38389,7 +38389,7 @@
         <v>-1.999999342806473</v>
       </c>
       <c r="J892">
-        <v>16.95803499221802</v>
+        <v>50.74337387084961</v>
       </c>
       <c r="K892">
         <v>-7.999999342806473</v>
@@ -38430,7 +38430,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J893">
-        <v>16.95323586463928</v>
+        <v>52.23236036300659</v>
       </c>
       <c r="K893">
         <v>-12</v>
@@ -38471,7 +38471,7 @@
         <v>-6</v>
       </c>
       <c r="J894">
-        <v>17.14632391929626</v>
+        <v>51.07899188995361</v>
       </c>
       <c r="K894">
         <v>-12</v>
@@ -38512,7 +38512,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J895">
-        <v>20.52464628219604</v>
+        <v>55.54597783088684</v>
       </c>
       <c r="K895">
         <v>-12.00000000000001</v>
@@ -38553,7 +38553,7 @@
         <v>-3.000038598299568</v>
       </c>
       <c r="J896">
-        <v>17.60556793212891</v>
+        <v>53.99532008171082</v>
       </c>
       <c r="K896">
         <v>-9.000038598299568</v>
@@ -38594,7 +38594,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J897">
-        <v>18.06099677085876</v>
+        <v>46.91917371749878</v>
       </c>
       <c r="K897">
         <v>-12</v>
@@ -38635,7 +38635,7 @@
         <v>-6</v>
       </c>
       <c r="J898">
-        <v>16.79300689697266</v>
+        <v>54.25590395927429</v>
       </c>
       <c r="K898">
         <v>-12</v>
@@ -38676,7 +38676,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J899">
-        <v>18.56612205505371</v>
+        <v>55.75928401947021</v>
       </c>
       <c r="K899">
         <v>-12</v>
@@ -38717,7 +38717,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J900">
-        <v>16.86424708366394</v>
+        <v>55.64370083808899</v>
       </c>
       <c r="K900">
         <v>-11.99999999999999</v>
@@ -38758,7 +38758,7 @@
         <v>-2.999999826941986</v>
       </c>
       <c r="J901">
-        <v>17.09571576118469</v>
+        <v>55.85251688957214</v>
       </c>
       <c r="K901">
         <v>-8.999999826941986</v>
@@ -38799,7 +38799,7 @@
         <v>-6</v>
       </c>
       <c r="J902">
-        <v>17.02027893066406</v>
+        <v>56.92822289466858</v>
       </c>
       <c r="K902">
         <v>-12</v>
@@ -38840,7 +38840,7 @@
         <v>-6</v>
       </c>
       <c r="J903">
-        <v>17.15292572975159</v>
+        <v>55.92554593086243</v>
       </c>
       <c r="K903">
         <v>-12</v>
@@ -38881,7 +38881,7 @@
         <v>-6</v>
       </c>
       <c r="J904">
-        <v>17.28686213493347</v>
+        <v>56.35628080368042</v>
       </c>
       <c r="K904">
         <v>-12</v>
@@ -38922,7 +38922,7 @@
         <v>-6</v>
       </c>
       <c r="J905">
-        <v>17.06115508079529</v>
+        <v>55.30779385566711</v>
       </c>
       <c r="K905">
         <v>-12</v>
@@ -38963,7 +38963,7 @@
         <v>-6</v>
       </c>
       <c r="J906">
-        <v>18.01365303993225</v>
+        <v>56.02849626541138</v>
       </c>
       <c r="K906">
         <v>-12</v>
@@ -39004,7 +39004,7 @@
         <v>-6</v>
       </c>
       <c r="J907">
-        <v>16.88676714897156</v>
+        <v>56.28142786026001</v>
       </c>
       <c r="K907">
         <v>-12</v>
@@ -39045,7 +39045,7 @@
         <v>-5.999999999950198</v>
       </c>
       <c r="J908">
-        <v>17.38006401062012</v>
+        <v>56.28086709976196</v>
       </c>
       <c r="K908">
         <v>-11.9999999999502</v>
@@ -39086,7 +39086,7 @@
         <v>-6</v>
       </c>
       <c r="J909">
-        <v>16.65200090408325</v>
+        <v>55.95884227752686</v>
       </c>
       <c r="K909">
         <v>-12</v>
@@ -39127,7 +39127,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J910">
-        <v>18.89427423477173</v>
+        <v>56.28847098350525</v>
       </c>
       <c r="K910">
         <v>-12</v>
@@ -39168,7 +39168,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J911">
-        <v>18.67465686798096</v>
+        <v>55.29708385467529</v>
       </c>
       <c r="K911">
         <v>-12</v>
@@ -39209,7 +39209,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J912">
-        <v>16.94730496406555</v>
+        <v>51.98131990432739</v>
       </c>
       <c r="K912">
         <v>-12</v>
@@ -39250,7 +39250,7 @@
         <v>-6</v>
       </c>
       <c r="J913">
-        <v>16.55562686920166</v>
+        <v>53.32273983955383</v>
       </c>
       <c r="K913">
         <v>-12</v>
@@ -39291,7 +39291,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J914">
-        <v>16.58505296707153</v>
+        <v>56.04980802536011</v>
       </c>
       <c r="K914">
         <v>-12</v>
@@ -39332,7 +39332,7 @@
         <v>-2.999999966330765</v>
       </c>
       <c r="J915">
-        <v>16.98196482658386</v>
+        <v>58.62029194831848</v>
       </c>
       <c r="K915">
         <v>-8.999999966330765</v>
@@ -39373,7 +39373,7 @@
         <v>-6</v>
       </c>
       <c r="J916">
-        <v>16.57577323913574</v>
+        <v>59.48189306259155</v>
       </c>
       <c r="K916">
         <v>-12</v>
@@ -39414,7 +39414,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J917">
-        <v>18.23623394966125</v>
+        <v>59.00313305854797</v>
       </c>
       <c r="K917">
         <v>-12</v>
@@ -39455,7 +39455,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J918">
-        <v>20.14998698234558</v>
+        <v>53.33492517471313</v>
       </c>
       <c r="K918">
         <v>-12</v>
@@ -39496,7 +39496,7 @@
         <v>-6</v>
       </c>
       <c r="J919">
-        <v>17.92777705192566</v>
+        <v>57.55338215827942</v>
       </c>
       <c r="K919">
         <v>-12</v>
@@ -39537,7 +39537,7 @@
         <v>-6</v>
       </c>
       <c r="J920">
-        <v>18.5861918926239</v>
+        <v>54.27100706100464</v>
       </c>
       <c r="K920">
         <v>-12</v>
@@ -39578,7 +39578,7 @@
         <v>-6</v>
       </c>
       <c r="J921">
-        <v>18.19101715087891</v>
+        <v>59.25107002258301</v>
       </c>
       <c r="K921">
         <v>-12</v>
@@ -39619,7 +39619,7 @@
         <v>-6</v>
       </c>
       <c r="J922">
-        <v>17.53131175041199</v>
+        <v>62.49593901634216</v>
       </c>
       <c r="K922">
         <v>-12</v>
@@ -39660,7 +39660,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J923">
-        <v>16.97178220748901</v>
+        <v>50.70196771621704</v>
       </c>
       <c r="K923">
         <v>-12</v>
@@ -39701,7 +39701,7 @@
         <v>-2.999999771602267</v>
       </c>
       <c r="J924">
-        <v>16.57380604743958</v>
+        <v>52.60931611061096</v>
       </c>
       <c r="K924">
         <v>-8.999999771602267</v>
@@ -39742,7 +39742,7 @@
         <v>-6</v>
       </c>
       <c r="J925">
-        <v>16.54920077323914</v>
+        <v>56.23970890045166</v>
       </c>
       <c r="K925">
         <v>-12</v>
@@ -39783,7 +39783,7 @@
         <v>-2.999998635855655</v>
       </c>
       <c r="J926">
-        <v>17.09797596931458</v>
+        <v>40.26663327217102</v>
       </c>
       <c r="K926">
         <v>-8.999998635855654</v>
@@ -39824,7 +39824,7 @@
         <v>-6</v>
       </c>
       <c r="J927">
-        <v>19.18326497077942</v>
+        <v>60.90808510780334</v>
       </c>
       <c r="K927">
         <v>-12</v>
@@ -39865,7 +39865,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J928">
-        <v>18.49328684806824</v>
+        <v>61.52506589889526</v>
       </c>
       <c r="K928">
         <v>-12</v>
@@ -39906,7 +39906,7 @@
         <v>-6</v>
       </c>
       <c r="J929">
-        <v>18.62908411026001</v>
+        <v>55.6312518119812</v>
       </c>
       <c r="K929">
         <v>-12</v>
@@ -39947,7 +39947,7 @@
         <v>-6</v>
       </c>
       <c r="J930">
-        <v>16.97307014465332</v>
+        <v>58.50338387489319</v>
       </c>
       <c r="K930">
         <v>-12</v>
@@ -39988,7 +39988,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J931">
-        <v>16.65922498703003</v>
+        <v>57.80069589614868</v>
       </c>
       <c r="K931">
         <v>-12</v>
@@ -40029,7 +40029,7 @@
         <v>-5.999999996975359</v>
       </c>
       <c r="J932">
-        <v>23.3779468536377</v>
+        <v>59.04758405685425</v>
       </c>
       <c r="K932">
         <v>-11.99999999697536</v>
@@ -40070,7 +40070,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J933">
-        <v>19.60766291618347</v>
+        <v>62.31723284721375</v>
       </c>
       <c r="K933">
         <v>-12</v>
@@ -40111,7 +40111,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J934">
-        <v>16.73598670959473</v>
+        <v>57.76008200645447</v>
       </c>
       <c r="K934">
         <v>-12</v>
@@ -40152,7 +40152,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J935">
-        <v>16.62922215461731</v>
+        <v>52.78508710861206</v>
       </c>
       <c r="K935">
         <v>-12</v>
@@ -40193,7 +40193,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J936">
-        <v>16.81083393096924</v>
+        <v>51.36602520942688</v>
       </c>
       <c r="K936">
         <v>-12</v>
@@ -40234,7 +40234,7 @@
         <v>-2.999999499685866</v>
       </c>
       <c r="J937">
-        <v>16.51795411109924</v>
+        <v>59.97691297531128</v>
       </c>
       <c r="K937">
         <v>-8.999999499685867</v>
@@ -40275,7 +40275,7 @@
         <v>-6</v>
       </c>
       <c r="J938">
-        <v>16.9347140789032</v>
+        <v>59.96114492416382</v>
       </c>
       <c r="K938">
         <v>-12</v>
@@ -40316,7 +40316,7 @@
         <v>-2.999998968372114</v>
       </c>
       <c r="J939">
-        <v>22.09504294395447</v>
+        <v>61.8151490688324</v>
       </c>
       <c r="K939">
         <v>-8.999998968372115</v>
@@ -40357,7 +40357,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J940">
-        <v>22.57440900802612</v>
+        <v>55.04461121559143</v>
       </c>
       <c r="K940">
         <v>-12</v>
@@ -40398,7 +40398,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J941">
-        <v>18.1820080280304</v>
+        <v>60.44646024703979</v>
       </c>
       <c r="K941">
         <v>-12</v>
@@ -40439,7 +40439,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J942">
-        <v>16.701171875</v>
+        <v>56.14794373512268</v>
       </c>
       <c r="K942">
         <v>-12</v>
@@ -40480,7 +40480,7 @@
         <v>-5.999999999999152</v>
       </c>
       <c r="J943">
-        <v>17.6818208694458</v>
+        <v>54.8615460395813</v>
       </c>
       <c r="K943">
         <v>-11.99999999999915</v>
@@ -40521,7 +40521,7 @@
         <v>-6</v>
       </c>
       <c r="J944">
-        <v>18.38226675987244</v>
+        <v>59.55558490753174</v>
       </c>
       <c r="K944">
         <v>-12</v>
@@ -40562,7 +40562,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J945">
-        <v>17.22602987289429</v>
+        <v>65.3641619682312</v>
       </c>
       <c r="K945">
         <v>-11.99999999999999</v>
@@ -40603,7 +40603,7 @@
         <v>-6</v>
       </c>
       <c r="J946">
-        <v>18.08671927452087</v>
+        <v>53.34065508842468</v>
       </c>
       <c r="K946">
         <v>-12</v>
@@ -40644,7 +40644,7 @@
         <v>-5.999999999999995</v>
       </c>
       <c r="J947">
-        <v>17.26143908500671</v>
+        <v>53.74502491950989</v>
       </c>
       <c r="K947">
         <v>-11.99999999999999</v>
@@ -40685,7 +40685,7 @@
         <v>-6</v>
       </c>
       <c r="J948">
-        <v>17.00663232803345</v>
+        <v>56.90130877494812</v>
       </c>
       <c r="K948">
         <v>-12</v>
@@ -40726,7 +40726,7 @@
         <v>-2.999999714941421</v>
       </c>
       <c r="J949">
-        <v>17.67851901054382</v>
+        <v>43.73268795013428</v>
       </c>
       <c r="K949">
         <v>-8.999999714941421</v>
@@ -40767,7 +40767,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J950">
-        <v>17.38413691520691</v>
+        <v>55.32167196273804</v>
       </c>
       <c r="K950">
         <v>-12</v>
@@ -40808,7 +40808,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J951">
-        <v>17.53121495246887</v>
+        <v>55.81585788726807</v>
       </c>
       <c r="K951">
         <v>-12</v>
@@ -40849,7 +40849,7 @@
         <v>-6</v>
       </c>
       <c r="J952">
-        <v>17.27361416816711</v>
+        <v>55.77809596061707</v>
       </c>
       <c r="K952">
         <v>-12</v>
@@ -40890,7 +40890,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J953">
-        <v>17.35066103935242</v>
+        <v>57.27056217193604</v>
       </c>
       <c r="K953">
         <v>-12</v>
@@ -40931,7 +40931,7 @@
         <v>-2.999999312450876</v>
       </c>
       <c r="J954">
-        <v>18.9936351776123</v>
+        <v>56.67558288574219</v>
       </c>
       <c r="K954">
         <v>-8.999999312450875</v>
@@ -40972,7 +40972,7 @@
         <v>-2.999999258841041</v>
       </c>
       <c r="J955">
-        <v>18.45804691314697</v>
+        <v>57.12722492218018</v>
       </c>
       <c r="K955">
         <v>-8.99999925884104</v>
@@ -41013,7 +41013,7 @@
         <v>-6</v>
       </c>
       <c r="J956">
-        <v>18.25300407409668</v>
+        <v>55.21912121772766</v>
       </c>
       <c r="K956">
         <v>-12</v>
@@ -41054,7 +41054,7 @@
         <v>-6</v>
       </c>
       <c r="J957">
-        <v>20.04409694671631</v>
+        <v>58.26634216308594</v>
       </c>
       <c r="K957">
         <v>-12</v>
@@ -41095,7 +41095,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J958">
-        <v>19.22880625724792</v>
+        <v>60.12865805625916</v>
       </c>
       <c r="K958">
         <v>-12</v>
@@ -41136,7 +41136,7 @@
         <v>-2.999999539268895</v>
       </c>
       <c r="J959">
-        <v>17.87517714500427</v>
+        <v>58.52141857147217</v>
       </c>
       <c r="K959">
         <v>-8.999999539268895</v>
@@ -41177,7 +41177,7 @@
         <v>-6</v>
       </c>
       <c r="J960">
-        <v>19.16849422454834</v>
+        <v>55.28112721443176</v>
       </c>
       <c r="K960">
         <v>-12</v>
@@ -41218,7 +41218,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J961">
-        <v>18.75969576835632</v>
+        <v>58.07245421409607</v>
       </c>
       <c r="K961">
         <v>-12</v>
@@ -41259,7 +41259,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J962">
-        <v>19.28873085975647</v>
+        <v>56.47831010818481</v>
       </c>
       <c r="K962">
         <v>-12</v>
@@ -41300,7 +41300,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J963">
-        <v>18.89013600349426</v>
+        <v>57.99897122383118</v>
       </c>
       <c r="K963">
         <v>-12</v>
@@ -41341,7 +41341,7 @@
         <v>-6</v>
       </c>
       <c r="J964">
-        <v>17.36450791358948</v>
+        <v>59.20168900489807</v>
       </c>
       <c r="K964">
         <v>-12</v>
@@ -41382,7 +41382,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J965">
-        <v>17.4746470451355</v>
+        <v>59.01958703994751</v>
       </c>
       <c r="K965">
         <v>-12</v>
@@ -41423,7 +41423,7 @@
         <v>-6</v>
       </c>
       <c r="J966">
-        <v>17.35787487030029</v>
+        <v>58.42791485786438</v>
       </c>
       <c r="K966">
         <v>-12</v>
@@ -41464,7 +41464,7 @@
         <v>-1.999997658306436</v>
       </c>
       <c r="J967">
-        <v>16.72079515457153</v>
+        <v>57.98751306533813</v>
       </c>
       <c r="K967">
         <v>-7.999997658306436</v>
@@ -41505,7 +41505,7 @@
         <v>-2.999998297013379</v>
       </c>
       <c r="J968">
-        <v>16.33953523635864</v>
+        <v>59.21855497360229</v>
       </c>
       <c r="K968">
         <v>-8.999998297013379</v>
@@ -41546,7 +41546,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J969">
-        <v>16.36450815200806</v>
+        <v>56.77317404747009</v>
       </c>
       <c r="K969">
         <v>-12</v>
@@ -41587,7 +41587,7 @@
         <v>-6</v>
       </c>
       <c r="J970">
-        <v>16.63129305839539</v>
+        <v>52.13049602508545</v>
       </c>
       <c r="K970">
         <v>-12</v>
@@ -41628,7 +41628,7 @@
         <v>-6</v>
       </c>
       <c r="J971">
-        <v>16.76658201217651</v>
+        <v>54.96434831619263</v>
       </c>
       <c r="K971">
         <v>-12</v>
@@ -41669,7 +41669,7 @@
         <v>-6</v>
       </c>
       <c r="J972">
-        <v>16.44003105163574</v>
+        <v>54.39395403862</v>
       </c>
       <c r="K972">
         <v>-12</v>
@@ -41710,7 +41710,7 @@
         <v>-2.999999576936871</v>
       </c>
       <c r="J973">
-        <v>16.50172090530396</v>
+        <v>53.57891392707825</v>
       </c>
       <c r="K973">
         <v>-8.999999576936872</v>
@@ -41751,7 +41751,7 @@
         <v>-6</v>
       </c>
       <c r="J974">
-        <v>16.43953108787537</v>
+        <v>53.64417219161987</v>
       </c>
       <c r="K974">
         <v>-12</v>
@@ -41792,7 +41792,7 @@
         <v>-6</v>
       </c>
       <c r="J975">
-        <v>16.42221117019653</v>
+        <v>54.16500115394592</v>
       </c>
       <c r="K975">
         <v>-12</v>
@@ -41833,7 +41833,7 @@
         <v>-1.999999914031377</v>
       </c>
       <c r="J976">
-        <v>16.30401206016541</v>
+        <v>54.64661502838135</v>
       </c>
       <c r="K976">
         <v>-7.999999914031377</v>
@@ -41874,7 +41874,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J977">
-        <v>16.76705884933472</v>
+        <v>54.57989287376404</v>
       </c>
       <c r="K977">
         <v>-12.00000000000001</v>
@@ -41915,7 +41915,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J978">
-        <v>16.58940410614014</v>
+        <v>54.62071299552917</v>
       </c>
       <c r="K978">
         <v>-12</v>
@@ -41956,7 +41956,7 @@
         <v>-2.999999490211592</v>
       </c>
       <c r="J979">
-        <v>16.48741912841797</v>
+        <v>53.2913179397583</v>
       </c>
       <c r="K979">
         <v>-8.999999490211593</v>
@@ -41997,7 +41997,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J980">
-        <v>16.17555212974548</v>
+        <v>51.01052975654602</v>
       </c>
       <c r="K980">
         <v>-12</v>
@@ -42038,7 +42038,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J981">
-        <v>16.26749205589294</v>
+        <v>60.41553282737732</v>
       </c>
       <c r="K981">
         <v>-12</v>
@@ -42079,7 +42079,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J982">
-        <v>16.22354984283447</v>
+        <v>56.63092613220215</v>
       </c>
       <c r="K982">
         <v>-12.00000000000001</v>
@@ -42120,7 +42120,7 @@
         <v>-6.000000000000005</v>
       </c>
       <c r="J983">
-        <v>16.50726914405823</v>
+        <v>56.03879904747009</v>
       </c>
       <c r="K983">
         <v>-12.00000000000001</v>
@@ -42161,7 +42161,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J984">
-        <v>16.70290398597717</v>
+        <v>58.22951507568359</v>
       </c>
       <c r="K984">
         <v>-12</v>
@@ -42202,7 +42202,7 @@
         <v>-6</v>
       </c>
       <c r="J985">
-        <v>16.5039439201355</v>
+        <v>53.83681106567383</v>
       </c>
       <c r="K985">
         <v>-12</v>
@@ -42243,7 +42243,7 @@
         <v>-2.999999757029732</v>
       </c>
       <c r="J986">
-        <v>16.25234794616699</v>
+        <v>55.9259819984436</v>
       </c>
       <c r="K986">
         <v>-8.999999757029732</v>
@@ -42284,7 +42284,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J987">
-        <v>17.0895791053772</v>
+        <v>55.12775874137878</v>
       </c>
       <c r="K987">
         <v>-12</v>
@@ -42325,7 +42325,7 @@
         <v>-5.999999999999997</v>
       </c>
       <c r="J988">
-        <v>18.49321889877319</v>
+        <v>57.76577568054199</v>
       </c>
       <c r="K988">
         <v>-12</v>
@@ -42366,7 +42366,7 @@
         <v>-6</v>
       </c>
       <c r="J989">
-        <v>18.40333914756775</v>
+        <v>58.98186087608337</v>
       </c>
       <c r="K989">
         <v>-12</v>
@@ -42407,7 +42407,7 @@
         <v>-2.999997539593154</v>
       </c>
       <c r="J990">
-        <v>17.57118797302246</v>
+        <v>49.52844071388245</v>
       </c>
       <c r="K990">
         <v>-8.999997539593153</v>
@@ -42448,7 +42448,7 @@
         <v>-2.999999589752703</v>
       </c>
       <c r="J991">
-        <v>17.24907064437866</v>
+        <v>55.42198419570923</v>
       </c>
       <c r="K991">
         <v>-8.999999589752703</v>
@@ -42489,7 +42489,7 @@
         <v>-6</v>
       </c>
       <c r="J992">
-        <v>17.04966974258423</v>
+        <v>58.18206572532654</v>
       </c>
       <c r="K992">
         <v>-12</v>
@@ -42530,7 +42530,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J993">
-        <v>17.23683094978333</v>
+        <v>50.35502314567566</v>
       </c>
       <c r="K993">
         <v>-12</v>
@@ -42571,7 +42571,7 @@
         <v>-2.999999554165722</v>
       </c>
       <c r="J994">
-        <v>17.42665600776672</v>
+        <v>56.76020693778992</v>
       </c>
       <c r="K994">
         <v>-8.999999554165722</v>
@@ -42612,7 +42612,7 @@
         <v>-2.999999203750074</v>
       </c>
       <c r="J995">
-        <v>18.51196885108948</v>
+        <v>52.60975790023804</v>
       </c>
       <c r="K995">
         <v>-8.999999203750074</v>
@@ -42653,7 +42653,7 @@
         <v>-6</v>
       </c>
       <c r="J996">
-        <v>19.1071081161499</v>
+        <v>56.50920391082764</v>
       </c>
       <c r="K996">
         <v>-12</v>
@@ -42694,7 +42694,7 @@
         <v>-6.000000000000003</v>
       </c>
       <c r="J997">
-        <v>13.97183799743652</v>
+        <v>58.35682201385498</v>
       </c>
       <c r="K997">
         <v>-12</v>
@@ -42735,7 +42735,7 @@
         <v>-3.001108967558929</v>
       </c>
       <c r="J998">
-        <v>9.88016414642334</v>
+        <v>26.69442987442017</v>
       </c>
       <c r="K998">
         <v>-9.001108967558929</v>
@@ -42776,7 +42776,7 @@
         <v>-5.999999999999998</v>
       </c>
       <c r="J999">
-        <v>9.773015975952148</v>
+        <v>18.88019514083862</v>
       </c>
       <c r="K999">
         <v>-12</v>
@@ -42817,7 +42817,7 @@
         <v>-6</v>
       </c>
       <c r="J1000">
-        <v>9.474429845809937</v>
+        <v>14.4582211971283</v>
       </c>
       <c r="K1000">
         <v>-12</v>
@@ -42858,7 +42858,7 @@
         <v>-6</v>
       </c>
       <c r="J1001">
-        <v>10.4298050403595</v>
+        <v>12.58934116363525</v>
       </c>
       <c r="K1001">
         <v>-12</v>
